--- a/data/hotels_by_city/Dallas/Dallas_shard_371.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_371.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="674">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>SummerTravler19</t>
+  </si>
+  <si>
     <t>06/12/2018</t>
   </si>
   <si>
@@ -183,6 +186,9 @@
     <t>Fairly new hotel my wife and I decided to stay at for a weekend getaway. Upgraded for a lake view but on the side we were on there was a big tree blocking the view, when I asked about it of course they couldn't do anything about the tree because of zoning issues or something I was offered another room whenever one would come available during my stay but my wife and decided to stay. The free breakfast is ok if you're not a picky eater. There is a Whataburger in walking distance and a bass pro shop also a little further on up is the Hilton where I prefer to stay there are restaurants and a movie theater on site and a coldstone. The holiday inn was clean and comfy everyone was nice and there was plenty of breakfast food......again if you're not a picky eater. All in all if you can't stay at the Hilton this is a good 2nd option.More</t>
   </si>
   <si>
+    <t>RevWarGuy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r515357036-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t>I really enjoyed my stay here.  As a Sapphire Elite member, I was impressed with the cleanliness and modern décor.  The staff was excellent as well.  Thank you for making my stay a comfortable one and for serving turkey sausage an egg white omelets for breakfast.</t>
   </si>
   <si>
+    <t>Txstarkey</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r508135753-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -216,6 +225,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>tarryliss</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r506457123-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -231,6 +243,9 @@
     <t>This is the third time to stay at this hotel while travel to see our son who's in the AirForce in San Antonio.  Every time we've stayed, we've been pleased.  If you are an outdoor person, you are next to a Bass Pro and a beautiful lake.  Lots of eating establishments surrounding you. The breakfast was great and our room as well.  The hospitality was impeccable.  And you have to try out the pool, it's nice as well.</t>
   </si>
   <si>
+    <t>1pamelaferrell</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r500888619-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -255,6 +270,9 @@
     <t>I have to travel to Dallas, TX several times a year for my sons doctor appointments. Since it is such a long drive we stay over night at a Hotel. I travel with two teenage boys, one who uses a wheelchair so a large sitting area is important. I chose this hotel because of the reviews and because of the pictures shown for a two bed suite. The pictures of the standard room show a very small sofa. The pictures of the 2 bed suite show a much larger sofa &amp; sitting area. I thought this was the difference between a standard room &amp; suite. When we walked in to our room it had a tiny twin size sofa crammed in between the bed area and bathroom. It was a very small cramped room. At first I thought we had been put in a standard room not a suite. We headed back down to the front desk. Another person was in their doorway complaining to someone from the hotel about the noise kids were making. It is a very busy hotel in a busy area. When I asked the desk clerk about the sitting area/sofa in our room I was told that only the balcony suites have the larger sitting area and sofa and that they were all booked. I complained that the pictures attached to the 2 bed suites were misleading and asked for my money back. I was...I have to travel to Dallas, TX several times a year for my sons doctor appointments. Since it is such a long drive we stay over night at a Hotel. I travel with two teenage boys, one who uses a wheelchair so a large sitting area is important. I chose this hotel because of the reviews and because of the pictures shown for a two bed suite. The pictures of the standard room show a very small sofa. The pictures of the 2 bed suite show a much larger sofa &amp; sitting area. I thought this was the difference between a standard room &amp; suite. When we walked in to our room it had a tiny twin size sofa crammed in between the bed area and bathroom. It was a very small cramped room. At first I thought we had been put in a standard room not a suite. We headed back down to the front desk. Another person was in their doorway complaining to someone from the hotel about the noise kids were making. It is a very busy hotel in a busy area. When I asked the desk clerk about the sitting area/sofa in our room I was told that only the balcony suites have the larger sitting area and sofa and that they were all booked. I complained that the pictures attached to the 2 bed suites were misleading and asked for my money back. I was told they do not do that. I have never had that kind of problem at any other hotel, it was a take it or leave it attitude. I will add that I have stayed in many Holiday Inn hotels and have always been happy with the room and the service. Since my cell service wouldn't work well in the area I couldn't  look for something else and ended up driving several hours at night to get home. I rented directly through the Holiday Inn webpage. You can not leave a review on their website without being a IHG Reward Clubs member.More</t>
   </si>
   <si>
+    <t>tribojet</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r499909870-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -270,6 +288,9 @@
     <t>We came me to Rowlett to visit our granddaughter. After several trips we found this HIE. We enjoy it and it's always clean . Very comfortable beds. The color scheme and decor is very modern which is a great change from most hotels we visit. The management started honoring a Reward Member a Day and was pleasantly surprised on July 4, to see my name on a decorated blackboard in the lobby. It entitled me to a suite upgrade and snacks from the snack bar. Thanks for the recognition and we'll see you again soon!</t>
   </si>
   <si>
+    <t>m_selvanayakam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r498285443-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -288,6 +309,9 @@
     <t>Located close the Lake Ray Hubbard, this comfortable hotel is located on the border of Garland and Rockwall. The hotel is located about four miles from the lake attractions &amp; restaurants. Quite friendly and helpful  frontdesk staff, and the hotel lobby had a good ambience.The hotel provided complimentary continental breakfast;  however, no restaurant is attached to the hotel.The room we stayed was a two queen bed suite (on the third floor) with a lake view. However, the view of the lake was mostly obstructed by the trees. The suite did come a fridge and a microwave oven, but did not have a separate kitchen (cooking area). The living area had a loveseat. The room decor looked okay.More</t>
   </si>
   <si>
+    <t>wht137</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r497809593-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -303,6 +327,9 @@
     <t xml:space="preserve">This is a modern, clean, newer hotel.  The rooms were large and had newer touches, such as, USB ports.  The design of the hotel was sleek and the customer service was great.  The breakfast area was large and spacious.  The variety of breakfast items was typical of a holiday inn express.  Items were replenished quickly and the attendant was kind and helpful.  I would recommend this hotel and I would definitely stay there again if in the area.  </t>
   </si>
   <si>
+    <t>Mandy M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r496378190-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -321,6 +348,9 @@
     <t>May 2017</t>
   </si>
   <si>
+    <t>MoBoogie2009</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r493349782-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -351,6 +381,9 @@
     <t>My husband &amp; I stayed one night June 11-12, 2017. It was our first time ever staying here. When we arrived the front desk employee was very nice &amp; helpful. We really liked our room. It was nicely decorated, cozy, &amp; we noticed no problems with it. Everything was fine until we went to bed. The guests above us were terribly loud! I turned on the sound machine on my phone to block out some of the extremely loud stomping and/or jumping. I finally called the front desk around 12:15am as we could not take it anymore. Andre at the front desk was very nice &amp; said he would take care of it. A little bit after that, the noise stopped &amp; we were able to sleep. Around 6:00am the guests upstairs were at it again &amp; woke us both up! My husband got dressed &amp; went downstairs to talk to the manager. He told her how our night had gone &amp; that we were not able to get much sleep. One of the employees came up while they were talking &amp; explained to my husband that "she wished she got 6 hours of sleep a night &amp; that she only gets 4 hours". My husband told her that he had an important job interview &amp; that's why we were staying there. I just have to say if your employee were paying us $80+ a night to sleep at our...My husband &amp; I stayed one night June 11-12, 2017. It was our first time ever staying here. When we arrived the front desk employee was very nice &amp; helpful. We really liked our room. It was nicely decorated, cozy, &amp; we noticed no problems with it. Everything was fine until we went to bed. The guests above us were terribly loud! I turned on the sound machine on my phone to block out some of the extremely loud stomping and/or jumping. I finally called the front desk around 12:15am as we could not take it anymore. Andre at the front desk was very nice &amp; said he would take care of it. A little bit after that, the noise stopped &amp; we were able to sleep. Around 6:00am the guests upstairs were at it again &amp; woke us both up! My husband got dressed &amp; went downstairs to talk to the manager. He told her how our night had gone &amp; that we were not able to get much sleep. One of the employees came up while they were talking &amp; explained to my husband that "she wished she got 6 hours of sleep a night &amp; that she only gets 4 hours". My husband told her that he had an important job interview &amp; that's why we were staying there. I just have to say if your employee were paying us $80+ a night to sleep at our house, I'm sure she would expect to get as much sleep as she needed. They then explained that the loud guests were checking out that day, too. How does that make up for our night? We really liked everything here at first, but after the night &amp; morning we had, and the fact that no one helped to rectify our situation, we won't be back.  More</t>
   </si>
   <si>
+    <t>safetyman79</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r492155247-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -366,6 +399,9 @@
     <t xml:space="preserve">Far and away the best Holiday Inn Express I have ever stayed in and I've stayed in 100's.  The decor was completely different than any I have ever seen.  The room rivals a 5 star hotel.  The staff was extremely nice and helpful.  Shannon and April were so nice and helpful when I checked on.  Nothing but a 10 from me.  I will definitely be back. </t>
   </si>
   <si>
+    <t>ChristyAnderson</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r490206417-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -381,6 +417,9 @@
     <t>This place is for you!  We had a leadership training there for Enagic Friday, so I drove from Arkansas to Garland and stayed the night.  I didn't need a suite, although I would bet they are beautiful.  This place was stunning because everywhere you looked, they had purple.  Not obnoxious, just plain beautifully done.  Colton, at the front desk, was friendly and so helpful!  Our new office for the Dallas area is nearby, so I'm sure, I'll be back!</t>
   </si>
   <si>
+    <t>MistiATX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r488892647-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -399,6 +438,9 @@
     <t>Great large rooms, excellent linens, extremely clean. This is still a fairly new hotel, but it has been well kept and maintained. The staff are very nice and the breakfast offers a variety of options. The double suite ($142.00 total one night stay) was exactly what we needed for the 4 of us. They have a great workout room and an outdoor pool. I also liked the location, next to several restaurants - Primios, Hooters, Texas Land and Cattle and Islamadora inside Bass Pro Shop. All of the restaurants have excellent patios too! It's not right on the water, but you can see the lake from the backside high floors. We will definitely return. More</t>
   </si>
   <si>
+    <t>Emily G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r486693110-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -417,6 +459,9 @@
     <t>Holiday Inn Express is my preferred hotel for quick trips. As others have written, this hotel is super new, stylish, clean and comfortable. Even though it's in a business complex of sorts and right by the highway, my room (on the first floor, facing the parking lot and highway) was pin-drop quiet. Bed was really comfy, too. Always enjoy their free breakfast, of course.Only reason this doesn't get 5/5 is because two of the three large towels in my bathroom were stained (!). It was an unpleasant discovery, especially two times in a row. Not sure if that was a snafu or what, but hopefully they'll take a closer look at their towels (or drop in some more bleach next time!).More</t>
   </si>
   <si>
+    <t>MarthaFromAlabama</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r486085092-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -432,6 +477,9 @@
     <t>This was the second time I have stayed here and I have no complaints. The decor is a bit odd, with some purplish lighting, but that's okay. Rooms are clean, breakfast is fine, and you can walk to restaurants like the Flying Saucer. Also the gas station almost next door had great street tacos and a good beer selection, so you can always bring supper in to your room.</t>
   </si>
   <si>
+    <t>Bruce H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r483441575-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -447,6 +495,9 @@
     <t>We spent 5 days at this hotel in Rowlett Texas.  It was the second time we have stayed there.  Good location, near our daughter.  Found one small cockroach.  Management gave us 5000 points.  Seemed like a fair deal.  Other than the bug it was a great stay.  We would stay again</t>
   </si>
   <si>
+    <t>Joseph T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r483427018-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -459,6 +510,9 @@
     <t>The staff, food, and cleanliness was excellent to say the least. Rossy at the front desk was very professional and kind. I would highly recommend this hotel to anyone.  Better than most I have stayed in my travels.</t>
   </si>
   <si>
+    <t>Nora O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r475877171-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -477,6 +531,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>Charles H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r472148343-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -495,6 +552,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>Rebel142</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r471975122-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -510,6 +570,9 @@
     <t>Fairly new and modern hotel.  I have stayed here multiple times and have always enjoyed my stays.  Awesome location near Bass Pro and a number of restaurants, a limited number of rooms have a lake view.  Clean, comfortable and affordable rooms.  Breakfast is above average.  Highly recommend and will be back.</t>
   </si>
   <si>
+    <t>Tess S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r470545056-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -525,6 +588,9 @@
     <t xml:space="preserve">I travel fairly frequently and it's hard to find a good combination of clean, comfortable and affordable all in one. The breakfast was AMAZING. Warm, delicious, presentation was on key... everything from check in to check out was great. The staff was very helpful &amp; very professional. I HIGHLY recommend this hotel. You won't be disappointed. </t>
   </si>
   <si>
+    <t>Larry R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r447800952-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -552,6 +618,9 @@
     <t>We have family in Garland and decided to spend a night at this Holiday Inn Select about 5 minutes away from their house.  Within a short walk to Bass Pro, Primo's (Mexican Food), Flying Saucer and Hooters.  I paid the extra $10 for a lake view and was very pleased with the overall value of the room.  I went down the for the free breakfast the next morning and for the typical eggs, gravy, meats and biscuits, I'd say it was above average.  I think the hotel has been open less than a year so it was new and clean.  I'll definitely be going back again.More</t>
   </si>
   <si>
+    <t>22gibbs</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r446813564-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -567,12 +636,18 @@
     <t>Beautiful hotel!! We really enjoyed our stay...everything was great!!!. The room was very clean and the beds so comfortable and awesome location. It exceeded our expectations. We are sure to visit again hopefully in the spring or summer so we can enjoy the pool!!!</t>
   </si>
   <si>
+    <t>paandma1963</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r443820949-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
     <t>443820949</t>
   </si>
   <si>
+    <t>JimF99</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r440381935-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -597,6 +672,9 @@
     <t>This is a very new (2 years) and clean place to stay. Very quiet. Staff was very friendly and helpful, except for the non English speaking. Bed was very comfortable. Heat and air is silent and thermostat controlled on wall. Will stay again. More</t>
   </si>
   <si>
+    <t>nordloh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r438640767-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -624,6 +702,9 @@
     <t>I stayed at the Holiday Inn Express in Garland for business and it was very good. The hotel is walking distance from Hooters, Flying Saucer, Primos, Texas Land and Cattle, and Bass Pro Shops.  It is right near Hubbard Reservoir and you van catch great scenery.  The hotel has a good gym and pool.  My room was clean and well equipped.  There is a decent breakfast in the lobby in the mornings.  At the front desk, Shannnon is friendly and helpful.  I recommend this hotel and will be back!More</t>
   </si>
   <si>
+    <t>Steven H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r431676276-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -651,6 +732,9 @@
     <t>This a new Holiday Inn Express and Suites as I understand it only several years old. Being from Minnesota the purple and gold think Vikings or Prince. The room was spacious, comfortable. but with a shower --I would have like a tub/shower combination.   It appears the whole hotel is LED lighting. Plenty of parking. Choice of places to eat almost next door. Breakfast was fine -- always was greeted by someone to say good morning. Good staff. It would apper to me the owners spent the extra dollars to build to make an outstanding stay with the long term concept for payback, It will work.More</t>
   </si>
   <si>
+    <t>gfsu</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r419001660-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -675,6 +759,9 @@
     <t>Overall decor is modern, hotel is bright, clean and inviting. The room was large and the layout effective. The staff was welcoming and the hotel is in walking distance to quite a few places to eat. Overall by far the nicest one of these I've ever stayed at and I would come back again.More</t>
   </si>
   <si>
+    <t>Bob-Sharon B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r413714799-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -702,6 +789,9 @@
     <t>This is an excellent hotel with beautiful decorations in the halls and in the rooms.  It is very clean with beautiful lighting in each room.  Internet works very well and the breakfast is to die for.  The beds are very nice and extremely comfortable.More</t>
   </si>
   <si>
+    <t>GetawayGalSays</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r412069554-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -726,6 +816,9 @@
     <t>We popped in for an overnight stay and loved it. As much as I prefer a room with a bathtub over a shower only, this shower was great and did not slop water all over the floor. Staff were cheerful and attentive. The bed was super comfortable and everything looks gorgeous. We will return soon. More</t>
   </si>
   <si>
+    <t>Isaias S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r411466408-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -744,6 +837,9 @@
     <t>Wonderful bright &amp; colorful environment, makes me feel like I'm in the 70's grooveI decided to become more invested into Holiday Inn Express &amp; Suites, so I had just became a rewards member on my most recent trip. Sadly, I was disappointed when my significant other had pointed out a tear in the sofa cushion. Out of curiosity, I decided to call the Hyatt Regency that is connected to reunion tower in downtown and ask them what their going rate was on the same night.To my surprise it was a better rate than the price I had paid for the room that I was sleeping in.Since then I have been staying at the Hyatt and have not been taking advantage of my rewards with Holiday Inn.I personally from now on would recommend paying a little bit less and getting a little bit more with Hyatt.Granted that was on that particular night but the prices are always cutting close and I know with whom I'm going with next time.More</t>
   </si>
   <si>
+    <t>wcarter13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r400331554-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -774,6 +870,9 @@
     <t>We thoroughly enjoyed the hotel.  Breakfast was more than typical at most hotels.  Room was very nice. We had all the comforts and had a great price. Staff was super attentive and friendly. Small pool but our party enjoyed it. Close restaurants and Bass Pro ShopMore</t>
   </si>
   <si>
+    <t>57Chevyluv</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r397355681-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -796,6 +895,9 @@
   </si>
   <si>
     <t>The hotel was clean and quiet,beds were very comfortable, room was clean. Breakfast was adequate, with good choices for parents and the teens. Only drawbacks were too few bath towels, housekeeping forgetting to leave any bath towels at all after servicing, and the hotel's refusal to accept/allow AAA rate. Good accomdations overall, but a little overpriced. We will stay there again due to the convenient location.More</t>
+  </si>
+  <si>
+    <t>Frank M</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r394510023-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
@@ -821,6 +923,9 @@
 Check in was simple and quick with friendly service. Our room (I was traveling with 2 of my teenage daughters) was large enough and clean enough though not spotless. I found a few old things missed by housekeeping. The beds were comfortable and the a/c while not whisper quiet did a fine job of keeping our room cool. I tend to notice details and the finish work by the construction team was poor as was the installation of some of the decorative panels which were not level. The bathroom door was a bit out of whack also. This did not really affect the quality of our stay but it...This is a newer HIE and what especially sets it apart from the many other HIE's I have stayed at is the decor. They have gone with a modern hip vibe which can be fun but probably is not suited for some tastes and you could argue not the ideal choice for a middle of the road Holiday Inn Express near Dallas. While this style works well at SPG's Le Meridien and suits that brand perfectly I would have preferred more of the Hyatt Place feel, which BTW is probably the best value in the $100 hotel night range. On the positive side you do feel energized by the decor and it is interesting to check out and try to figure out...especially the lobby lighting. Ok, enough about the decor already!Check in was simple and quick with friendly service. Our room (I was traveling with 2 of my teenage daughters) was large enough and clean enough though not spotless. I found a few old things missed by housekeeping. The beds were comfortable and the a/c while not whisper quiet did a fine job of keeping our room cool. I tend to notice details and the finish work by the construction team was poor as was the installation of some of the decorative panels which were not level. The bathroom door was a bit out of whack also. This did not really affect the quality of our stay but it reflects where HIE is as a brand. They are missing the little details. This also showed up in breakfast which is free so what do you want, right? Breakfast was minimal and readymade breakfast fare, but I have had better at other HIE’s. The eating area off the lobby was not very conducive to enjoying your meal. I guess it just felt a bit awkward eating in a space which reminded me of my visits to "Tomorrow Land" at Disneyland when I was a child.This is a good hotel choice for the area and could be fun for a couple’s getaway on a budget. The lake is adjacent to the hotel and there are some good restaurants choices close by. I would probably stay here over the hotel choices in Rockwall if that was my destination with the exception being the Hilton Lakeside which of course will cost quite a bit more. And if purple is your color than by all means this is your place to stay!More</t>
   </si>
   <si>
+    <t>Sam T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r392302145-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -846,6 +951,9 @@
   </si>
   <si>
     <t>Pretty basic Holiday Inn except they have a wacky purple/yellow thing going on. I had a great view of the lake in my room. Negative aspects: my sheets were itchy and my sink smelled like rotten eggs when I ran water down it.More</t>
+  </si>
+  <si>
+    <t>Elester W</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r388602976-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
@@ -894,6 +1002,9 @@
 The design is...The Bad:The Wifi is free but incredibly slow. At night the speed was clocked as low as 0.70 Mbs upload (which is even too slow to use Facebook).My family booked several nights in a row (a week or so) and because of this housekeeping routinely choose to clean our room last, even though we were in the middle of the hallway. During our stay they came as late as 4pm.The floor mounted AC makes the bed adjacent to it unusable and the rooms is either too hot or two cold. In the suite there are as many as 14 light switches, all un-marked and several control the same thing. Other switches will stop the lights from coming on with one of the other switches. A dead roach and numerous spider eggs were found in the stairwell for the duration of our stay. Several live roaches were spotted occasionally in the stairwell. These stairwells were indoors yet they had doors which led directly to the outside. Thankful none were seen in the hallways or rooms. Not all suites have a balcony.The good:Breakfast items are occasionally shuffled so you have some variety if you eat everyday. Breakfast is free and the portions set out are mostly fresh because it goes very quickly, but it is replaced timely.24/7 access to free coffee, tea, and hot chocolate. There are two TVs in the workout rooms.The design is really upbeat and makes you feel like you are staying somewhere cool and exotic.More</t>
   </si>
   <si>
+    <t>Tanja P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r386261874-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -918,6 +1029,9 @@
     <t>I can deal with a spot or two that was missed on the night stand. I can deal with a spoon overlooked on the floor. I can deal with a sticky remote control. But when I pulled back the sheets and saw a bug crawling I had to leave! I have stayed here several times and not had any major problems but I will not be staying here again at this location.More</t>
   </si>
   <si>
+    <t>Bruce C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r382684589-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -942,6 +1056,9 @@
     <t>Great experience, in a clean modern hotel.  I have stayed at a lot of Holiday Inn Express Hotels for business, and this one definelty has a unique decor.  Friendly check in service, hotel and rooms are clean.  I was on the third floor, and WiFi was a little slow....otherwise I would have given the hotel a five star rating.  That being said, I will stay here again, when I am next in the area.More</t>
   </si>
   <si>
+    <t>drbblew</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r380952846-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -969,6 +1086,9 @@
     <t>The lobby is decorated "funky" - modern.  Really nice. Room was clean and comfortable.  Front desk staff very helpful. Breakfast was plenty and everything fresh.  Really good muffins. Bass Fishing next door is very fun to visit.... has restaurant with an aquarium view and shooting range for kids.More</t>
   </si>
   <si>
+    <t>mdland711</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r374245637-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -993,6 +1113,9 @@
     <t>We are staying in the next month...What a treasure to work with this staff.  The sales department is wonderful.  B meet me and gave me a tour.  Was very attentive to the needs for our event.  The hotel is near the lake and a lot of great places to eat.  I was impressed with the rooms, the pool area and the staff.  Look forward to a great event.More</t>
   </si>
   <si>
+    <t>C P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r345194674-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -1020,6 +1143,9 @@
     <t>This hotel is a new updated Holiday Inn Express, lots of neon accent lighting. The hotel is very well taken care of, clean and very inviting. I've stayed multiple times and the staff is always very friendly and welcoming. My last stay I asked for a different room at I like the higher floors. They were very accommodating and immediately changed my room.More</t>
   </si>
   <si>
+    <t>mgwheeler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r341771725-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -1047,6 +1173,9 @@
     <t>The hotel is overly priced. No lights/lamps in the rooms, which are small, except over head light and light above computer space. No lights by the bed. However, to be fair the beds were extremely comfortable. There are no towel racks in bathroom..not everyone throws towels on the floor. Majority of staff were very friendly and helpful. I was shocked at the decoration as the majority of HI Express I have stayed in are not "this busy". It is not a comfortable setting at all.  The breakfast bar had nothing but expired milk, biscuits you could have played hockey with and watered down orange juice. Even the little "pantry" area was halfed staffed with items. It is a shame considering Holiday Inn Express is a good place to stay. Don't plan on using internet service, could not open up emails on phone or computer.More</t>
   </si>
   <si>
+    <t>traveladdict468</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r341681322-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -1060,6 +1189,9 @@
   </si>
   <si>
     <t>Pros:  The property is about 1 year old.  From the look from outside the property is very modern, nice, and with contemporary design.  The lobby smells really good when walk in from outside.  Half of the room in the hotel has lake view.  The hotel is next to I-30 freeway.  Walking distance to Bass Pro, Flying Saucer, Primo Tex-Mex, Whataburger and other restaurants.  About 10 min from Target, Walmart, Ross, and other dining options if heading East on I-30 crossing over the lake.  Cons:  it smells really bad like stinky sewer whenever water is turned on at the sink faucet.  Mold is at the bottom corner of the bathtub.  Bathtub coating is peeling off.  Called front desk around 10:30am and waited at least 1 min but no one pickup the phone.  We booked suite with lake view but when we got here, the hotel ran out of suite room????  This is unacceptable.  Don't mislead customer if suite rooms are sold out.  The sink is cracked also.  Overall, not so new!!!At first, I would stay here again but after 2 nights here, I will consider other option.More</t>
+  </si>
+  <si>
+    <t>DFWTravelerDallas_TX</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r332737707-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
@@ -1089,6 +1221,9 @@
 When we arrived there were cars blocking the EV charging spots; gas vehicles not needing to utilize them.  The only way I was able to charge was the fact that my wife put her car in one of the spots on the other side of a patch of grass, and it just so happened to be close enough that the cord would stretch for me to charge...This is a relatively nice hotel with a few casual restaurant/bar options that are walkable.  Our room was plenty spacious and clean and modern.  Lobby of the hotel was fairly nice and employees were helpful.  The one feedback I would really like to give to the hotel management should they read this, is they really need to put better signs to indicate the parking spots that are for EV charging.  The main reason I chose this hotel over others in the area was due to the fact that they have charging spots available for electric vehicles.  No other hotel in the area has this as best I know.  But the spots were not marked in any way to indicate they are for EV's.  Many people are not yet familiar with electric vehicle and chargers provided for them by many businesses.  People will park there typically because they are not aware the spots are for electric vehicles.  It really is the equivalent of someone parking at a gas station spot without needing to refuel.  When we arrived there were cars blocking the EV charging spots; gas vehicles not needing to utilize them.  The only way I was able to charge was the fact that my wife put her car in one of the spots on the other side of a patch of grass, and it just so happened to be close enough that the cord would stretch for me to charge up.  So when I arrived late night she moved her car and I parked there and was able to charge.  If she hadn't done this I am fairly certain her spot would have been occupied by other vehicles not needing to charge.  You earned my business by providing a place to charge my car.  But it almost didn't work out well and it was only because my wife got there long before I arrived that I was able to charge my car.  It would be useful to put a prominent sign by these EV spots to indicate what they are for so that others don't take them by mistake.  I have stayed at many hotels where prominent signs are in place to make people aware.  Some even put a traffic cone in the parking spot to make it more obvious or paint something on the cement to indicate they are for EV charging.  This may be an infrequent issue at your hotel right now, but I can assure you the number of people driving EV's is growing exponentially and you will get more and more people in the future needing/wanting to utilize the chargers.  Thank you for providing the charging spots, but please go a step further to make sure your EV customers are able to utilize them.More</t>
   </si>
   <si>
+    <t>cynthiavan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r330995993-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -1113,6 +1248,9 @@
     <t>This hotel is so much better than the Microtel in Brandon Mississippi. The staff are very nice. My only thing to say is our room was freezing they hadn't had the heater turned on so my room was 58* degrees upon arrival. Should had them on it took a while to become warm. The room is cozy. It came with small fridge and microwave and free wifi!! I'll stay again for sure!!! Oh surrounded by restaurants and shopping!!!More</t>
   </si>
   <si>
+    <t>Lisa A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r330156898-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -1140,6 +1278,9 @@
     <t>When you first walk in the room there is such a clean smell.  The beds are very comfortable and the supplies well stocked.  They even had a sectional in the room with the king size bed.  Very nice.  The staff is very friendly and accommodating.  The hotel itself is new and contemporary with a wonderful color scheme.  The lobby area is great gathering place to eat and watch TV. I love this hotel.More</t>
   </si>
   <si>
+    <t>RedHornet72653</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r328226941-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -1161,6 +1302,9 @@
     <t>The hotel is a good one though stay away from floor one rooms in the Breakfast Area. It is a clean place and very handy. An =easy drop in and out of Dallas and close to Bass Pro as well as the freeways.More</t>
   </si>
   <si>
+    <t>grandma80401</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r324244122-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -1182,6 +1326,9 @@
     <t>Everything about this hotel was comfortable, and everything about this hotel was ultra modern.  We loved the sectional in the suite.  It was comfortable and had room enough for a whole family.  There were more lights in this room and I have ever seen in a hotel .  There were also plenty of outlets both electrical and USB.  There was even a ceiling fan over the bed.That said, I found all the blue and purple lights a bit garrish, although my husband loved them.  The decore made me feel like I was living inside a cartoon - expecially in the dining area.  But it was clean, the beds were comfrotable and the bathroom was beautiful and functional.  This is a great place to stay, just a bit on the funky side.More</t>
   </si>
   <si>
+    <t>Scorpioess</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r324221214-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -1203,6 +1350,9 @@
     <t>Great location, clean room &amp; up to date appliances with modern decor... The staff were super friendly and accommodating... Thank you so much Holiday Inn Express for staying true to your mission statement!More</t>
   </si>
   <si>
+    <t>TTechnologies</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r323757849-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -1227,6 +1377,9 @@
     <t>Excellent hotel as far as technology and style. Hotel is up-to date and modern. Lighting technology is also very unique. bright and neon lights scale the hallways and rooms. Safe and quiet environment. Breakfast tasted good and fresh.More</t>
   </si>
   <si>
+    <t>tomthbomb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r321444696-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -1251,6 +1404,9 @@
     <t>I have stayed here on business trips several times in the recent past. Other than a few issues that needed to be fixed as with any new property the hotel itself is great. The management was in its' learning phase.I returned recently with my spouse for a little get away. I reserved a "Lakeview Suite". When we arrived the manger (owner?) advised no Lakeview Rooms" were available. Half the rooms at this property are Lakeview rooms.I am an IHG Hotel chain Spire member, the highest level obtainable. That means nothing here. Spire members take notice.More</t>
   </si>
   <si>
+    <t>TortugaGal28</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r313038611-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -1278,6 +1434,9 @@
     <t>This hotel is in a great area, very safe and clean. The hotel interior was beautiful, not what you typically think of a Holiday Inn. The bed was comfortable and everything in the room was clean and new. Quiet too, even when we stayed on the first floor.Only reason I am not giving a 5 star review, is the customer service at the front desk was not as friendly as it could have been and the breakfast could use a few improvements. The pancakes were spongy and the eggs were instant and tasted as such.More</t>
   </si>
   <si>
+    <t>Hanbeth1988</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r312213261-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -1302,6 +1461,9 @@
     <t>Pretty awesome looking hotel when you walk in the lobby it's like a hotel of the future! Very modern and up to date! The purple And green are so cool and makes you feel just happy to be in such a clean and bright environment! I would def go back! Primos is great close by to eat Tex mex we walked there! Just being right by the water is awesome! Highly recommend this hotel and will go back in a heartbeat!More</t>
   </si>
   <si>
+    <t>Teri R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r306524998-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -1326,6 +1488,9 @@
     <t>This hotel is beautiful. It sparkles in every way. The beds and pillows are luxuriously decadent. After a very long trip we need an unexpected hotel stay. We greeted by a lovely woman who pointed me to where I could have a much needed cup of hot tea, told me about the complimentary breakfast and wished us good night. It has far exceeded my expectations. Thank you for making the crazy day we had fade away.More</t>
   </si>
   <si>
+    <t>Suzan K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r305955362-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -1353,6 +1518,9 @@
     <t>We stayed here over a weekend. The hotel is new and pretty. We had a balcony view of the lake. Rooms were clean, but on the 2nd night we found a huge cockroach on the wall. Also, breakfast was mediocre and I opened a rotten carton of milk. Food seemed stale and old. On our 2nd day, I called front desk and told them that my youngest was ill and we needed to check out. He was not sympathetic or willing to let us leave without paying for the night. We usually get much friendlier treatment at Holiday Inns.More</t>
   </si>
   <si>
+    <t>WineEng</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r303529661-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -1371,6 +1539,9 @@
     <t>Having stayed in the area many times, this is my first at this HIE in Garland right on the lake. It's really nice compared to others in the area. Decor is very modern, almost futuristic. Use of LED lighting is almost over the top, but it gives it a cool look. Maybe they were influenced by being next to the Flying Saucer beer joint. Anyway the room was very clean and more like something you'd pay $300 for in downtown Chicago. The staff was friendly and helpful. The morning breakfast was standard HIE fare which means good. Plenty of parking and four restaurants within walking distance. As this is just off Hwy 30, it's super easy to find. If you need to stay in the East Dallas area, this place is highly recommended. Cheers!More</t>
   </si>
   <si>
+    <t>Ray a</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r299699399-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -1416,6 +1587,9 @@
     <t>We picked this hotel due to it's proximity to family we were visiting. It is new, clean, and convenient. The staff was very friendly and the included breakfast was good. The decor is funky - not exactly what I would choose, but it certainly didn't interfere with our enjoyment of our stay. We plan to return and would recommend this hotel to othersMore</t>
   </si>
   <si>
+    <t>Donald A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r294155213-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -1434,6 +1608,9 @@
     <t>I was concerned about water issues reading some of the other post. Put your mind at ease those issues have been corrected and there is plenty of hot water.  This has been one of my favorite hotels and I long time. I love the modern vibrant decor and the staff are very very friendly.  In fact my wife and I have booked another state this weekend we were so pleased with the atmosphere. You will do yourself a favor if you stay here. More</t>
   </si>
   <si>
+    <t>farawaydreamer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r291300382-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -1452,6 +1629,9 @@
     <t>Nice hotel within walking distance of Bass Pro in Garland. Easy on and off Interstate 30.  A few places to eat also within walking distance.  I like purple, but whoever built this hotel, is obsessed with it!!!  Staff is very friendly.  More</t>
   </si>
   <si>
+    <t>Denis M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r288500583-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -1476,6 +1656,9 @@
     <t>The property is new and beautiful but it has some issues the front desk and breakfast hostess working Saturday 07/11/15 during the morning were not friendly at all. No swimming pool towels in the pool area, the swimming pool umbrella not working and if you are staying here ask for a room on the third floor because on the first floor you can heard the water coming down the drain when someone flushes the toilet.More</t>
   </si>
   <si>
+    <t>jackkip</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r287963352-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -1527,6 +1710,9 @@
     <t>This new hotel on Lake Ray Hubbard in Garland is different from any other Holiday Inn Express I have encountered. The decor is reminiscent of a full blown Holiday Inn. The staff is courteous and managed to fine an upgrade recognizing my membership status.This hotel will be my base for east Dallas as long as the rates remain reasonable.More</t>
   </si>
   <si>
+    <t>Joy A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r285306256-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -1549,6 +1735,9 @@
   </si>
   <si>
     <t>This is a uniquely decorated hotel with fun colors!  It is new and was very clean and comfortable.  We were traveling with a disabled family member and they changed rooms for us upon arrival to accommodate her needs.  Great service and good breakfast.  Nice restaurants or Whataburger within walking distance.More</t>
+  </si>
+  <si>
+    <t>JulieGeek</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r282415449-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
@@ -1581,6 +1770,9 @@
 Coming back every evening to a clean, comfy room with hot cocoa was a life-saver. Crisp sheets, fluffy towels, and  Citrus White Tea bath products made it pleasant. Tasty abundant hot breakfast enabled us to face our own personal disaster--with, if not enthusiasm, then, equanimity--every day. There was also a cheerful lady who worked the breakfast room. And the pancake machine that beats...If you like funky decor, this is definitely the place for you. I funk not, but still found it oddly charming. If you find purple and chartreuse off-putting, be comforted in the fact that the hotel is really nice.We have stayed here twice. The first was New Year's Eve 2015 right after this hotel opened. It was good from the get-go. I didn't have a sense of a "soft" launch or anything. The 4th floor could use a bit more sound-proofing on the top because we could hear the rain. If you like to hear the rain, then maybe it's a good thing.The second time was May 2015 when we had to evacuate our house after a flood. We moved in here for two weeks and they were great. Amanda at the front desk must be one of the nicest people on the planet. She gave us a heads-up that if we were needing to extend our stay into a busy weekend, we ought to do it sooner rather than later. That was good advice.Coming back every evening to a clean, comfy room with hot cocoa was a life-saver. Crisp sheets, fluffy towels, and  Citrus White Tea bath products made it pleasant. Tasty abundant hot breakfast enabled us to face our own personal disaster--with, if not enthusiasm, then, equanimity--every day. There was also a cheerful lady who worked the breakfast room. And the pancake machine that beats the waffle maker hands-down. We also had the unusual opportunity to use the laundry room which was also very nice.And it's walking distance to The Flying Saucer on the Lake (awesome!), Bass Pro, Texas Land &amp; Cattle Company, Primo's (Mexican), Whataburger, the Beef Jerky Outlet, and CiCi's Pizza.My only complaint was that the "proximity" key cards stopped working several times during our stay. Annoying, but quickly resolved each time.More</t>
   </si>
   <si>
+    <t>Sugardoll80</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r281730564-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -1609,6 +1801,9 @@
 If you're looking for a nice and clean suburban...This hotel recently opened within the last few months.  It's in a great location next to Interstate 30, Lake Ray Hubbard, Bass Pro Shops and a few restaurants (i.e. Whataburger, Flying Saucer).  Initially, I thought the noise from I-30 would be a problem but it wasn't.  From my room, I couldn't hear the freeway traffic.  My stay included two nights in the Executive King Suite, which had a nice sofa bed with a chaise, microwave, and fridge.  I loved the trendy decor with the purple and gray colors.  Normally, I stay at a Marriott brand but a took a chance on this hotel since it was new and needed to be close to the Garland High Schools' graduation ceremonies.  The customer service didn't match what I normally receive with Marriott.  I didn't feel as welcomed.  Maybe, if I was an IHG Rewards member, the service would have been better.  Also, the hotel still needs to work out a few "newness kinks".  For example, the hot and cold water were hooked up backwards on the bathroom sink.  You had to turn the knob to the right for hot and vice-versa for the cold.  The shower door needed an adjustment with the rubber.  Outside of that, I think it's a great hotel with complimentary breakfast and internet.  I can't comment on the breakfast, because I didn't wake up in time to catch it.  If you're looking for a nice and clean suburban hotel, this is it!More</t>
   </si>
   <si>
+    <t>Jennielw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r280657299-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -1627,6 +1822,9 @@
     <t>First impressions- very modern hotel and very clean. Room was better than expected. Plenty of room for us and our three kids. Our 4 yr old daughter became ill and and the front desk attendant was extremely friendly and helpful when we needed things at 3AM. She provided us with new linens, trash bags, medicine and she even threw in a new toothbrush. She went above and beyond to help us.  There are several restaurants and gas stations near by. We would definitely stay here again. More</t>
   </si>
   <si>
+    <t>Helard</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r280392328-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -1645,6 +1843,9 @@
     <t>As other reviewers have pointed out, this is a brand new hotel. We had a great time here, nice pool, nice rooms and good free breakfast. It's close to some restaurants that although a bit on the mid-range class, had pretty good food.More</t>
   </si>
   <si>
+    <t>NWaggoner</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r265282110-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -1672,6 +1873,9 @@
     <t>My husband and I chose this hotel for its proximity to an event venue. We have never been more pleased by a hotel in this price point. It is a brand new addition to the Lake Hubbard restaurant and retail development (anchored by Bass Pro, The Flying Saucer Drought Emporium, and Primo's Tex-Mex). The art-deco decor and chic modern furniture are reminiscent of hotels on the Vegas strip. Our room, a suite, was well appointed and absolutely spotless. It would function perfectly for extended business travel given the wrap around chaise sofa in the living area and ample desk/computer space. We visit this area several times per year and will definitely be patronizing this hotel whenever possible.More</t>
   </si>
   <si>
+    <t>Hywaa1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r263566098-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -1693,6 +1897,9 @@
     <t>My wife and I stayed the night and was highly impressed with the service and facility. I would certainly stay again if in the area. Excellent location, pricing and modern accommodation, this is what all hotels should be like.More</t>
   </si>
   <si>
+    <t>STrapaniJonesia</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r255417491-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -1720,6 +1927,9 @@
     <t>We arrived at this hotel on a Thursday and it was beautiful. It is a new hotel that opened in November 2014. The decor is very modern with a gorgeous purple chandelier by the elevators. The lobby is open and spacious. We stayed at this hotel for a school function and had approximately 17 rooms booked. When it came time to take showers that evening, there was no hot water. Not even warm water in some of the rooms.  I called the front desk and Cynthia offered to move us but the room she wanted to move us to did not have 2 beds with a sleeper sofa. We were told to stay in the room we were in and just take showers in the other room which was down the hall. The second room only had marginal semi warm water. At breakfast the next morning, 97% of our group also said they did not have warm/hot water. I went to the front desk the next morning to complain. I was told that the hotel had been experiencing problems with the water situation so they knew about it. I asked about the "Make it right guarantee" and was told by Shannon, "Well, we don't usually do that, but I will pass your complaint on to the General Manager".  I thought what good is a guarantee if you are not going to honor it? I called the main IHG reservation number...We arrived at this hotel on a Thursday and it was beautiful. It is a new hotel that opened in November 2014. The decor is very modern with a gorgeous purple chandelier by the elevators. The lobby is open and spacious. We stayed at this hotel for a school function and had approximately 17 rooms booked. When it came time to take showers that evening, there was no hot water. Not even warm water in some of the rooms.  I called the front desk and Cynthia offered to move us but the room she wanted to move us to did not have 2 beds with a sleeper sofa. We were told to stay in the room we were in and just take showers in the other room which was down the hall. The second room only had marginal semi warm water. At breakfast the next morning, 97% of our group also said they did not have warm/hot water. I went to the front desk the next morning to complain. I was told that the hotel had been experiencing problems with the water situation so they knew about it. I asked about the "Make it right guarantee" and was told by Shannon, "Well, we don't usually do that, but I will pass your complaint on to the General Manager".  I thought what good is a guarantee if you are not going to honor it? I called the main IHG reservation number and asked for a supervisor and lodged a complaint. I was told someone would get back with me in 48 hours. I will update this post when/if I receive a reply back from corporate.More</t>
   </si>
   <si>
+    <t>csbernard</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r250577083-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -1738,6 +1948,9 @@
     <t>January 2015</t>
   </si>
   <si>
+    <t>Thomas O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r243890679-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -1765,6 +1978,9 @@
     <t>Stayed here on business recently. New hotel with a lot of decor. The plumbing in my room did not work. No Water!! My travel companion had the same issues. He moved to another room with no cold water. Not sure I want to risk staying again and not having any running water. Breakfast was ok. Photos on website are not of this property.More</t>
   </si>
   <si>
+    <t>virgbrown</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r581261102-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -1780,6 +1996,9 @@
     <t>After having to fight with the parking system at Galeria Dallas ( we were not the only ones listening for their car alarms), we decided to get out of Dallas before we stopped for the night. The best thing about this Holiday Inn is that it is just a couple of hundred yards from a Bass Pro shop. 'Nuf said.</t>
   </si>
   <si>
+    <t>dougstaysalot420</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r536983146-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -1798,6 +2017,9 @@
     <t>October 2017</t>
   </si>
   <si>
+    <t>Spectrafire E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r580884053-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -1819,6 +2041,9 @@
     <t>The hotel looks clean and nice until you look close and there is dirt ,dust ,and hair ,paint blistering off the ceiling.My room was ok the beds were nice but was half off the base of the bed and would not move. The bathroom was dirty hair on the floor and pubic hair on the sink and in the sopaholeder. Paint blistering off the bathroom ceiling,the plastic was coming off the tub.The carpet was dirty I don't think and one had cleaned in that room when I asked about getting clean sheets and towels all I got was rude attitude.They changed the bedding and towels. The next day we went down and had breakfast it was fine except the milk they had it had a strange chemical taste and it burned my roof of my mouth and made my child sick.When I brought it to attention of the desk lady her response was no one else complained about it.She said I could file a incident report if i wanted to so I filled it out.She told the manager but they did not want to speak to me about it.I did report it to the FDA because I figured they would not do anything about it.More</t>
   </si>
   <si>
+    <t>I9150XCthomaso</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r533097143-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -1832,6 +2057,9 @@
   </si>
   <si>
     <t>We were at another hotel nearby that was not acceptable. Holiday Inn was fully booked but notified me of an opening. We checked in short notice and got a wonderful room. This hotel is new, comfortable and the service is top notch. They even have a quiet time agreement all guest have to sign!!!  Loved it!  This is my new hotel of choice when visiting the Dallas Rockwall and Mesquite area. I travel almost weekly and I know a great place to stay.</t>
+  </si>
+  <si>
+    <t>Kelly M</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r528774336-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
@@ -2360,43 +2588,47 @@
       <c r="A2" t="n">
         <v>63083</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>155720</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2410,41 +2642,45 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>63083</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>155721</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
@@ -2463,50 +2699,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>63083</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>155722</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2520,50 +2760,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>63083</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>155723</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O5" t="s">
         <v>68</v>
-      </c>
-      <c r="K5" t="s">
-        <v>69</v>
-      </c>
-      <c r="L5" t="s">
-        <v>70</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>52</v>
-      </c>
-      <c r="O5" t="s">
-        <v>65</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2577,50 +2821,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>63083</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>155724</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="L6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P6" t="n">
         <v>2</v>
@@ -2636,56 +2884,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="X6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="Y6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>63083</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>155725</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2699,50 +2951,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>63083</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>155726</v>
+      </c>
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="J8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="K8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2760,50 +3016,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>63083</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>155727</v>
+      </c>
+      <c r="C9" t="s">
+        <v>97</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="J9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="K9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="L9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2817,50 +3077,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>63083</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>20954</v>
+      </c>
+      <c r="C10" t="s">
+        <v>103</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="J10" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="K10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="L10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="O10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2878,50 +3142,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>63083</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>155728</v>
+      </c>
+      <c r="C11" t="s">
+        <v>110</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="J11" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="K11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="L11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="O11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2933,56 +3201,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="X11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="Y11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>63083</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>155729</v>
+      </c>
+      <c r="C12" t="s">
+        <v>121</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="J12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="K12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="L12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="O12" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2996,50 +3268,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>63083</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>155730</v>
+      </c>
+      <c r="C13" t="s">
+        <v>127</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" t="s">
+        <v>129</v>
+      </c>
+      <c r="J13" t="s">
+        <v>130</v>
+      </c>
+      <c r="K13" t="s">
+        <v>131</v>
+      </c>
+      <c r="L13" t="s">
+        <v>132</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
         <v>116</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="O13" t="s">
         <v>117</v>
-      </c>
-      <c r="J13" t="s">
-        <v>118</v>
-      </c>
-      <c r="K13" t="s">
-        <v>119</v>
-      </c>
-      <c r="L13" t="s">
-        <v>120</v>
-      </c>
-      <c r="M13" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="s">
-        <v>106</v>
-      </c>
-      <c r="O13" t="s">
-        <v>107</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3053,50 +3329,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>63083</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>43679</v>
+      </c>
+      <c r="C14" t="s">
+        <v>133</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="J14" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="K14" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="L14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="O14" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3110,50 +3390,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>63083</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>8291</v>
+      </c>
+      <c r="C15" t="s">
+        <v>140</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="J15" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="K15" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="L15" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="O15" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -3173,50 +3457,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>63083</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>155731</v>
+      </c>
+      <c r="C16" t="s">
+        <v>147</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="J16" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="K16" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="L16" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="O16" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3230,41 +3518,45 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>63083</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>7095</v>
+      </c>
+      <c r="C17" t="s">
+        <v>153</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="J17" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="K17" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="L17" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
@@ -3283,50 +3575,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>63083</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>303</v>
+      </c>
+      <c r="C18" t="s">
+        <v>159</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="J18" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="K18" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="L18" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="O18" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3344,50 +3640,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>63083</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>71476</v>
+      </c>
+      <c r="C19" t="s">
+        <v>164</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="J19" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="K19" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="L19" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="O19" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3401,50 +3701,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>63083</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>10441</v>
+      </c>
+      <c r="C20" t="s">
+        <v>171</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="J20" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="K20" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="L20" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="O20" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="n">
@@ -3464,50 +3768,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>63083</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>155732</v>
+      </c>
+      <c r="C21" t="s">
+        <v>178</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="J21" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="K21" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="L21" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="O21" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3527,50 +3835,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>63083</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>155733</v>
+      </c>
+      <c r="C22" t="s">
+        <v>184</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="J22" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="K22" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="L22" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="O22" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3584,50 +3896,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>63083</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>35575</v>
+      </c>
+      <c r="C23" t="s">
+        <v>190</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="J23" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="K23" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="L23" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="O23" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3645,56 +3961,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="X23" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="Y23" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>63083</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>155734</v>
+      </c>
+      <c r="C24" t="s">
+        <v>200</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="J24" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="K24" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="L24" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="O24" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3708,32 +4028,36 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>63083</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>155735</v>
+      </c>
+      <c r="C25" t="s">
+        <v>206</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="J25" t="s"/>
       <c r="K25" t="s"/>
@@ -3750,42 +4074,43 @@
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
-      <c r="Y25" t="s"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>63083</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>155736</v>
+      </c>
+      <c r="C26" t="s">
+        <v>209</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="J26" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="K26" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="L26" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
@@ -3802,56 +4127,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="X26" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="Y26" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>63083</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>155737</v>
+      </c>
+      <c r="C27" t="s">
+        <v>218</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="J27" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="K27" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="L27" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="O27" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="n">
@@ -3867,56 +4196,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="X27" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="Y27" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>63083</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>34970</v>
+      </c>
+      <c r="C28" t="s">
+        <v>228</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="J28" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="K28" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="L28" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3934,47 +4267,51 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="X28" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="Y28" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>63083</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>155738</v>
+      </c>
+      <c r="C29" t="s">
+        <v>238</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="J29" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="K29" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="L29" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
@@ -3991,56 +4328,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="X29" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="Y29" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>63083</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>155739</v>
+      </c>
+      <c r="C30" t="s">
+        <v>247</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="J30" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="K30" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="L30" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="O30" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -4058,56 +4399,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="X30" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="Y30" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>63083</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>155740</v>
+      </c>
+      <c r="C31" t="s">
+        <v>257</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="J31" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="K31" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
       <c r="L31" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4119,56 +4464,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="X31" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="Y31" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>63083</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>155741</v>
+      </c>
+      <c r="C32" t="s">
+        <v>266</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="J32" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="K32" t="s">
-        <v>239</v>
+        <v>270</v>
       </c>
       <c r="L32" t="s">
-        <v>240</v>
+        <v>271</v>
       </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4180,56 +4529,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="X32" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="Y32" t="s">
-        <v>241</v>
+        <v>272</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>63083</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>155742</v>
+      </c>
+      <c r="C33" t="s">
+        <v>273</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="J33" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="K33" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="L33" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="O33" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4241,56 +4594,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="X33" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="Y33" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>63083</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>155743</v>
+      </c>
+      <c r="C34" t="s">
+        <v>284</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>252</v>
+        <v>285</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="J34" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="K34" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="L34" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="O34" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4302,56 +4659,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="X34" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="Y34" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>63083</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>16846</v>
+      </c>
+      <c r="C35" t="s">
+        <v>293</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>261</v>
+        <v>295</v>
       </c>
       <c r="J35" t="s">
-        <v>262</v>
+        <v>296</v>
       </c>
       <c r="K35" t="s">
-        <v>263</v>
+        <v>297</v>
       </c>
       <c r="L35" t="s">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="O35" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="n">
@@ -4369,50 +4730,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>266</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>63083</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>21874</v>
+      </c>
+      <c r="C36" t="s">
+        <v>301</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="J36" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="K36" t="s">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="L36" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="O36" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="n">
@@ -4428,56 +4793,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="X36" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="Y36" t="s">
-        <v>275</v>
+        <v>310</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>63083</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>155744</v>
+      </c>
+      <c r="C37" t="s">
+        <v>311</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>276</v>
+        <v>312</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="J37" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="K37" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="L37" t="s">
-        <v>280</v>
+        <v>316</v>
       </c>
       <c r="M37" t="n">
         <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="O37" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4495,56 +4864,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="X37" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="Y37" t="s">
-        <v>283</v>
+        <v>319</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>63083</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>155745</v>
+      </c>
+      <c r="C38" t="s">
+        <v>320</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="J38" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="K38" t="s">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="L38" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="O38" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4556,56 +4929,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="X38" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="Y38" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>63083</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>824</v>
+      </c>
+      <c r="C39" t="s">
+        <v>329</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>292</v>
+        <v>330</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>293</v>
+        <v>331</v>
       </c>
       <c r="J39" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="K39" t="s">
-        <v>295</v>
+        <v>333</v>
       </c>
       <c r="L39" t="s">
-        <v>296</v>
+        <v>334</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="O39" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4617,56 +4994,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>297</v>
+        <v>335</v>
       </c>
       <c r="X39" t="s">
-        <v>298</v>
+        <v>336</v>
       </c>
       <c r="Y39" t="s">
-        <v>299</v>
+        <v>337</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>63083</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>155746</v>
+      </c>
+      <c r="C40" t="s">
+        <v>338</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="J40" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="K40" t="s">
-        <v>303</v>
+        <v>342</v>
       </c>
       <c r="L40" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
       <c r="O40" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P40" t="n">
         <v>3</v>
@@ -4684,47 +5065,51 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="X40" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
       <c r="Y40" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>63083</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>155747</v>
+      </c>
+      <c r="C41" t="s">
+        <v>348</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="J41" t="s">
-        <v>311</v>
+        <v>351</v>
       </c>
       <c r="K41" t="s">
-        <v>312</v>
+        <v>352</v>
       </c>
       <c r="L41" t="s">
-        <v>313</v>
+        <v>353</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
@@ -4741,56 +5126,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>314</v>
+        <v>354</v>
       </c>
       <c r="X41" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="Y41" t="s">
-        <v>316</v>
+        <v>356</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>63083</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>39943</v>
+      </c>
+      <c r="C42" t="s">
+        <v>357</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>317</v>
+        <v>358</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>318</v>
+        <v>359</v>
       </c>
       <c r="J42" t="s">
-        <v>319</v>
+        <v>360</v>
       </c>
       <c r="K42" t="s">
-        <v>320</v>
+        <v>361</v>
       </c>
       <c r="L42" t="s">
-        <v>321</v>
+        <v>362</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>322</v>
+        <v>363</v>
       </c>
       <c r="O42" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -4806,56 +5195,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>323</v>
+        <v>364</v>
       </c>
       <c r="X42" t="s">
-        <v>324</v>
+        <v>365</v>
       </c>
       <c r="Y42" t="s">
-        <v>325</v>
+        <v>366</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>63083</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>155748</v>
+      </c>
+      <c r="C43" t="s">
+        <v>367</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>326</v>
+        <v>368</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>327</v>
+        <v>369</v>
       </c>
       <c r="J43" t="s">
-        <v>328</v>
+        <v>370</v>
       </c>
       <c r="K43" t="s">
-        <v>329</v>
+        <v>371</v>
       </c>
       <c r="L43" t="s">
-        <v>330</v>
+        <v>372</v>
       </c>
       <c r="M43" t="n">
         <v>3</v>
       </c>
       <c r="N43" t="s">
-        <v>331</v>
+        <v>373</v>
       </c>
       <c r="O43" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="n">
@@ -4869,56 +5262,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>332</v>
+        <v>374</v>
       </c>
       <c r="X43" t="s">
-        <v>333</v>
+        <v>375</v>
       </c>
       <c r="Y43" t="s">
-        <v>334</v>
+        <v>376</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>63083</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>155749</v>
+      </c>
+      <c r="C44" t="s">
+        <v>377</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>335</v>
+        <v>378</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>336</v>
+        <v>379</v>
       </c>
       <c r="J44" t="s">
-        <v>328</v>
+        <v>370</v>
       </c>
       <c r="K44" t="s">
-        <v>337</v>
+        <v>380</v>
       </c>
       <c r="L44" t="s">
-        <v>338</v>
+        <v>381</v>
       </c>
       <c r="M44" t="n">
         <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>331</v>
+        <v>373</v>
       </c>
       <c r="O44" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -4930,56 +5327,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>332</v>
+        <v>374</v>
       </c>
       <c r="X44" t="s">
-        <v>333</v>
+        <v>375</v>
       </c>
       <c r="Y44" t="s">
-        <v>339</v>
+        <v>382</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>63083</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>155750</v>
+      </c>
+      <c r="C45" t="s">
+        <v>383</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>340</v>
+        <v>384</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>341</v>
+        <v>385</v>
       </c>
       <c r="J45" t="s">
-        <v>342</v>
+        <v>386</v>
       </c>
       <c r="K45" t="s">
-        <v>343</v>
+        <v>387</v>
       </c>
       <c r="L45" t="s">
-        <v>344</v>
+        <v>388</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>345</v>
+        <v>389</v>
       </c>
       <c r="O45" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="n">
@@ -4999,50 +5400,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>346</v>
+        <v>390</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>63083</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>155751</v>
+      </c>
+      <c r="C46" t="s">
+        <v>391</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>347</v>
+        <v>392</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>348</v>
+        <v>393</v>
       </c>
       <c r="J46" t="s">
-        <v>349</v>
+        <v>394</v>
       </c>
       <c r="K46" t="s">
-        <v>350</v>
+        <v>395</v>
       </c>
       <c r="L46" t="s">
-        <v>351</v>
+        <v>396</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>345</v>
+        <v>389</v>
       </c>
       <c r="O46" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -5054,56 +5459,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>352</v>
+        <v>397</v>
       </c>
       <c r="X46" t="s">
-        <v>353</v>
+        <v>398</v>
       </c>
       <c r="Y46" t="s">
-        <v>354</v>
+        <v>399</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>63083</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>2553</v>
+      </c>
+      <c r="C47" t="s">
+        <v>400</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>355</v>
+        <v>401</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>356</v>
+        <v>402</v>
       </c>
       <c r="J47" t="s">
-        <v>357</v>
+        <v>403</v>
       </c>
       <c r="K47" t="s">
-        <v>358</v>
+        <v>404</v>
       </c>
       <c r="L47" t="s">
-        <v>359</v>
+        <v>405</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>360</v>
+        <v>406</v>
       </c>
       <c r="O47" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="P47" t="n">
         <v>4</v>
@@ -5121,56 +5530,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>361</v>
+        <v>407</v>
       </c>
       <c r="X47" t="s">
-        <v>362</v>
+        <v>408</v>
       </c>
       <c r="Y47" t="s">
-        <v>363</v>
+        <v>409</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>63083</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>155752</v>
+      </c>
+      <c r="C48" t="s">
+        <v>410</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>364</v>
+        <v>411</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>365</v>
+        <v>412</v>
       </c>
       <c r="J48" t="s">
-        <v>366</v>
+        <v>413</v>
       </c>
       <c r="K48" t="s">
-        <v>367</v>
+        <v>414</v>
       </c>
       <c r="L48" t="s">
-        <v>368</v>
+        <v>415</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>369</v>
+        <v>416</v>
       </c>
       <c r="O48" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="P48" t="n">
         <v>4</v>
@@ -5188,56 +5601,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>361</v>
+        <v>407</v>
       </c>
       <c r="X48" t="s">
-        <v>362</v>
+        <v>408</v>
       </c>
       <c r="Y48" t="s">
-        <v>370</v>
+        <v>417</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>63083</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>155753</v>
+      </c>
+      <c r="C49" t="s">
+        <v>418</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>371</v>
+        <v>419</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>372</v>
+        <v>420</v>
       </c>
       <c r="J49" t="s">
-        <v>373</v>
+        <v>421</v>
       </c>
       <c r="K49" t="s">
-        <v>374</v>
+        <v>422</v>
       </c>
       <c r="L49" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>360</v>
+        <v>406</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -5253,56 +5670,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>376</v>
+        <v>424</v>
       </c>
       <c r="X49" t="s">
-        <v>362</v>
+        <v>408</v>
       </c>
       <c r="Y49" t="s">
-        <v>377</v>
+        <v>425</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>63083</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>155754</v>
+      </c>
+      <c r="C50" t="s">
+        <v>426</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>378</v>
+        <v>427</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>379</v>
+        <v>428</v>
       </c>
       <c r="J50" t="s">
-        <v>373</v>
+        <v>421</v>
       </c>
       <c r="K50" t="s">
-        <v>380</v>
+        <v>429</v>
       </c>
       <c r="L50" t="s">
-        <v>381</v>
+        <v>430</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>360</v>
+        <v>406</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -5314,56 +5735,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>382</v>
+        <v>431</v>
       </c>
       <c r="X50" t="s">
-        <v>383</v>
+        <v>432</v>
       </c>
       <c r="Y50" t="s">
-        <v>384</v>
+        <v>433</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>63083</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>155755</v>
+      </c>
+      <c r="C51" t="s">
+        <v>434</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>385</v>
+        <v>435</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>386</v>
+        <v>436</v>
       </c>
       <c r="J51" t="s">
-        <v>387</v>
+        <v>437</v>
       </c>
       <c r="K51" t="s">
-        <v>388</v>
+        <v>438</v>
       </c>
       <c r="L51" t="s">
-        <v>389</v>
+        <v>439</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>369</v>
+        <v>416</v>
       </c>
       <c r="O51" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -5381,56 +5806,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>390</v>
+        <v>440</v>
       </c>
       <c r="X51" t="s">
-        <v>391</v>
+        <v>441</v>
       </c>
       <c r="Y51" t="s">
-        <v>392</v>
+        <v>442</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>63083</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>155756</v>
+      </c>
+      <c r="C52" t="s">
+        <v>443</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>393</v>
+        <v>444</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>394</v>
+        <v>445</v>
       </c>
       <c r="J52" t="s">
-        <v>395</v>
+        <v>446</v>
       </c>
       <c r="K52" t="s">
-        <v>396</v>
+        <v>447</v>
       </c>
       <c r="L52" t="s">
-        <v>397</v>
+        <v>448</v>
       </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
       <c r="N52" t="s">
-        <v>369</v>
+        <v>416</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -5442,56 +5871,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>398</v>
+        <v>449</v>
       </c>
       <c r="X52" t="s">
-        <v>399</v>
+        <v>450</v>
       </c>
       <c r="Y52" t="s">
-        <v>400</v>
+        <v>451</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>63083</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>155757</v>
+      </c>
+      <c r="C53" t="s">
+        <v>452</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>401</v>
+        <v>453</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>402</v>
+        <v>454</v>
       </c>
       <c r="J53" t="s">
-        <v>403</v>
+        <v>455</v>
       </c>
       <c r="K53" t="s">
-        <v>404</v>
+        <v>456</v>
       </c>
       <c r="L53" t="s">
-        <v>405</v>
+        <v>457</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>406</v>
+        <v>458</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="n">
@@ -5507,56 +5940,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>407</v>
+        <v>459</v>
       </c>
       <c r="X53" t="s">
-        <v>408</v>
+        <v>460</v>
       </c>
       <c r="Y53" t="s">
-        <v>409</v>
+        <v>461</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>63083</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>155758</v>
+      </c>
+      <c r="C54" t="s">
+        <v>462</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>410</v>
+        <v>463</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>411</v>
+        <v>464</v>
       </c>
       <c r="J54" t="s">
-        <v>412</v>
+        <v>465</v>
       </c>
       <c r="K54" t="s">
-        <v>413</v>
+        <v>466</v>
       </c>
       <c r="L54" t="s">
-        <v>414</v>
+        <v>467</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>406</v>
+        <v>458</v>
       </c>
       <c r="O54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -5568,56 +6005,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>415</v>
+        <v>468</v>
       </c>
       <c r="X54" t="s">
-        <v>416</v>
+        <v>469</v>
       </c>
       <c r="Y54" t="s">
-        <v>417</v>
+        <v>470</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>63083</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>108740</v>
+      </c>
+      <c r="C55" t="s">
+        <v>471</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>418</v>
+        <v>472</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>419</v>
+        <v>473</v>
       </c>
       <c r="J55" t="s">
-        <v>420</v>
+        <v>474</v>
       </c>
       <c r="K55" t="s">
-        <v>421</v>
+        <v>475</v>
       </c>
       <c r="L55" t="s">
-        <v>422</v>
+        <v>476</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>406</v>
+        <v>458</v>
       </c>
       <c r="O55" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -5633,56 +6074,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>423</v>
+        <v>477</v>
       </c>
       <c r="X55" t="s">
-        <v>424</v>
+        <v>478</v>
       </c>
       <c r="Y55" t="s">
-        <v>425</v>
+        <v>479</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>63083</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>90319</v>
+      </c>
+      <c r="C56" t="s">
+        <v>480</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>426</v>
+        <v>481</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>427</v>
+        <v>482</v>
       </c>
       <c r="J56" t="s">
-        <v>428</v>
+        <v>483</v>
       </c>
       <c r="K56" t="s">
-        <v>429</v>
+        <v>484</v>
       </c>
       <c r="L56" t="s">
-        <v>430</v>
+        <v>485</v>
       </c>
       <c r="M56" t="n">
         <v>3</v>
       </c>
       <c r="N56" t="s">
-        <v>431</v>
+        <v>486</v>
       </c>
       <c r="O56" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
@@ -5694,56 +6139,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>432</v>
+        <v>487</v>
       </c>
       <c r="X56" t="s">
-        <v>433</v>
+        <v>488</v>
       </c>
       <c r="Y56" t="s">
-        <v>434</v>
+        <v>489</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>63083</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>155759</v>
+      </c>
+      <c r="C57" t="s">
+        <v>490</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>435</v>
+        <v>491</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>436</v>
+        <v>492</v>
       </c>
       <c r="J57" t="s">
-        <v>437</v>
+        <v>493</v>
       </c>
       <c r="K57" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
       <c r="L57" t="s">
-        <v>439</v>
+        <v>495</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>431</v>
+        <v>486</v>
       </c>
       <c r="O57" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="s"/>
@@ -5755,56 +6204,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>432</v>
+        <v>487</v>
       </c>
       <c r="X57" t="s">
-        <v>433</v>
+        <v>488</v>
       </c>
       <c r="Y57" t="s">
-        <v>440</v>
+        <v>496</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>63083</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>155760</v>
+      </c>
+      <c r="C58" t="s">
+        <v>497</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>441</v>
+        <v>498</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>442</v>
+        <v>499</v>
       </c>
       <c r="J58" t="s">
-        <v>443</v>
+        <v>500</v>
       </c>
       <c r="K58" t="s">
-        <v>444</v>
+        <v>501</v>
       </c>
       <c r="L58" t="s">
-        <v>445</v>
+        <v>502</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>446</v>
+        <v>503</v>
       </c>
       <c r="O58" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -5816,56 +6269,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>447</v>
+        <v>504</v>
       </c>
       <c r="X58" t="s">
-        <v>448</v>
+        <v>505</v>
       </c>
       <c r="Y58" t="s">
-        <v>449</v>
+        <v>506</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>63083</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>155730</v>
+      </c>
+      <c r="C59" t="s">
+        <v>147</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>450</v>
+        <v>507</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>451</v>
+        <v>508</v>
       </c>
       <c r="J59" t="s">
-        <v>452</v>
+        <v>509</v>
       </c>
       <c r="K59" t="s">
-        <v>453</v>
+        <v>510</v>
       </c>
       <c r="L59" t="s">
-        <v>454</v>
+        <v>511</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>431</v>
+        <v>486</v>
       </c>
       <c r="O59" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
@@ -5883,47 +6340,51 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>447</v>
+        <v>504</v>
       </c>
       <c r="X59" t="s">
-        <v>448</v>
+        <v>505</v>
       </c>
       <c r="Y59" t="s">
-        <v>455</v>
+        <v>512</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>63083</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>48443</v>
+      </c>
+      <c r="C60" t="s">
+        <v>513</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>456</v>
+        <v>514</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>457</v>
+        <v>515</v>
       </c>
       <c r="J60" t="s">
-        <v>458</v>
+        <v>516</v>
       </c>
       <c r="K60" t="s">
-        <v>459</v>
+        <v>517</v>
       </c>
       <c r="L60" t="s">
-        <v>460</v>
+        <v>518</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
@@ -5940,47 +6401,51 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>447</v>
+        <v>504</v>
       </c>
       <c r="X60" t="s">
-        <v>448</v>
+        <v>505</v>
       </c>
       <c r="Y60" t="s">
-        <v>461</v>
+        <v>519</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>63083</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>155761</v>
+      </c>
+      <c r="C61" t="s">
+        <v>520</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>462</v>
+        <v>521</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>463</v>
+        <v>522</v>
       </c>
       <c r="J61" t="s">
-        <v>464</v>
+        <v>523</v>
       </c>
       <c r="K61" t="s">
-        <v>465</v>
+        <v>524</v>
       </c>
       <c r="L61" t="s">
-        <v>466</v>
+        <v>525</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
@@ -5997,56 +6462,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>447</v>
+        <v>504</v>
       </c>
       <c r="X61" t="s">
-        <v>448</v>
+        <v>505</v>
       </c>
       <c r="Y61" t="s">
-        <v>467</v>
+        <v>526</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>63083</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>155762</v>
+      </c>
+      <c r="C62" t="s">
+        <v>527</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>468</v>
+        <v>528</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>469</v>
+        <v>529</v>
       </c>
       <c r="J62" t="s">
-        <v>470</v>
+        <v>530</v>
       </c>
       <c r="K62" t="s">
-        <v>471</v>
+        <v>531</v>
       </c>
       <c r="L62" t="s">
-        <v>472</v>
+        <v>532</v>
       </c>
       <c r="M62" t="n">
         <v>2</v>
       </c>
       <c r="N62" t="s">
-        <v>446</v>
+        <v>503</v>
       </c>
       <c r="O62" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P62" t="s"/>
       <c r="Q62" t="s"/>
@@ -6058,56 +6527,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>473</v>
+        <v>533</v>
       </c>
       <c r="X62" t="s">
-        <v>474</v>
+        <v>534</v>
       </c>
       <c r="Y62" t="s">
-        <v>475</v>
+        <v>535</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>63083</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>155763</v>
+      </c>
+      <c r="C63" t="s">
+        <v>536</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>476</v>
+        <v>537</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>477</v>
+        <v>538</v>
       </c>
       <c r="J63" t="s">
-        <v>478</v>
+        <v>539</v>
       </c>
       <c r="K63" t="s">
-        <v>479</v>
+        <v>540</v>
       </c>
       <c r="L63" t="s">
-        <v>480</v>
+        <v>541</v>
       </c>
       <c r="M63" t="n">
         <v>3</v>
       </c>
       <c r="N63" t="s">
-        <v>446</v>
+        <v>503</v>
       </c>
       <c r="O63" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P63" t="s"/>
       <c r="Q63" t="s"/>
@@ -6123,56 +6596,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>481</v>
+        <v>542</v>
       </c>
       <c r="X63" t="s">
-        <v>482</v>
+        <v>543</v>
       </c>
       <c r="Y63" t="s">
-        <v>483</v>
+        <v>544</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>63083</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>155755</v>
+      </c>
+      <c r="C64" t="s">
+        <v>443</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>484</v>
+        <v>545</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>485</v>
+        <v>546</v>
       </c>
       <c r="J64" t="s">
-        <v>486</v>
+        <v>547</v>
       </c>
       <c r="K64" t="s">
-        <v>487</v>
+        <v>548</v>
       </c>
       <c r="L64" t="s">
-        <v>488</v>
+        <v>549</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>489</v>
+        <v>550</v>
       </c>
       <c r="O64" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="P64" t="s"/>
       <c r="Q64" t="n">
@@ -6190,56 +6667,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>490</v>
+        <v>551</v>
       </c>
       <c r="X64" t="s">
-        <v>491</v>
+        <v>552</v>
       </c>
       <c r="Y64" t="s">
-        <v>492</v>
+        <v>553</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>63083</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>35960</v>
+      </c>
+      <c r="C65" t="s">
+        <v>554</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>493</v>
+        <v>555</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>494</v>
+        <v>556</v>
       </c>
       <c r="J65" t="s">
-        <v>495</v>
+        <v>557</v>
       </c>
       <c r="K65" t="s">
-        <v>496</v>
+        <v>558</v>
       </c>
       <c r="L65" t="s">
-        <v>497</v>
+        <v>559</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>498</v>
+        <v>560</v>
       </c>
       <c r="O65" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -6257,56 +6738,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>499</v>
+        <v>561</v>
       </c>
       <c r="X65" t="s">
-        <v>491</v>
+        <v>552</v>
       </c>
       <c r="Y65" t="s">
-        <v>500</v>
+        <v>562</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>63083</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>155764</v>
+      </c>
+      <c r="C66" t="s">
+        <v>563</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>501</v>
+        <v>564</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>502</v>
+        <v>565</v>
       </c>
       <c r="J66" t="s">
-        <v>503</v>
+        <v>566</v>
       </c>
       <c r="K66" t="s">
-        <v>504</v>
+        <v>567</v>
       </c>
       <c r="L66" t="s">
-        <v>505</v>
+        <v>568</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>498</v>
+        <v>560</v>
       </c>
       <c r="O66" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -6324,56 +6809,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>506</v>
+        <v>569</v>
       </c>
       <c r="X66" t="s">
-        <v>507</v>
+        <v>570</v>
       </c>
       <c r="Y66" t="s">
-        <v>508</v>
+        <v>571</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>63083</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>155765</v>
+      </c>
+      <c r="C67" t="s">
+        <v>572</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>509</v>
+        <v>573</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>510</v>
+        <v>574</v>
       </c>
       <c r="J67" t="s">
-        <v>511</v>
+        <v>575</v>
       </c>
       <c r="K67" t="s">
-        <v>512</v>
+        <v>576</v>
       </c>
       <c r="L67" t="s">
-        <v>513</v>
+        <v>577</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>489</v>
+        <v>550</v>
       </c>
       <c r="O67" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P67" t="s"/>
       <c r="Q67" t="s"/>
@@ -6385,47 +6874,51 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>514</v>
+        <v>578</v>
       </c>
       <c r="X67" t="s">
-        <v>515</v>
+        <v>579</v>
       </c>
       <c r="Y67" t="s">
-        <v>516</v>
+        <v>580</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>63083</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>155766</v>
+      </c>
+      <c r="C68" t="s">
+        <v>581</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>517</v>
+        <v>582</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>518</v>
+        <v>583</v>
       </c>
       <c r="J68" t="s">
-        <v>519</v>
+        <v>584</v>
       </c>
       <c r="K68" t="s">
-        <v>520</v>
+        <v>585</v>
       </c>
       <c r="L68" t="s">
-        <v>521</v>
+        <v>586</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
@@ -6442,56 +6935,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>514</v>
+        <v>578</v>
       </c>
       <c r="X68" t="s">
-        <v>515</v>
+        <v>579</v>
       </c>
       <c r="Y68" t="s">
-        <v>522</v>
+        <v>587</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>63083</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>155767</v>
+      </c>
+      <c r="C69" t="s">
+        <v>588</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>523</v>
+        <v>589</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>524</v>
+        <v>590</v>
       </c>
       <c r="J69" t="s">
-        <v>525</v>
+        <v>591</v>
       </c>
       <c r="K69" t="s">
-        <v>526</v>
+        <v>592</v>
       </c>
       <c r="L69" t="s">
-        <v>527</v>
+        <v>593</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>489</v>
+        <v>550</v>
       </c>
       <c r="O69" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="P69" t="s"/>
       <c r="Q69" t="s"/>
@@ -6507,56 +7004,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>506</v>
+        <v>569</v>
       </c>
       <c r="X69" t="s">
-        <v>507</v>
+        <v>570</v>
       </c>
       <c r="Y69" t="s">
-        <v>528</v>
+        <v>594</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>63083</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>155768</v>
+      </c>
+      <c r="C70" t="s">
+        <v>595</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>529</v>
+        <v>596</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>530</v>
+        <v>597</v>
       </c>
       <c r="J70" t="s">
-        <v>531</v>
+        <v>598</v>
       </c>
       <c r="K70" t="s">
-        <v>532</v>
+        <v>599</v>
       </c>
       <c r="L70" t="s">
-        <v>533</v>
+        <v>600</v>
       </c>
       <c r="M70" t="n">
         <v>4</v>
       </c>
       <c r="N70" t="s">
-        <v>534</v>
+        <v>601</v>
       </c>
       <c r="O70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P70" t="s"/>
       <c r="Q70" t="s"/>
@@ -6572,56 +7073,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>535</v>
+        <v>602</v>
       </c>
       <c r="X70" t="s">
-        <v>536</v>
+        <v>603</v>
       </c>
       <c r="Y70" t="s">
-        <v>537</v>
+        <v>604</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>63083</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>155769</v>
+      </c>
+      <c r="C71" t="s">
+        <v>605</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>538</v>
+        <v>606</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>539</v>
+        <v>607</v>
       </c>
       <c r="J71" t="s">
-        <v>540</v>
+        <v>608</v>
       </c>
       <c r="K71" t="s">
-        <v>541</v>
+        <v>609</v>
       </c>
       <c r="L71" t="s">
-        <v>542</v>
+        <v>610</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>543</v>
+        <v>611</v>
       </c>
       <c r="O71" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -6639,56 +7144,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>514</v>
+        <v>578</v>
       </c>
       <c r="X71" t="s">
-        <v>515</v>
+        <v>579</v>
       </c>
       <c r="Y71" t="s">
-        <v>544</v>
+        <v>612</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>63083</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>155770</v>
+      </c>
+      <c r="C72" t="s">
+        <v>613</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>545</v>
+        <v>614</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>546</v>
+        <v>615</v>
       </c>
       <c r="J72" t="s">
-        <v>547</v>
+        <v>616</v>
       </c>
       <c r="K72" t="s">
-        <v>548</v>
+        <v>617</v>
       </c>
       <c r="L72" t="s">
-        <v>549</v>
+        <v>618</v>
       </c>
       <c r="M72" t="n">
         <v>2</v>
       </c>
       <c r="N72" t="s">
-        <v>550</v>
+        <v>619</v>
       </c>
       <c r="O72" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="P72" t="s"/>
       <c r="Q72" t="s"/>
@@ -6700,56 +7209,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>551</v>
+        <v>620</v>
       </c>
       <c r="X72" t="s">
-        <v>552</v>
+        <v>621</v>
       </c>
       <c r="Y72" t="s">
-        <v>553</v>
+        <v>622</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>63083</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>155771</v>
+      </c>
+      <c r="C73" t="s">
+        <v>623</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>554</v>
+        <v>624</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>555</v>
+        <v>625</v>
       </c>
       <c r="J73" t="s">
-        <v>556</v>
+        <v>626</v>
       </c>
       <c r="K73" t="s">
-        <v>557</v>
+        <v>627</v>
       </c>
       <c r="L73" t="s">
-        <v>558</v>
+        <v>628</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>559</v>
+        <v>629</v>
       </c>
       <c r="O73" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="P73" t="s"/>
       <c r="Q73" t="n">
@@ -6769,50 +7282,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>558</v>
+        <v>628</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>63083</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>11559</v>
+      </c>
+      <c r="C74" t="s">
+        <v>630</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>560</v>
+        <v>631</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>561</v>
+        <v>632</v>
       </c>
       <c r="J74" t="s">
-        <v>562</v>
+        <v>633</v>
       </c>
       <c r="K74" t="s">
-        <v>563</v>
+        <v>634</v>
       </c>
       <c r="L74" t="s">
-        <v>564</v>
+        <v>635</v>
       </c>
       <c r="M74" t="n">
         <v>2</v>
       </c>
       <c r="N74" t="s">
-        <v>565</v>
+        <v>636</v>
       </c>
       <c r="O74" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="P74" t="n">
         <v>2</v>
@@ -6830,47 +7347,51 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>566</v>
+        <v>637</v>
       </c>
       <c r="X74" t="s">
-        <v>567</v>
+        <v>638</v>
       </c>
       <c r="Y74" t="s">
-        <v>568</v>
+        <v>639</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>63083</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>155772</v>
+      </c>
+      <c r="C75" t="s">
+        <v>640</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>569</v>
+        <v>641</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>570</v>
+        <v>642</v>
       </c>
       <c r="J75" t="s">
-        <v>571</v>
+        <v>643</v>
       </c>
       <c r="K75" t="s">
-        <v>572</v>
+        <v>644</v>
       </c>
       <c r="L75" t="s">
-        <v>573</v>
+        <v>645</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
@@ -6889,50 +7410,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>573</v>
+        <v>645</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>63083</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>155773</v>
+      </c>
+      <c r="C76" t="s">
+        <v>646</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>574</v>
+        <v>647</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>575</v>
+        <v>648</v>
       </c>
       <c r="J76" t="s">
-        <v>576</v>
+        <v>649</v>
       </c>
       <c r="K76" t="s">
-        <v>577</v>
+        <v>650</v>
       </c>
       <c r="L76" t="s">
-        <v>578</v>
+        <v>651</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>579</v>
+        <v>652</v>
       </c>
       <c r="O76" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P76" t="s"/>
       <c r="Q76" t="s"/>
@@ -6946,50 +7471,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>578</v>
+        <v>651</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>63083</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>155774</v>
+      </c>
+      <c r="C77" t="s">
+        <v>653</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>580</v>
+        <v>654</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>581</v>
+        <v>655</v>
       </c>
       <c r="J77" t="s">
-        <v>582</v>
+        <v>656</v>
       </c>
       <c r="K77" t="s">
-        <v>583</v>
+        <v>657</v>
       </c>
       <c r="L77" t="s">
-        <v>584</v>
+        <v>658</v>
       </c>
       <c r="M77" t="n">
         <v>2</v>
       </c>
       <c r="N77" t="s">
-        <v>585</v>
+        <v>659</v>
       </c>
       <c r="O77" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P77" t="n">
         <v>2</v>
@@ -7009,50 +7538,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>586</v>
+        <v>660</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>63083</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>155775</v>
+      </c>
+      <c r="C78" t="s">
+        <v>661</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>587</v>
+        <v>662</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>588</v>
+        <v>663</v>
       </c>
       <c r="J78" t="s">
-        <v>589</v>
+        <v>664</v>
       </c>
       <c r="K78" t="s">
-        <v>590</v>
+        <v>665</v>
       </c>
       <c r="L78" t="s">
-        <v>591</v>
+        <v>666</v>
       </c>
       <c r="M78" t="n">
         <v>5</v>
       </c>
       <c r="N78" t="s">
-        <v>579</v>
+        <v>652</v>
       </c>
       <c r="O78" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P78" t="s"/>
       <c r="Q78" t="n">
@@ -7070,50 +7603,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>591</v>
+        <v>666</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>63083</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>8503</v>
+      </c>
+      <c r="C79" t="s">
+        <v>667</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>592</v>
+        <v>668</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>593</v>
+        <v>669</v>
       </c>
       <c r="J79" t="s">
-        <v>594</v>
+        <v>670</v>
       </c>
       <c r="K79" t="s">
-        <v>595</v>
+        <v>671</v>
       </c>
       <c r="L79" t="s">
-        <v>596</v>
+        <v>672</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>579</v>
+        <v>652</v>
       </c>
       <c r="O79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P79" t="s"/>
       <c r="Q79" t="s"/>
@@ -7133,7 +7670,7 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>597</v>
+        <v>673</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_371.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_371.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="707">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,216 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>SummerTravler19</t>
-  </si>
-  <si>
-    <t>06/12/2018</t>
+    <t>08/22/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r599842348-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>55884</t>
+  </si>
+  <si>
+    <t>7176068</t>
+  </si>
+  <si>
+    <t>599842348</t>
+  </si>
+  <si>
+    <t>07/26/2018</t>
+  </si>
+  <si>
+    <t>Very good!</t>
+  </si>
+  <si>
+    <t>We chose this location due to closeness to the city and our family nearby.  The view of Lake Ray Hubbard as seen from the Bass Pro store was gorgeous. The hotel was nice and clean.  The staff was quite helpful with local attractions.  I would stay there again.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r594290422-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>594290422</t>
+  </si>
+  <si>
+    <t>07/09/2018</t>
+  </si>
+  <si>
+    <t>Beautiful Hotel/ Beautiful Service!</t>
+  </si>
+  <si>
+    <t>My family and I stayed here during our recent trip to Texas.  We were met with a friendly welcome to Texas and quick service.  The color combo for the interior was fun and uplifting, our kids were talking about THIS hotel for the rest of the trip.  The location was great for us- just outside of Dallas, easy for us to find and perfect for us as "home-base" for our day of excursions.  And it was on a lake, truly making it seem we were on the Gulf (honest, the breeze and atmosphere outside were just perfect during our stay).  The breakfast was complete and delicious, ample seating, clean tables and chairs.  The Wi-Fi service was perfect, never once an issue.  I would highly recommend this hotel to any travelers in the Rockwall/ Garland area.MoreShow less</t>
+  </si>
+  <si>
+    <t>My family and I stayed here during our recent trip to Texas.  We were met with a friendly welcome to Texas and quick service.  The color combo for the interior was fun and uplifting, our kids were talking about THIS hotel for the rest of the trip.  The location was great for us- just outside of Dallas, easy for us to find and perfect for us as "home-base" for our day of excursions.  And it was on a lake, truly making it seem we were on the Gulf (honest, the breeze and atmosphere outside were just perfect during our stay).  The breakfast was complete and delicious, ample seating, clean tables and chairs.  The Wi-Fi service was perfect, never once an issue.  I would highly recommend this hotel to any travelers in the Rockwall/ Garland area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r597507662-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>597507662</t>
+  </si>
+  <si>
+    <t>07/18/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very nice </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very nice hotel. Misty the young lady at the front was so nice and helpful. She is very knowledgeable about the hotel an what’s around the hotel. Very good customer service skills. Rooms was nice we was in a suite very spaciousJustin </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r597154520-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>597154520</t>
+  </si>
+  <si>
+    <t>07/17/2018</t>
+  </si>
+  <si>
+    <t>Great stay! Very clean &amp; comfortable</t>
+  </si>
+  <si>
+    <t>We stayed here a year ago when we were visiting this area and decided to stay here again this year because of the great service and cleanliness we received. . They have a very friendly staff in all departments and the Hotel is very neat and clean.  Will stay here again if visiting this area. Good Breakfast buffet too!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r596394873-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>596394873</t>
+  </si>
+  <si>
+    <t>07/15/2018</t>
+  </si>
+  <si>
+    <t>Just so so</t>
+  </si>
+  <si>
+    <t>I’ll start by listing the pros for this hotel. The location was perfect. For us it was centrally located so getting to and from was great. It was also super quiet and beds were super comfy as well. We were on the 4th floor so I think that helped with the noise somewhat. The staff (meaning cleaning staff and those that took care of the breakfast area) were great! The room was pretty clean. Breakfast was not too bad. Now the cons....when checking in the front desk attendant was not the nicest. Because we booked thru a 3rd party there was some confusion and it seemed like she was irritated she needed to help figure it out. None of the front desk people seemed to go out of their way to be friendly other than the gentleman that was there our last night (7/18)The room was small and there was no additional seating. The pics on the website are VERY misleading when it comes to the size of the room and seating. Had I seen true pics of the room type I would have booked a different room and most likely wouldn’t have been so disappointed. You can tell it’s been “updated” however the updates are cheap and there are already issues as far as cracks and paint peeling. The hall had a funky smell and it was kind of dark in the hallways. The outside area was HORRIBLE. There...I’ll start by listing the pros for this hotel. The location was perfect. For us it was centrally located so getting to and from was great. It was also super quiet and beds were super comfy as well. We were on the 4th floor so I think that helped with the noise somewhat. The staff (meaning cleaning staff and those that took care of the breakfast area) were great! The room was pretty clean. Breakfast was not too bad. Now the cons....when checking in the front desk attendant was not the nicest. Because we booked thru a 3rd party there was some confusion and it seemed like she was irritated she needed to help figure it out. None of the front desk people seemed to go out of their way to be friendly other than the gentleman that was there our last night (7/18)The room was small and there was no additional seating. The pics on the website are VERY misleading when it comes to the size of the room and seating. Had I seen true pics of the room type I would have booked a different room and most likely wouldn’t have been so disappointed. You can tell it’s been “updated” however the updates are cheap and there are already issues as far as cracks and paint peeling. The hall had a funky smell and it was kind of dark in the hallways. The outside area was HORRIBLE. There was trash in the lot that was left there the 1st day and it was still there the last day. The really need a groundskeeper to pick up trash and such. Honestly all the pretty colors and lights are just smoke and mirrors for a poorly done renovation. Not the worst hotel I’ve ever stayed at just EXTREMELY misleading. MoreShow less</t>
+  </si>
+  <si>
+    <t>I’ll start by listing the pros for this hotel. The location was perfect. For us it was centrally located so getting to and from was great. It was also super quiet and beds were super comfy as well. We were on the 4th floor so I think that helped with the noise somewhat. The staff (meaning cleaning staff and those that took care of the breakfast area) were great! The room was pretty clean. Breakfast was not too bad. Now the cons....when checking in the front desk attendant was not the nicest. Because we booked thru a 3rd party there was some confusion and it seemed like she was irritated she needed to help figure it out. None of the front desk people seemed to go out of their way to be friendly other than the gentleman that was there our last night (7/18)The room was small and there was no additional seating. The pics on the website are VERY misleading when it comes to the size of the room and seating. Had I seen true pics of the room type I would have booked a different room and most likely wouldn’t have been so disappointed. You can tell it’s been “updated” however the updates are cheap and there are already issues as far as cracks and paint peeling. The hall had a funky smell and it was kind of dark in the hallways. The outside area was HORRIBLE. There...I’ll start by listing the pros for this hotel. The location was perfect. For us it was centrally located so getting to and from was great. It was also super quiet and beds were super comfy as well. We were on the 4th floor so I think that helped with the noise somewhat. The staff (meaning cleaning staff and those that took care of the breakfast area) were great! The room was pretty clean. Breakfast was not too bad. Now the cons....when checking in the front desk attendant was not the nicest. Because we booked thru a 3rd party there was some confusion and it seemed like she was irritated she needed to help figure it out. None of the front desk people seemed to go out of their way to be friendly other than the gentleman that was there our last night (7/18)The room was small and there was no additional seating. The pics on the website are VERY misleading when it comes to the size of the room and seating. Had I seen true pics of the room type I would have booked a different room and most likely wouldn’t have been so disappointed. You can tell it’s been “updated” however the updates are cheap and there are already issues as far as cracks and paint peeling. The hall had a funky smell and it was kind of dark in the hallways. The outside area was HORRIBLE. There was trash in the lot that was left there the 1st day and it was still there the last day. The really need a groundskeeper to pick up trash and such. Honestly all the pretty colors and lights are just smoke and mirrors for a poorly done renovation. Not the worst hotel I’ve ever stayed at just EXTREMELY misleading. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r594023976-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>594023976</t>
+  </si>
+  <si>
+    <t>07/08/2018</t>
+  </si>
+  <si>
+    <t>Good place to stay the night</t>
+  </si>
+  <si>
+    <t>I booked this room as a staycation getaway.  The hotel is nice and the room is comfortable.  The breakfast was not the greatest but it's what I expected for being included.  The only reason I give it a 4 star rating is because a wasp somehow got in the room.  Thankfully, not until we were about to leave.  I told the hotel staff and they were genuinely surprised and concerned.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r581261102-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>581261102</t>
+  </si>
+  <si>
+    <t>05/19/2018</t>
+  </si>
+  <si>
+    <t>Just Out of Dallas</t>
+  </si>
+  <si>
+    <t>After having to fight with the parking system at Galeria Dallas ( we were not the only ones listening for their car alarms), we decided to get out of Dallas before we stopped for the night. The best thing about this Holiday Inn is that it is just a couple of hundred yards from a Bass Pro shop. 'Nuf said.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r580884053-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>580884053</t>
+  </si>
+  <si>
+    <t>05/17/2018</t>
+  </si>
+  <si>
+    <t>Poorly remodel rooms not clean</t>
+  </si>
+  <si>
+    <t>The hotel looks clean and nice until you look close and there is dirt ,dust ,and hair ,paint blistering off the ceiling.My room was ok the beds were nice but was half off the base of the bed and would not move. The bathroom was dirty hair on the floor and pubic hair on the sink and in the sopaholeder. Paint blistering off the bathroom ceiling,the plastic was coming off the tub.The carpet was dirty I don't think and one had cleaned in that room when I asked about getting clean sheets and towels all I got was rude attitude.They changed the bedding and towels. The next day we went down and had breakfast it was fine except the milk they had it had a strange chemical taste and it burned my roof of my mouth and made my child sick.When I brought it to attention of the desk lady her response was no one else complained about it.She said I could file a incident report if i wanted to so I filled it out.She told the manager but they did not want to speak to me about it.I did report it to the FDA because I figured they would not do anything about it.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>The hotel looks clean and nice until you look close and there is dirt ,dust ,and hair ,paint blistering off the ceiling.My room was ok the beds were nice but was half off the base of the bed and would not move. The bathroom was dirty hair on the floor and pubic hair on the sink and in the sopaholeder. Paint blistering off the bathroom ceiling,the plastic was coming off the tub.The carpet was dirty I don't think and one had cleaned in that room when I asked about getting clean sheets and towels all I got was rude attitude.They changed the bedding and towels. The next day we went down and had breakfast it was fine except the milk they had it had a strange chemical taste and it burned my roof of my mouth and made my child sick.When I brought it to attention of the desk lady her response was no one else complained about it.She said I could file a incident report if i wanted to so I filled it out.She told the manager but they did not want to speak to me about it.I did report it to the FDA because I figured they would not do anything about it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r536983146-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>536983146</t>
+  </si>
+  <si>
+    <t>10/29/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanks for being better than the other hotels in the area in which I have stayed  in almost all! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am a returning customer and always found the staff to be way better than average, especially in today’s so called customer service. I have always had great service with all the staff including housekeeping, but when I deal with one of the few That has checked me Steven always never disappoints, delivering more than exceptional service? He  always goes above and beyond throughout my stays and always more than meets my expectations making sure that my stay is as pleasant as it could possibly be!Thanks soooo much!! Doug G. </t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r533097143-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>533097143</t>
+  </si>
+  <si>
+    <t>10/15/2017</t>
+  </si>
+  <si>
+    <t>Saved Our Trip</t>
+  </si>
+  <si>
+    <t>We were at another hotel nearby that was not acceptable. Holiday Inn was fully booked but notified me of an opening. We checked in short notice and got a wonderful room. This hotel is new, comfortable and the service is top notch. They even have a quiet time agreement all guest have to sign!!!  Loved it!  This is my new hotel of choice when visiting the Dallas Rockwall and Mesquite area. I travel almost weekly and I know a great place to stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r528774336-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>528774336</t>
+  </si>
+  <si>
+    <t>10/01/2017</t>
+  </si>
+  <si>
+    <t>New and Clean</t>
+  </si>
+  <si>
+    <t>For any of you that have read my reviews in the past you know I try to get the details. This review is no exception.
+This was a last minute getaway and I was pleasantly surprised. Let me start with the helpful staff. Everyone was so friendly. There was always someone available to answer questions and help out in any way possible. They are very kind and pleasant. 
+Now onto the room. It was updated, modern, and clean. There was a ton of lighting which I love but rarely see. There's even a light in the middle of  the ceiling and also a soft blue light that comes on under the bathroom counter when the lights go out. It's especially nice for those that have to leave a bathroom light on because they are in an unfamiliar place or have children that need it. There are numerous plugs for everything. There are outlets and USB charging ports. These are on both sides of the bed. Also nightstands are located on both sides. My family uses lots of plugs for charging and there were more than enough. There were even more on the desk area. The air conditioning was nice and cold and you could control it yourself. It was nice and quiet at night but the walls are very thin and you can hear everything in the hallway and most everything in the connecting rooms. For example, muffled voices.
+The...For any of you that have read my reviews in the past you know I try to get the details. This review is no exception.This was a last minute getaway and I was pleasantly surprised. Let me start with the helpful staff. Everyone was so friendly. There was always someone available to answer questions and help out in any way possible. They are very kind and pleasant. Now onto the room. It was updated, modern, and clean. There was a ton of lighting which I love but rarely see. There's even a light in the middle of  the ceiling and also a soft blue light that comes on under the bathroom counter when the lights go out. It's especially nice for those that have to leave a bathroom light on because they are in an unfamiliar place or have children that need it. There are numerous plugs for everything. There are outlets and USB charging ports. These are on both sides of the bed. Also nightstands are located on both sides. My family uses lots of plugs for charging and there were more than enough. There were even more on the desk area. The air conditioning was nice and cold and you could control it yourself. It was nice and quiet at night but the walls are very thin and you can hear everything in the hallway and most everything in the connecting rooms. For example, muffled voices.The bathroom has a large shower with a tall enough shower head to comfortably accommodate a 6 foot man. Probably not someone who was 6'4" . There is no bench seating in the shower. There are more than enough towels and the hotel will give you what you need if you forgot something. For ex, a toothbrush. They include your basic soap, shampoo, conditioner, and lotion. They also included a makeup remover cloth which I appreciated very much. Also a brand I like. LA Fresh. There is also a quiet flushing toilet. Seems like tmi but I know there are those of you that may like that. I had a niece that was afraid of the really loud toilets because they hurt her ears. Enough about that.There's a refrigerator, microwave, and safe along with a coffee maker, iron, hair dryer and the basics. Everything is super modern and has a luxe feel to it. There are some rooms that overlook the lake if you care about that. I don't. There is a really nice pool which I wished I had used but didn't pack a swimsuit. Maybe next time. There will definitely be a next time. Our room (203) overlooked the pool.There is a buffet breakfast included with your stay which I usually eat but did not at this time. I've had them before at other locations and they were fine. There is not a bar at this location but there are places to get any kind of drink you want within walking distance if you do drink. It's a nice area. The Flying saucer has everything you could want from what I've heard ( I'm not a drinker). Also, Primos is the one place I would eat in that area. They have a bar as well.There are plenty of movie theaters in that area no matter which direction you go. There is always something to do.MoreShow less</t>
+  </si>
+  <si>
+    <t>For any of you that have read my reviews in the past you know I try to get the details. This review is no exception.
+This was a last minute getaway and I was pleasantly surprised. Let me start with the helpful staff. Everyone was so friendly. There was always someone available to answer questions and help out in any way possible. They are very kind and pleasant. 
+Now onto the room. It was updated, modern, and clean. There was a ton of lighting which I love but rarely see. There's even a light in the middle of  the ceiling and also a soft blue light that comes on under the bathroom counter when the lights go out. It's especially nice for those that have to leave a bathroom light on because they are in an unfamiliar place or have children that need it. There are numerous plugs for everything. There are outlets and USB charging ports. These are on both sides of the bed. Also nightstands are located on both sides. My family uses lots of plugs for charging and there were more than enough. There were even more on the desk area. The air conditioning was nice and cold and you could control it yourself. It was nice and quiet at night but the walls are very thin and you can hear everything in the hallway and most everything in the connecting rooms. For example, muffled voices.
+The...For any of you that have read my reviews in the past you know I try to get the details. This review is no exception.This was a last minute getaway and I was pleasantly surprised. Let me start with the helpful staff. Everyone was so friendly. There was always someone available to answer questions and help out in any way possible. They are very kind and pleasant. Now onto the room. It was updated, modern, and clean. There was a ton of lighting which I love but rarely see. There's even a light in the middle of  the ceiling and also a soft blue light that comes on under the bathroom counter when the lights go out. It's especially nice for those that have to leave a bathroom light on because they are in an unfamiliar place or have children that need it. There are numerous plugs for everything. There are outlets and USB charging ports. These are on both sides of the bed. Also nightstands are located on both sides. My family uses lots of plugs for charging and there were more than enough. There were even more on the desk area. The air conditioning was nice and cold and you could control it yourself. It was nice and quiet at night but the walls are very thin and you can hear everything in the hallway and most everything in the connecting rooms. For example, muffled voices.The bathroom has a large shower with a tall enough shower head to comfortably accommodate a 6 foot man. Probably not someone who was 6'4" . There is no bench seating in the shower. There are more than enough towels and the hotel will give you what you need if you forgot something. For ex, a toothbrush. They include your basic soap, shampoo, conditioner, and lotion. They also included a makeup remover cloth which I appreciated very much. Also a brand I like. LA Fresh. There is also a quiet flushing toilet. Seems like tmi but I know there are those of you that may like that. I had a niece that was afraid of the really loud toilets because they hurt her ears. Enough about that.There's a refrigerator, microwave, and safe along with a coffee maker, iron, hair dryer and the basics. Everything is super modern and has a luxe feel to it. There are some rooms that overlook the lake if you care about that. I don't. There is a really nice pool which I wished I had used but didn't pack a swimsuit. Maybe next time. There will definitely be a next time. Our room (203) overlooked the pool.There is a buffet breakfast included with your stay which I usually eat but did not at this time. I've had them before at other locations and they were fine. There is not a bar at this location but there are places to get any kind of drink you want within walking distance if you do drink. It's a nice area. The Flying saucer has everything you could want from what I've heard ( I'm not a drinker). Also, Primos is the one place I would eat in that area. They have a bar as well.There are plenty of movie theaters in that area no matter which direction you go. There is always something to do.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r524201328-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
-    <t>55884</t>
-  </si>
-  <si>
-    <t>7176068</t>
-  </si>
-  <si>
     <t>524201328</t>
   </si>
   <si>
@@ -180,15 +375,9 @@
     <t>July 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Fairly new hotel my wife and I decided to stay at for a weekend getaway. Upgraded for a lake view but on the side we were on there was a big tree blocking the view, when I asked about it of course they couldn't do anything about the tree because of zoning issues or something I was offered another room whenever one would come available during my stay but my wife and decided to stay. The free breakfast is ok if you're not a picky eater. There is a Whataburger in walking distance and a bass pro shop also a little further on up is the Hilton where I prefer to stay there are restaurants and a movie theater on site and a coldstone. The holiday inn was clean and comfy everyone was nice and there was plenty of breakfast food......again if you're not a picky eater. All in all if you can't stay at the Hilton this is a good 2nd option.More</t>
   </si>
   <si>
-    <t>RevWarGuy</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r515357036-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -204,9 +393,6 @@
     <t>I really enjoyed my stay here.  As a Sapphire Elite member, I was impressed with the cleanliness and modern décor.  The staff was excellent as well.  Thank you for making my stay a comfortable one and for serving turkey sausage an egg white omelets for breakfast.</t>
   </si>
   <si>
-    <t>Txstarkey</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r508135753-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -222,12 +408,6 @@
     <t>Stayed one night here. Location is very good. Right by the lake and several restaurants nearby. Across the lake is Rockwall which has a multitude of shops and restaurants and even Costco.Hotel was pretty clean. The room was clean thought the bathroom is starting to show some age. You have your own room temperature control which is a huge plus for us. Bed was comfortable. Breakfast is complimentary and even thought there was a huge crowd (family reunion group) there was plenty of food.We felt this was in a safe area and would definitely stay again.</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>tarryliss</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r506457123-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -243,9 +423,6 @@
     <t>This is the third time to stay at this hotel while travel to see our son who's in the AirForce in San Antonio.  Every time we've stayed, we've been pleased.  If you are an outdoor person, you are next to a Bass Pro and a beautiful lake.  Lots of eating establishments surrounding you. The breakfast was great and our room as well.  The hospitality was impeccable.  And you have to try out the pool, it's nice as well.</t>
   </si>
   <si>
-    <t>1pamelaferrell</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r500888619-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -270,9 +447,6 @@
     <t>I have to travel to Dallas, TX several times a year for my sons doctor appointments. Since it is such a long drive we stay over night at a Hotel. I travel with two teenage boys, one who uses a wheelchair so a large sitting area is important. I chose this hotel because of the reviews and because of the pictures shown for a two bed suite. The pictures of the standard room show a very small sofa. The pictures of the 2 bed suite show a much larger sofa &amp; sitting area. I thought this was the difference between a standard room &amp; suite. When we walked in to our room it had a tiny twin size sofa crammed in between the bed area and bathroom. It was a very small cramped room. At first I thought we had been put in a standard room not a suite. We headed back down to the front desk. Another person was in their doorway complaining to someone from the hotel about the noise kids were making. It is a very busy hotel in a busy area. When I asked the desk clerk about the sitting area/sofa in our room I was told that only the balcony suites have the larger sitting area and sofa and that they were all booked. I complained that the pictures attached to the 2 bed suites were misleading and asked for my money back. I was...I have to travel to Dallas, TX several times a year for my sons doctor appointments. Since it is such a long drive we stay over night at a Hotel. I travel with two teenage boys, one who uses a wheelchair so a large sitting area is important. I chose this hotel because of the reviews and because of the pictures shown for a two bed suite. The pictures of the standard room show a very small sofa. The pictures of the 2 bed suite show a much larger sofa &amp; sitting area. I thought this was the difference between a standard room &amp; suite. When we walked in to our room it had a tiny twin size sofa crammed in between the bed area and bathroom. It was a very small cramped room. At first I thought we had been put in a standard room not a suite. We headed back down to the front desk. Another person was in their doorway complaining to someone from the hotel about the noise kids were making. It is a very busy hotel in a busy area. When I asked the desk clerk about the sitting area/sofa in our room I was told that only the balcony suites have the larger sitting area and sofa and that they were all booked. I complained that the pictures attached to the 2 bed suites were misleading and asked for my money back. I was told they do not do that. I have never had that kind of problem at any other hotel, it was a take it or leave it attitude. I will add that I have stayed in many Holiday Inn hotels and have always been happy with the room and the service. Since my cell service wouldn't work well in the area I couldn't  look for something else and ended up driving several hours at night to get home. I rented directly through the Holiday Inn webpage. You can not leave a review on their website without being a IHG Reward Clubs member.More</t>
   </si>
   <si>
-    <t>tribojet</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r499909870-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -288,9 +462,6 @@
     <t>We came me to Rowlett to visit our granddaughter. After several trips we found this HIE. We enjoy it and it's always clean . Very comfortable beds. The color scheme and decor is very modern which is a great change from most hotels we visit. The management started honoring a Reward Member a Day and was pleasantly surprised on July 4, to see my name on a decorated blackboard in the lobby. It entitled me to a suite upgrade and snacks from the snack bar. Thanks for the recognition and we'll see you again soon!</t>
   </si>
   <si>
-    <t>m_selvanayakam</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r498285443-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -309,9 +480,6 @@
     <t>Located close the Lake Ray Hubbard, this comfortable hotel is located on the border of Garland and Rockwall. The hotel is located about four miles from the lake attractions &amp; restaurants. Quite friendly and helpful  frontdesk staff, and the hotel lobby had a good ambience.The hotel provided complimentary continental breakfast;  however, no restaurant is attached to the hotel.The room we stayed was a two queen bed suite (on the third floor) with a lake view. However, the view of the lake was mostly obstructed by the trees. The suite did come a fridge and a microwave oven, but did not have a separate kitchen (cooking area). The living area had a loveseat. The room decor looked okay.More</t>
   </si>
   <si>
-    <t>wht137</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r497809593-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -327,9 +495,6 @@
     <t xml:space="preserve">This is a modern, clean, newer hotel.  The rooms were large and had newer touches, such as, USB ports.  The design of the hotel was sleek and the customer service was great.  The breakfast area was large and spacious.  The variety of breakfast items was typical of a holiday inn express.  Items were replenished quickly and the attendant was kind and helpful.  I would recommend this hotel and I would definitely stay there again if in the area.  </t>
   </si>
   <si>
-    <t>Mandy M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r496378190-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -348,9 +513,6 @@
     <t>May 2017</t>
   </si>
   <si>
-    <t>MoBoogie2009</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r493349782-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -381,9 +543,6 @@
     <t>My husband &amp; I stayed one night June 11-12, 2017. It was our first time ever staying here. When we arrived the front desk employee was very nice &amp; helpful. We really liked our room. It was nicely decorated, cozy, &amp; we noticed no problems with it. Everything was fine until we went to bed. The guests above us were terribly loud! I turned on the sound machine on my phone to block out some of the extremely loud stomping and/or jumping. I finally called the front desk around 12:15am as we could not take it anymore. Andre at the front desk was very nice &amp; said he would take care of it. A little bit after that, the noise stopped &amp; we were able to sleep. Around 6:00am the guests upstairs were at it again &amp; woke us both up! My husband got dressed &amp; went downstairs to talk to the manager. He told her how our night had gone &amp; that we were not able to get much sleep. One of the employees came up while they were talking &amp; explained to my husband that "she wished she got 6 hours of sleep a night &amp; that she only gets 4 hours". My husband told her that he had an important job interview &amp; that's why we were staying there. I just have to say if your employee were paying us $80+ a night to sleep at our...My husband &amp; I stayed one night June 11-12, 2017. It was our first time ever staying here. When we arrived the front desk employee was very nice &amp; helpful. We really liked our room. It was nicely decorated, cozy, &amp; we noticed no problems with it. Everything was fine until we went to bed. The guests above us were terribly loud! I turned on the sound machine on my phone to block out some of the extremely loud stomping and/or jumping. I finally called the front desk around 12:15am as we could not take it anymore. Andre at the front desk was very nice &amp; said he would take care of it. A little bit after that, the noise stopped &amp; we were able to sleep. Around 6:00am the guests upstairs were at it again &amp; woke us both up! My husband got dressed &amp; went downstairs to talk to the manager. He told her how our night had gone &amp; that we were not able to get much sleep. One of the employees came up while they were talking &amp; explained to my husband that "she wished she got 6 hours of sleep a night &amp; that she only gets 4 hours". My husband told her that he had an important job interview &amp; that's why we were staying there. I just have to say if your employee were paying us $80+ a night to sleep at our house, I'm sure she would expect to get as much sleep as she needed. They then explained that the loud guests were checking out that day, too. How does that make up for our night? We really liked everything here at first, but after the night &amp; morning we had, and the fact that no one helped to rectify our situation, we won't be back.  More</t>
   </si>
   <si>
-    <t>safetyman79</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r492155247-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -399,9 +558,6 @@
     <t xml:space="preserve">Far and away the best Holiday Inn Express I have ever stayed in and I've stayed in 100's.  The decor was completely different than any I have ever seen.  The room rivals a 5 star hotel.  The staff was extremely nice and helpful.  Shannon and April were so nice and helpful when I checked on.  Nothing but a 10 from me.  I will definitely be back. </t>
   </si>
   <si>
-    <t>ChristyAnderson</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r490206417-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -417,9 +573,6 @@
     <t>This place is for you!  We had a leadership training there for Enagic Friday, so I drove from Arkansas to Garland and stayed the night.  I didn't need a suite, although I would bet they are beautiful.  This place was stunning because everywhere you looked, they had purple.  Not obnoxious, just plain beautifully done.  Colton, at the front desk, was friendly and so helpful!  Our new office for the Dallas area is nearby, so I'm sure, I'll be back!</t>
   </si>
   <si>
-    <t>MistiATX</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r488892647-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -438,9 +591,6 @@
     <t>Great large rooms, excellent linens, extremely clean. This is still a fairly new hotel, but it has been well kept and maintained. The staff are very nice and the breakfast offers a variety of options. The double suite ($142.00 total one night stay) was exactly what we needed for the 4 of us. They have a great workout room and an outdoor pool. I also liked the location, next to several restaurants - Primios, Hooters, Texas Land and Cattle and Islamadora inside Bass Pro Shop. All of the restaurants have excellent patios too! It's not right on the water, but you can see the lake from the backside high floors. We will definitely return. More</t>
   </si>
   <si>
-    <t>Emily G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r486693110-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -459,9 +609,6 @@
     <t>Holiday Inn Express is my preferred hotel for quick trips. As others have written, this hotel is super new, stylish, clean and comfortable. Even though it's in a business complex of sorts and right by the highway, my room (on the first floor, facing the parking lot and highway) was pin-drop quiet. Bed was really comfy, too. Always enjoy their free breakfast, of course.Only reason this doesn't get 5/5 is because two of the three large towels in my bathroom were stained (!). It was an unpleasant discovery, especially two times in a row. Not sure if that was a snafu or what, but hopefully they'll take a closer look at their towels (or drop in some more bleach next time!).More</t>
   </si>
   <si>
-    <t>MarthaFromAlabama</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r486085092-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -477,9 +624,6 @@
     <t>This was the second time I have stayed here and I have no complaints. The decor is a bit odd, with some purplish lighting, but that's okay. Rooms are clean, breakfast is fine, and you can walk to restaurants like the Flying Saucer. Also the gas station almost next door had great street tacos and a good beer selection, so you can always bring supper in to your room.</t>
   </si>
   <si>
-    <t>Bruce H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r483441575-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -495,9 +639,6 @@
     <t>We spent 5 days at this hotel in Rowlett Texas.  It was the second time we have stayed there.  Good location, near our daughter.  Found one small cockroach.  Management gave us 5000 points.  Seemed like a fair deal.  Other than the bug it was a great stay.  We would stay again</t>
   </si>
   <si>
-    <t>Joseph T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r483427018-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -510,9 +651,6 @@
     <t>The staff, food, and cleanliness was excellent to say the least. Rossy at the front desk was very professional and kind. I would highly recommend this hotel to anyone.  Better than most I have stayed in my travels.</t>
   </si>
   <si>
-    <t>Nora O</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r475877171-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -531,9 +669,6 @@
     <t>April 2017</t>
   </si>
   <si>
-    <t>Charles H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r472148343-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -552,9 +687,6 @@
     <t>March 2017</t>
   </si>
   <si>
-    <t>Rebel142</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r471975122-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -570,9 +702,6 @@
     <t>Fairly new and modern hotel.  I have stayed here multiple times and have always enjoyed my stays.  Awesome location near Bass Pro and a number of restaurants, a limited number of rooms have a lake view.  Clean, comfortable and affordable rooms.  Breakfast is above average.  Highly recommend and will be back.</t>
   </si>
   <si>
-    <t>Tess S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r470545056-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -588,9 +717,6 @@
     <t xml:space="preserve">I travel fairly frequently and it's hard to find a good combination of clean, comfortable and affordable all in one. The breakfast was AMAZING. Warm, delicious, presentation was on key... everything from check in to check out was great. The staff was very helpful &amp; very professional. I HIGHLY recommend this hotel. You won't be disappointed. </t>
   </si>
   <si>
-    <t>Larry R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r447800952-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -618,9 +744,6 @@
     <t>We have family in Garland and decided to spend a night at this Holiday Inn Select about 5 minutes away from their house.  Within a short walk to Bass Pro, Primo's (Mexican Food), Flying Saucer and Hooters.  I paid the extra $10 for a lake view and was very pleased with the overall value of the room.  I went down the for the free breakfast the next morning and for the typical eggs, gravy, meats and biscuits, I'd say it was above average.  I think the hotel has been open less than a year so it was new and clean.  I'll definitely be going back again.More</t>
   </si>
   <si>
-    <t>22gibbs</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r446813564-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -636,16 +759,28 @@
     <t>Beautiful hotel!! We really enjoyed our stay...everything was great!!!. The room was very clean and the beds so comfortable and awesome location. It exceeded our expectations. We are sure to visit again hopefully in the spring or summer so we can enjoy the pool!!!</t>
   </si>
   <si>
-    <t>paandma1963</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r443820949-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
     <t>443820949</t>
   </si>
   <si>
-    <t>JimF99</t>
+    <t>12/12/2016</t>
+  </si>
+  <si>
+    <t>Wonderful stay</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay.  Newer motel, very clean and quite. We arrived about an hour before check in but our room was ready.  Our room was on the lakeside and we enjoyed the view. I would recommend requesting the lakeside.  The breakfast was good and had plenty of selections.MoreShow less</t>
+  </si>
+  <si>
+    <t>April J, Manager at Holiday Inn Express &amp; Suites Garland E - Lake Hubbard I30, responded to this reviewResponded December 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 13, 2016</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay.  Newer motel, very clean and quite. We arrived about an hour before check in but our room was ready.  Our room was on the lakeside and we enjoyed the view. I would recommend requesting the lakeside.  The breakfast was good and had plenty of selections.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r440381935-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
@@ -672,9 +807,6 @@
     <t>This is a very new (2 years) and clean place to stay. Very quiet. Staff was very friendly and helpful, except for the non English speaking. Bed was very comfortable. Heat and air is silent and thermostat controlled on wall. Will stay again. More</t>
   </si>
   <si>
-    <t>nordloh</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r438640767-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -702,9 +834,6 @@
     <t>I stayed at the Holiday Inn Express in Garland for business and it was very good. The hotel is walking distance from Hooters, Flying Saucer, Primos, Texas Land and Cattle, and Bass Pro Shops.  It is right near Hubbard Reservoir and you van catch great scenery.  The hotel has a good gym and pool.  My room was clean and well equipped.  There is a decent breakfast in the lobby in the mornings.  At the front desk, Shannnon is friendly and helpful.  I recommend this hotel and will be back!More</t>
   </si>
   <si>
-    <t>Steven H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r431676276-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -732,9 +861,6 @@
     <t>This a new Holiday Inn Express and Suites as I understand it only several years old. Being from Minnesota the purple and gold think Vikings or Prince. The room was spacious, comfortable. but with a shower --I would have like a tub/shower combination.   It appears the whole hotel is LED lighting. Plenty of parking. Choice of places to eat almost next door. Breakfast was fine -- always was greeted by someone to say good morning. Good staff. It would apper to me the owners spent the extra dollars to build to make an outstanding stay with the long term concept for payback, It will work.More</t>
   </si>
   <si>
-    <t>gfsu</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r419001660-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -759,9 +885,6 @@
     <t>Overall decor is modern, hotel is bright, clean and inviting. The room was large and the layout effective. The staff was welcoming and the hotel is in walking distance to quite a few places to eat. Overall by far the nicest one of these I've ever stayed at and I would come back again.More</t>
   </si>
   <si>
-    <t>Bob-Sharon B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r413714799-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -789,9 +912,6 @@
     <t>This is an excellent hotel with beautiful decorations in the halls and in the rooms.  It is very clean with beautiful lighting in each room.  Internet works very well and the breakfast is to die for.  The beds are very nice and extremely comfortable.More</t>
   </si>
   <si>
-    <t>GetawayGalSays</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r412069554-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -816,9 +936,6 @@
     <t>We popped in for an overnight stay and loved it. As much as I prefer a room with a bathtub over a shower only, this shower was great and did not slop water all over the floor. Staff were cheerful and attentive. The bed was super comfortable and everything looks gorgeous. We will return soon. More</t>
   </si>
   <si>
-    <t>Isaias S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r411466408-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -837,9 +954,6 @@
     <t>Wonderful bright &amp; colorful environment, makes me feel like I'm in the 70's grooveI decided to become more invested into Holiday Inn Express &amp; Suites, so I had just became a rewards member on my most recent trip. Sadly, I was disappointed when my significant other had pointed out a tear in the sofa cushion. Out of curiosity, I decided to call the Hyatt Regency that is connected to reunion tower in downtown and ask them what their going rate was on the same night.To my surprise it was a better rate than the price I had paid for the room that I was sleeping in.Since then I have been staying at the Hyatt and have not been taking advantage of my rewards with Holiday Inn.I personally from now on would recommend paying a little bit less and getting a little bit more with Hyatt.Granted that was on that particular night but the prices are always cutting close and I know with whom I'm going with next time.More</t>
   </si>
   <si>
-    <t>wcarter13</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r400331554-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -870,9 +984,6 @@
     <t>We thoroughly enjoyed the hotel.  Breakfast was more than typical at most hotels.  Room was very nice. We had all the comforts and had a great price. Staff was super attentive and friendly. Small pool but our party enjoyed it. Close restaurants and Bass Pro ShopMore</t>
   </si>
   <si>
-    <t>57Chevyluv</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r397355681-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -895,9 +1006,6 @@
   </si>
   <si>
     <t>The hotel was clean and quiet,beds were very comfortable, room was clean. Breakfast was adequate, with good choices for parents and the teens. Only drawbacks were too few bath towels, housekeeping forgetting to leave any bath towels at all after servicing, and the hotel's refusal to accept/allow AAA rate. Good accomdations overall, but a little overpriced. We will stay there again due to the convenient location.More</t>
-  </si>
-  <si>
-    <t>Frank M</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r394510023-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
@@ -923,9 +1031,6 @@
 Check in was simple and quick with friendly service. Our room (I was traveling with 2 of my teenage daughters) was large enough and clean enough though not spotless. I found a few old things missed by housekeeping. The beds were comfortable and the a/c while not whisper quiet did a fine job of keeping our room cool. I tend to notice details and the finish work by the construction team was poor as was the installation of some of the decorative panels which were not level. The bathroom door was a bit out of whack also. This did not really affect the quality of our stay but it...This is a newer HIE and what especially sets it apart from the many other HIE's I have stayed at is the decor. They have gone with a modern hip vibe which can be fun but probably is not suited for some tastes and you could argue not the ideal choice for a middle of the road Holiday Inn Express near Dallas. While this style works well at SPG's Le Meridien and suits that brand perfectly I would have preferred more of the Hyatt Place feel, which BTW is probably the best value in the $100 hotel night range. On the positive side you do feel energized by the decor and it is interesting to check out and try to figure out...especially the lobby lighting. Ok, enough about the decor already!Check in was simple and quick with friendly service. Our room (I was traveling with 2 of my teenage daughters) was large enough and clean enough though not spotless. I found a few old things missed by housekeeping. The beds were comfortable and the a/c while not whisper quiet did a fine job of keeping our room cool. I tend to notice details and the finish work by the construction team was poor as was the installation of some of the decorative panels which were not level. The bathroom door was a bit out of whack also. This did not really affect the quality of our stay but it reflects where HIE is as a brand. They are missing the little details. This also showed up in breakfast which is free so what do you want, right? Breakfast was minimal and readymade breakfast fare, but I have had better at other HIE’s. The eating area off the lobby was not very conducive to enjoying your meal. I guess it just felt a bit awkward eating in a space which reminded me of my visits to "Tomorrow Land" at Disneyland when I was a child.This is a good hotel choice for the area and could be fun for a couple’s getaway on a budget. The lake is adjacent to the hotel and there are some good restaurants choices close by. I would probably stay here over the hotel choices in Rockwall if that was my destination with the exception being the Hilton Lakeside which of course will cost quite a bit more. And if purple is your color than by all means this is your place to stay!More</t>
   </si>
   <si>
-    <t>Sam T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r392302145-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -951,9 +1056,6 @@
   </si>
   <si>
     <t>Pretty basic Holiday Inn except they have a wacky purple/yellow thing going on. I had a great view of the lake in my room. Negative aspects: my sheets were itchy and my sink smelled like rotten eggs when I ran water down it.More</t>
-  </si>
-  <si>
-    <t>Elester W</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r388602976-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
@@ -1002,9 +1104,6 @@
 The design is...The Bad:The Wifi is free but incredibly slow. At night the speed was clocked as low as 0.70 Mbs upload (which is even too slow to use Facebook).My family booked several nights in a row (a week or so) and because of this housekeeping routinely choose to clean our room last, even though we were in the middle of the hallway. During our stay they came as late as 4pm.The floor mounted AC makes the bed adjacent to it unusable and the rooms is either too hot or two cold. In the suite there are as many as 14 light switches, all un-marked and several control the same thing. Other switches will stop the lights from coming on with one of the other switches. A dead roach and numerous spider eggs were found in the stairwell for the duration of our stay. Several live roaches were spotted occasionally in the stairwell. These stairwells were indoors yet they had doors which led directly to the outside. Thankful none were seen in the hallways or rooms. Not all suites have a balcony.The good:Breakfast items are occasionally shuffled so you have some variety if you eat everyday. Breakfast is free and the portions set out are mostly fresh because it goes very quickly, but it is replaced timely.24/7 access to free coffee, tea, and hot chocolate. There are two TVs in the workout rooms.The design is really upbeat and makes you feel like you are staying somewhere cool and exotic.More</t>
   </si>
   <si>
-    <t>Tanja P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r386261874-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -1029,9 +1128,6 @@
     <t>I can deal with a spot or two that was missed on the night stand. I can deal with a spoon overlooked on the floor. I can deal with a sticky remote control. But when I pulled back the sheets and saw a bug crawling I had to leave! I have stayed here several times and not had any major problems but I will not be staying here again at this location.More</t>
   </si>
   <si>
-    <t>Bruce C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r382684589-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -1056,9 +1152,6 @@
     <t>Great experience, in a clean modern hotel.  I have stayed at a lot of Holiday Inn Express Hotels for business, and this one definelty has a unique decor.  Friendly check in service, hotel and rooms are clean.  I was on the third floor, and WiFi was a little slow....otherwise I would have given the hotel a five star rating.  That being said, I will stay here again, when I am next in the area.More</t>
   </si>
   <si>
-    <t>drbblew</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r380952846-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -1086,9 +1179,6 @@
     <t>The lobby is decorated "funky" - modern.  Really nice. Room was clean and comfortable.  Front desk staff very helpful. Breakfast was plenty and everything fresh.  Really good muffins. Bass Fishing next door is very fun to visit.... has restaurant with an aquarium view and shooting range for kids.More</t>
   </si>
   <si>
-    <t>mdland711</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r374245637-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -1113,7 +1203,137 @@
     <t>We are staying in the next month...What a treasure to work with this staff.  The sales department is wonderful.  B meet me and gave me a tour.  Was very attentive to the needs for our event.  The hotel is near the lake and a lot of great places to eat.  I was impressed with the rooms, the pool area and the staff.  Look forward to a great event.More</t>
   </si>
   <si>
-    <t>C P</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r372233400-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>372233400</t>
+  </si>
+  <si>
+    <t>05/11/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funky fun with great breakfast. </t>
+  </si>
+  <si>
+    <t>This place was unusual in very good way. Refreshingly not normal and I loved it for that. Its clever fashion just made you smile. Also good customer service, decent lake view, and a comfortable room and bed all at a good price. Lots of restaurant choices nearby. And the continental breakfast put all others to shame, just humiliated them. I looked forward to it each morning. I would go back to this unique gem in a funky heartbeat. MoreShow less</t>
+  </si>
+  <si>
+    <t>April J, Manager at Holiday Inn Express &amp; Suites Garland E - Lake Hubbard I30, responded to this reviewResponded May 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 16, 2016</t>
+  </si>
+  <si>
+    <t>This place was unusual in very good way. Refreshingly not normal and I loved it for that. Its clever fashion just made you smile. Also good customer service, decent lake view, and a comfortable room and bed all at a good price. Lots of restaurant choices nearby. And the continental breakfast put all others to shame, just humiliated them. I looked forward to it each morning. I would go back to this unique gem in a funky heartbeat. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r368931755-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>368931755</t>
+  </si>
+  <si>
+    <t>04/30/2016</t>
+  </si>
+  <si>
+    <t>Pretty cool</t>
+  </si>
+  <si>
+    <t>Nice and welcoming lobby. Friendly staff. Location is close to a few restaurants, though many are less family friendly after 9p.  Downside: poor breakfast choices. I know there is always a limited options at HIE but lack of hardboiled eggs and same food choices 3 days in a row were a bit of a letdown.  Pool looked great and I wish it had been a bit warmer. Otherwise, I recommend if you are traveling to this area.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>April J, Manager at Holiday Inn Express &amp; Suites Garland E - Lake Hubbard I30, responded to this reviewResponded May 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 3, 2016</t>
+  </si>
+  <si>
+    <t>Nice and welcoming lobby. Friendly staff. Location is close to a few restaurants, though many are less family friendly after 9p.  Downside: poor breakfast choices. I know there is always a limited options at HIE but lack of hardboiled eggs and same food choices 3 days in a row were a bit of a letdown.  Pool looked great and I wish it had been a bit warmer. Otherwise, I recommend if you are traveling to this area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r366106136-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>366106136</t>
+  </si>
+  <si>
+    <t>04/21/2016</t>
+  </si>
+  <si>
+    <t>Good choice</t>
+  </si>
+  <si>
+    <t>Was here for a volleyball tournament. Room was huge which was nice with 3 teenage girls. Bed was awesome! Girls complained they got ate up by fleas in the sofa bed. Don't go by the pictures on the website though. Room was just your typical hotel room, not like the modern picture which is why I chose this hotel. Thought the girls would like the modern look but it wasn't-oh well. Would definitely stay here again though.MoreShow less</t>
+  </si>
+  <si>
+    <t>April J, Manager at Holiday Inn Express &amp; Suites Garland E - Lake Hubbard I30, responded to this reviewResponded April 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 25, 2016</t>
+  </si>
+  <si>
+    <t>Was here for a volleyball tournament. Room was huge which was nice with 3 teenage girls. Bed was awesome! Girls complained they got ate up by fleas in the sofa bed. Don't go by the pictures on the website though. Room was just your typical hotel room, not like the modern picture which is why I chose this hotel. Thought the girls would like the modern look but it wasn't-oh well. Would definitely stay here again though.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r354438304-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>354438304</t>
+  </si>
+  <si>
+    <t>03/10/2016</t>
+  </si>
+  <si>
+    <t>Best Ever!</t>
+  </si>
+  <si>
+    <t>I have passed by this location many times and always thought it would be a great place to explore because it has a huge, scenic  reservoir nearby, lots of restaurants and shops to visit and today we did just that.This hotel is by far the best HIE we have stayed at to date. Newer, modern with touches that surpass every other one we have stayed at. The rooms are laid out like someone actually new what they were doing. Lots of outlets at convenient locations that you do not have to search for. Clean and quiet rooms, at least on the backside of the hotel even though walking out the front door subjects you to the loudest interstate traffic noise I have ever heard. The only thing I have found so far to dislike are the cheap, plastic toilet seats and it seems like they all have them. There are electric vehicle charging stations, a very nice pool, modern and very clean premises and a very warm and welcoming staff who go the step beyond just being cordial.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>April J, Manager at Holiday Inn Express &amp; Suites Garland E - Lake Hubbard I30, responded to this reviewResponded March 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2016</t>
+  </si>
+  <si>
+    <t>I have passed by this location many times and always thought it would be a great place to explore because it has a huge, scenic  reservoir nearby, lots of restaurants and shops to visit and today we did just that.This hotel is by far the best HIE we have stayed at to date. Newer, modern with touches that surpass every other one we have stayed at. The rooms are laid out like someone actually new what they were doing. Lots of outlets at convenient locations that you do not have to search for. Clean and quiet rooms, at least on the backside of the hotel even though walking out the front door subjects you to the loudest interstate traffic noise I have ever heard. The only thing I have found so far to dislike are the cheap, plastic toilet seats and it seems like they all have them. There are electric vehicle charging stations, a very nice pool, modern and very clean premises and a very warm and welcoming staff who go the step beyond just being cordial.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r350966738-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>350966738</t>
+  </si>
+  <si>
+    <t>02/25/2016</t>
+  </si>
+  <si>
+    <t>4 nights of purple</t>
+  </si>
+  <si>
+    <t>We had originally booked three nights over Valentines Day weekend, but later extended for one additional night, more about that later.
+The first thought I had when I walked into this hotel was, "That is a lot of purple".  I had no idea at that point how much more thereliable would. The lobby was comfortable and inviting, and my wife wanted to decorate a room in purple to match their decorations.  
+Check in was uneventful,  and the desk attendant was very friendly.  We were given two keys to our room on the 4th floor, on the lake side of the hotel.  The cost was slightly  more expensive to reserve a lake view room, but it was worth it.
+There were two elevators. The right elevator seemed a little musty, which made me wonder if the housekeepers use it to transport linens. With this one exception, I would say that the hotel was very clean. There was one night that they did not do quite as good a job of cleaning our room, but I would say that night was more comparable with other hotels I have stayed in.
+The purple in the lobby was just a hint of what was to come in the corridors and guest rooms. The pictures on this site and those I have attached will give you an idea of the purple, bright green and grey color scheme. 
+The lighting in the room was unusual. There...We had originally booked three nights over Valentines Day weekend, but later extended for one additional night, more about that later.The first thought I had when I walked into this hotel was, "That is a lot of purple".  I had no idea at that point how much more thereliable would. The lobby was comfortable and inviting, and my wife wanted to decorate a room in purple to match their decorations.  Check in was uneventful,  and the desk attendant was very friendly.  We were given two keys to our room on the 4th floor, on the lake side of the hotel.  The cost was slightly  more expensive to reserve a lake view room, but it was worth it. There were two elevators. The right elevator seemed a little musty, which made me wonder if the housekeepers use it to transport linens. With this one exception, I would say that the hotel was very clean. There was one night that they did not do quite as good a job of cleaning our room, but I would say that night was more comparable with other hotels I have stayed in.The purple in the lobby was just a hint of what was to come in the corridors and guest rooms. The pictures on this site and those I have attached will give you an idea of the purple, bright green and grey color scheme. The lighting in the room was unusual. There were 9 different light switches in my room, some of them did nothing at all. In addition to these light switches, there were 3 other smaller switches practically hidden on the wall over the center table.  Luckily, there was a maintenance man in the hallway that was able to show me how to operate the lights. If he hadn't been available, I probably never would have figured out how they worked. The beds were quite firm, but had pillow tops and had padded mattress pads.  The mattresses seemed relatively new. The linens were clean, soft and comfortable. The cleaning crew stocked the room with 3 of each, bath towels, hand towels, and wash clothes, all except for one night of our stay when they only left two of each. I don't know why it would have been different that night.We were able to swim in the outdoor pool during our stay. The pool area was clean and well maintained. It was a cool evening, and we were informed that the pool was heated.  We were pleased to find that the water was very warm, probably around 90 degrees.The hotel is in easy walking distance of 4 or 5 restaraunts, including a steak house, texmex restaraunt and a Hooters, under construction that looked nearly ready to open. There is also a Bass Pro in an adjacent parking lot, and a dock on the lake that we really enjoyed walking on.The only real problem during the stay was with one of the desk staff. We decided we wanted to add one additional night to our reservation,  so talked to the front desk in person. The front desk attendant was not unfriendly, but for some reason seemed to have a difficult time understanding, "add one more night to our stay". He said that he understood and had done it, however I did not have much confidence. I checked back with a different person on their next shift to find that he had added two additional nights.The complimentary breakfast was better than average.  There were pancakes, biscuits and gravy, yogurt, hot and cold cereals, sausage and some kind of omlette.  Avoid the omlette, but the rest was very good. I think I may have gained 5 pounds during our stay because of the cinnamon rolls, they may be the very embodiment of evil!All total I would probably give this Holiday Inn Express 3-4 stars. It is a nice place to stay, though a little overpriced. I did notice that the price had gone down by around $20 per night a couple of weeks after our stay. They may have raised their rates for Valentines Day, which I do not like.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>We had originally booked three nights over Valentines Day weekend, but later extended for one additional night, more about that later.
+The first thought I had when I walked into this hotel was, "That is a lot of purple".  I had no idea at that point how much more thereliable would. The lobby was comfortable and inviting, and my wife wanted to decorate a room in purple to match their decorations.  
+Check in was uneventful,  and the desk attendant was very friendly.  We were given two keys to our room on the 4th floor, on the lake side of the hotel.  The cost was slightly  more expensive to reserve a lake view room, but it was worth it.
+There were two elevators. The right elevator seemed a little musty, which made me wonder if the housekeepers use it to transport linens. With this one exception, I would say that the hotel was very clean. There was one night that they did not do quite as good a job of cleaning our room, but I would say that night was more comparable with other hotels I have stayed in.
+The purple in the lobby was just a hint of what was to come in the corridors and guest rooms. The pictures on this site and those I have attached will give you an idea of the purple, bright green and grey color scheme. 
+The lighting in the room was unusual. There...We had originally booked three nights over Valentines Day weekend, but later extended for one additional night, more about that later.The first thought I had when I walked into this hotel was, "That is a lot of purple".  I had no idea at that point how much more thereliable would. The lobby was comfortable and inviting, and my wife wanted to decorate a room in purple to match their decorations.  Check in was uneventful,  and the desk attendant was very friendly.  We were given two keys to our room on the 4th floor, on the lake side of the hotel.  The cost was slightly  more expensive to reserve a lake view room, but it was worth it. There were two elevators. The right elevator seemed a little musty, which made me wonder if the housekeepers use it to transport linens. With this one exception, I would say that the hotel was very clean. There was one night that they did not do quite as good a job of cleaning our room, but I would say that night was more comparable with other hotels I have stayed in.The purple in the lobby was just a hint of what was to come in the corridors and guest rooms. The pictures on this site and those I have attached will give you an idea of the purple, bright green and grey color scheme. The lighting in the room was unusual. There were 9 different light switches in my room, some of them did nothing at all. In addition to these light switches, there were 3 other smaller switches practically hidden on the wall over the center table.  Luckily, there was a maintenance man in the hallway that was able to show me how to operate the lights. If he hadn't been available, I probably never would have figured out how they worked. The beds were quite firm, but had pillow tops and had padded mattress pads.  The mattresses seemed relatively new. The linens were clean, soft and comfortable. The cleaning crew stocked the room with 3 of each, bath towels, hand towels, and wash clothes, all except for one night of our stay when they only left two of each. I don't know why it would have been different that night.We were able to swim in the outdoor pool during our stay. The pool area was clean and well maintained. It was a cool evening, and we were informed that the pool was heated.  We were pleased to find that the water was very warm, probably around 90 degrees.The hotel is in easy walking distance of 4 or 5 restaraunts, including a steak house, texmex restaraunt and a Hooters, under construction that looked nearly ready to open. There is also a Bass Pro in an adjacent parking lot, and a dock on the lake that we really enjoyed walking on.The only real problem during the stay was with one of the desk staff. We decided we wanted to add one additional night to our reservation,  so talked to the front desk in person. The front desk attendant was not unfriendly, but for some reason seemed to have a difficult time understanding, "add one more night to our stay". He said that he understood and had done it, however I did not have much confidence. I checked back with a different person on their next shift to find that he had added two additional nights.The complimentary breakfast was better than average.  There were pancakes, biscuits and gravy, yogurt, hot and cold cereals, sausage and some kind of omlette.  Avoid the omlette, but the rest was very good. I think I may have gained 5 pounds during our stay because of the cinnamon rolls, they may be the very embodiment of evil!All total I would probably give this Holiday Inn Express 3-4 stars. It is a nice place to stay, though a little overpriced. I did notice that the price had gone down by around $20 per night a couple of weeks after our stay. They may have raised their rates for Valentines Day, which I do not like.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r345194674-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
@@ -1131,9 +1351,6 @@
     <t>This hotel is a new updated Holiday Inn Express, lots of neon accent lighting. The hotel is very well taken care of, clean and very inviting. I've stayed multiple times and the staff is always very friendly and welcoming. My last stay I asked for a different room at I like the higher floors. They were very accommodating and immediately changed my room.MoreShow less</t>
   </si>
   <si>
-    <t>February 2016</t>
-  </si>
-  <si>
     <t>April J, Manager at Holiday Inn Express &amp; Suites Garland E - Lake Hubbard I30, responded to this reviewResponded February 8, 2016</t>
   </si>
   <si>
@@ -1143,9 +1360,6 @@
     <t>This hotel is a new updated Holiday Inn Express, lots of neon accent lighting. The hotel is very well taken care of, clean and very inviting. I've stayed multiple times and the staff is always very friendly and welcoming. My last stay I asked for a different room at I like the higher floors. They were very accommodating and immediately changed my room.More</t>
   </si>
   <si>
-    <t>mgwheeler</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r341771725-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -1173,9 +1387,6 @@
     <t>The hotel is overly priced. No lights/lamps in the rooms, which are small, except over head light and light above computer space. No lights by the bed. However, to be fair the beds were extremely comfortable. There are no towel racks in bathroom..not everyone throws towels on the floor. Majority of staff were very friendly and helpful. I was shocked at the decoration as the majority of HI Express I have stayed in are not "this busy". It is not a comfortable setting at all.  The breakfast bar had nothing but expired milk, biscuits you could have played hockey with and watered down orange juice. Even the little "pantry" area was halfed staffed with items. It is a shame considering Holiday Inn Express is a good place to stay. Don't plan on using internet service, could not open up emails on phone or computer.More</t>
   </si>
   <si>
-    <t>traveladdict468</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r341681322-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -1189,9 +1400,6 @@
   </si>
   <si>
     <t>Pros:  The property is about 1 year old.  From the look from outside the property is very modern, nice, and with contemporary design.  The lobby smells really good when walk in from outside.  Half of the room in the hotel has lake view.  The hotel is next to I-30 freeway.  Walking distance to Bass Pro, Flying Saucer, Primo Tex-Mex, Whataburger and other restaurants.  About 10 min from Target, Walmart, Ross, and other dining options if heading East on I-30 crossing over the lake.  Cons:  it smells really bad like stinky sewer whenever water is turned on at the sink faucet.  Mold is at the bottom corner of the bathtub.  Bathtub coating is peeling off.  Called front desk around 10:30am and waited at least 1 min but no one pickup the phone.  We booked suite with lake view but when we got here, the hotel ran out of suite room????  This is unacceptable.  Don't mislead customer if suite rooms are sold out.  The sink is cracked also.  Overall, not so new!!!At first, I would stay here again but after 2 nights here, I will consider other option.More</t>
-  </si>
-  <si>
-    <t>DFWTravelerDallas_TX</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r332737707-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
@@ -1221,9 +1429,6 @@
 When we arrived there were cars blocking the EV charging spots; gas vehicles not needing to utilize them.  The only way I was able to charge was the fact that my wife put her car in one of the spots on the other side of a patch of grass, and it just so happened to be close enough that the cord would stretch for me to charge...This is a relatively nice hotel with a few casual restaurant/bar options that are walkable.  Our room was plenty spacious and clean and modern.  Lobby of the hotel was fairly nice and employees were helpful.  The one feedback I would really like to give to the hotel management should they read this, is they really need to put better signs to indicate the parking spots that are for EV charging.  The main reason I chose this hotel over others in the area was due to the fact that they have charging spots available for electric vehicles.  No other hotel in the area has this as best I know.  But the spots were not marked in any way to indicate they are for EV's.  Many people are not yet familiar with electric vehicle and chargers provided for them by many businesses.  People will park there typically because they are not aware the spots are for electric vehicles.  It really is the equivalent of someone parking at a gas station spot without needing to refuel.  When we arrived there were cars blocking the EV charging spots; gas vehicles not needing to utilize them.  The only way I was able to charge was the fact that my wife put her car in one of the spots on the other side of a patch of grass, and it just so happened to be close enough that the cord would stretch for me to charge up.  So when I arrived late night she moved her car and I parked there and was able to charge.  If she hadn't done this I am fairly certain her spot would have been occupied by other vehicles not needing to charge.  You earned my business by providing a place to charge my car.  But it almost didn't work out well and it was only because my wife got there long before I arrived that I was able to charge my car.  It would be useful to put a prominent sign by these EV spots to indicate what they are for so that others don't take them by mistake.  I have stayed at many hotels where prominent signs are in place to make people aware.  Some even put a traffic cone in the parking spot to make it more obvious or paint something on the cement to indicate they are for EV charging.  This may be an infrequent issue at your hotel right now, but I can assure you the number of people driving EV's is growing exponentially and you will get more and more people in the future needing/wanting to utilize the chargers.  Thank you for providing the charging spots, but please go a step further to make sure your EV customers are able to utilize them.More</t>
   </si>
   <si>
-    <t>cynthiavan</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r330995993-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -1248,9 +1453,6 @@
     <t>This hotel is so much better than the Microtel in Brandon Mississippi. The staff are very nice. My only thing to say is our room was freezing they hadn't had the heater turned on so my room was 58* degrees upon arrival. Should had them on it took a while to become warm. The room is cozy. It came with small fridge and microwave and free wifi!! I'll stay again for sure!!! Oh surrounded by restaurants and shopping!!!More</t>
   </si>
   <si>
-    <t>Lisa A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r330156898-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -1278,9 +1480,6 @@
     <t>When you first walk in the room there is such a clean smell.  The beds are very comfortable and the supplies well stocked.  They even had a sectional in the room with the king size bed.  Very nice.  The staff is very friendly and accommodating.  The hotel itself is new and contemporary with a wonderful color scheme.  The lobby area is great gathering place to eat and watch TV. I love this hotel.More</t>
   </si>
   <si>
-    <t>RedHornet72653</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r328226941-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -1302,9 +1501,6 @@
     <t>The hotel is a good one though stay away from floor one rooms in the Breakfast Area. It is a clean place and very handy. An =easy drop in and out of Dallas and close to Bass Pro as well as the freeways.More</t>
   </si>
   <si>
-    <t>grandma80401</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r324244122-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -1326,9 +1522,6 @@
     <t>Everything about this hotel was comfortable, and everything about this hotel was ultra modern.  We loved the sectional in the suite.  It was comfortable and had room enough for a whole family.  There were more lights in this room and I have ever seen in a hotel .  There were also plenty of outlets both electrical and USB.  There was even a ceiling fan over the bed.That said, I found all the blue and purple lights a bit garrish, although my husband loved them.  The decore made me feel like I was living inside a cartoon - expecially in the dining area.  But it was clean, the beds were comfrotable and the bathroom was beautiful and functional.  This is a great place to stay, just a bit on the funky side.More</t>
   </si>
   <si>
-    <t>Scorpioess</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r324221214-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -1350,9 +1543,6 @@
     <t>Great location, clean room &amp; up to date appliances with modern decor... The staff were super friendly and accommodating... Thank you so much Holiday Inn Express for staying true to your mission statement!More</t>
   </si>
   <si>
-    <t>TTechnologies</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r323757849-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -1377,9 +1567,6 @@
     <t>Excellent hotel as far as technology and style. Hotel is up-to date and modern. Lighting technology is also very unique. bright and neon lights scale the hallways and rooms. Safe and quiet environment. Breakfast tasted good and fresh.More</t>
   </si>
   <si>
-    <t>tomthbomb</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r321444696-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -1404,9 +1591,6 @@
     <t>I have stayed here on business trips several times in the recent past. Other than a few issues that needed to be fixed as with any new property the hotel itself is great. The management was in its' learning phase.I returned recently with my spouse for a little get away. I reserved a "Lakeview Suite". When we arrived the manger (owner?) advised no Lakeview Rooms" were available. Half the rooms at this property are Lakeview rooms.I am an IHG Hotel chain Spire member, the highest level obtainable. That means nothing here. Spire members take notice.More</t>
   </si>
   <si>
-    <t>TortugaGal28</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r313038611-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -1434,9 +1618,6 @@
     <t>This hotel is in a great area, very safe and clean. The hotel interior was beautiful, not what you typically think of a Holiday Inn. The bed was comfortable and everything in the room was clean and new. Quiet too, even when we stayed on the first floor.Only reason I am not giving a 5 star review, is the customer service at the front desk was not as friendly as it could have been and the breakfast could use a few improvements. The pancakes were spongy and the eggs were instant and tasted as such.More</t>
   </si>
   <si>
-    <t>Hanbeth1988</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r312213261-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -1461,9 +1642,6 @@
     <t>Pretty awesome looking hotel when you walk in the lobby it's like a hotel of the future! Very modern and up to date! The purple And green are so cool and makes you feel just happy to be in such a clean and bright environment! I would def go back! Primos is great close by to eat Tex mex we walked there! Just being right by the water is awesome! Highly recommend this hotel and will go back in a heartbeat!More</t>
   </si>
   <si>
-    <t>Teri R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r306524998-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -1488,9 +1666,6 @@
     <t>This hotel is beautiful. It sparkles in every way. The beds and pillows are luxuriously decadent. After a very long trip we need an unexpected hotel stay. We greeted by a lovely woman who pointed me to where I could have a much needed cup of hot tea, told me about the complimentary breakfast and wished us good night. It has far exceeded my expectations. Thank you for making the crazy day we had fade away.More</t>
   </si>
   <si>
-    <t>Suzan K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r305955362-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -1518,9 +1693,6 @@
     <t>We stayed here over a weekend. The hotel is new and pretty. We had a balcony view of the lake. Rooms were clean, but on the 2nd night we found a huge cockroach on the wall. Also, breakfast was mediocre and I opened a rotten carton of milk. Food seemed stale and old. On our 2nd day, I called front desk and told them that my youngest was ill and we needed to check out. He was not sympathetic or willing to let us leave without paying for the night. We usually get much friendlier treatment at Holiday Inns.More</t>
   </si>
   <si>
-    <t>WineEng</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r303529661-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -1539,9 +1711,6 @@
     <t>Having stayed in the area many times, this is my first at this HIE in Garland right on the lake. It's really nice compared to others in the area. Decor is very modern, almost futuristic. Use of LED lighting is almost over the top, but it gives it a cool look. Maybe they were influenced by being next to the Flying Saucer beer joint. Anyway the room was very clean and more like something you'd pay $300 for in downtown Chicago. The staff was friendly and helpful. The morning breakfast was standard HIE fare which means good. Plenty of parking and four restaurants within walking distance. As this is just off Hwy 30, it's super easy to find. If you need to stay in the East Dallas area, this place is highly recommended. Cheers!More</t>
   </si>
   <si>
-    <t>Ray a</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r299699399-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -1587,9 +1756,6 @@
     <t>We picked this hotel due to it's proximity to family we were visiting. It is new, clean, and convenient. The staff was very friendly and the included breakfast was good. The decor is funky - not exactly what I would choose, but it certainly didn't interfere with our enjoyment of our stay. We plan to return and would recommend this hotel to othersMore</t>
   </si>
   <si>
-    <t>Donald A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r294155213-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -1608,9 +1774,6 @@
     <t>I was concerned about water issues reading some of the other post. Put your mind at ease those issues have been corrected and there is plenty of hot water.  This has been one of my favorite hotels and I long time. I love the modern vibrant decor and the staff are very very friendly.  In fact my wife and I have booked another state this weekend we were so pleased with the atmosphere. You will do yourself a favor if you stay here. More</t>
   </si>
   <si>
-    <t>farawaydreamer</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r291300382-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -1629,9 +1792,6 @@
     <t>Nice hotel within walking distance of Bass Pro in Garland. Easy on and off Interstate 30.  A few places to eat also within walking distance.  I like purple, but whoever built this hotel, is obsessed with it!!!  Staff is very friendly.  More</t>
   </si>
   <si>
-    <t>Denis M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r288500583-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -1656,9 +1816,6 @@
     <t>The property is new and beautiful but it has some issues the front desk and breakfast hostess working Saturday 07/11/15 during the morning were not friendly at all. No swimming pool towels in the pool area, the swimming pool umbrella not working and if you are staying here ask for a room on the third floor because on the first floor you can heard the water coming down the drain when someone flushes the toilet.More</t>
   </si>
   <si>
-    <t>jackkip</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r287963352-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -1710,9 +1867,6 @@
     <t>This new hotel on Lake Ray Hubbard in Garland is different from any other Holiday Inn Express I have encountered. The decor is reminiscent of a full blown Holiday Inn. The staff is courteous and managed to fine an upgrade recognizing my membership status.This hotel will be my base for east Dallas as long as the rates remain reasonable.More</t>
   </si>
   <si>
-    <t>Joy A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r285306256-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -1735,9 +1889,6 @@
   </si>
   <si>
     <t>This is a uniquely decorated hotel with fun colors!  It is new and was very clean and comfortable.  We were traveling with a disabled family member and they changed rooms for us upon arrival to accommodate her needs.  Great service and good breakfast.  Nice restaurants or Whataburger within walking distance.More</t>
-  </si>
-  <si>
-    <t>JulieGeek</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r282415449-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
@@ -1770,9 +1921,6 @@
 Coming back every evening to a clean, comfy room with hot cocoa was a life-saver. Crisp sheets, fluffy towels, and  Citrus White Tea bath products made it pleasant. Tasty abundant hot breakfast enabled us to face our own personal disaster--with, if not enthusiasm, then, equanimity--every day. There was also a cheerful lady who worked the breakfast room. And the pancake machine that beats...If you like funky decor, this is definitely the place for you. I funk not, but still found it oddly charming. If you find purple and chartreuse off-putting, be comforted in the fact that the hotel is really nice.We have stayed here twice. The first was New Year's Eve 2015 right after this hotel opened. It was good from the get-go. I didn't have a sense of a "soft" launch or anything. The 4th floor could use a bit more sound-proofing on the top because we could hear the rain. If you like to hear the rain, then maybe it's a good thing.The second time was May 2015 when we had to evacuate our house after a flood. We moved in here for two weeks and they were great. Amanda at the front desk must be one of the nicest people on the planet. She gave us a heads-up that if we were needing to extend our stay into a busy weekend, we ought to do it sooner rather than later. That was good advice.Coming back every evening to a clean, comfy room with hot cocoa was a life-saver. Crisp sheets, fluffy towels, and  Citrus White Tea bath products made it pleasant. Tasty abundant hot breakfast enabled us to face our own personal disaster--with, if not enthusiasm, then, equanimity--every day. There was also a cheerful lady who worked the breakfast room. And the pancake machine that beats the waffle maker hands-down. We also had the unusual opportunity to use the laundry room which was also very nice.And it's walking distance to The Flying Saucer on the Lake (awesome!), Bass Pro, Texas Land &amp; Cattle Company, Primo's (Mexican), Whataburger, the Beef Jerky Outlet, and CiCi's Pizza.My only complaint was that the "proximity" key cards stopped working several times during our stay. Annoying, but quickly resolved each time.More</t>
   </si>
   <si>
-    <t>Sugardoll80</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r281730564-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -1801,9 +1949,6 @@
 If you're looking for a nice and clean suburban...This hotel recently opened within the last few months.  It's in a great location next to Interstate 30, Lake Ray Hubbard, Bass Pro Shops and a few restaurants (i.e. Whataburger, Flying Saucer).  Initially, I thought the noise from I-30 would be a problem but it wasn't.  From my room, I couldn't hear the freeway traffic.  My stay included two nights in the Executive King Suite, which had a nice sofa bed with a chaise, microwave, and fridge.  I loved the trendy decor with the purple and gray colors.  Normally, I stay at a Marriott brand but a took a chance on this hotel since it was new and needed to be close to the Garland High Schools' graduation ceremonies.  The customer service didn't match what I normally receive with Marriott.  I didn't feel as welcomed.  Maybe, if I was an IHG Rewards member, the service would have been better.  Also, the hotel still needs to work out a few "newness kinks".  For example, the hot and cold water were hooked up backwards on the bathroom sink.  You had to turn the knob to the right for hot and vice-versa for the cold.  The shower door needed an adjustment with the rubber.  Outside of that, I think it's a great hotel with complimentary breakfast and internet.  I can't comment on the breakfast, because I didn't wake up in time to catch it.  If you're looking for a nice and clean suburban hotel, this is it!More</t>
   </si>
   <si>
-    <t>Jennielw</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r280657299-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -1822,9 +1967,6 @@
     <t>First impressions- very modern hotel and very clean. Room was better than expected. Plenty of room for us and our three kids. Our 4 yr old daughter became ill and and the front desk attendant was extremely friendly and helpful when we needed things at 3AM. She provided us with new linens, trash bags, medicine and she even threw in a new toothbrush. She went above and beyond to help us.  There are several restaurants and gas stations near by. We would definitely stay here again. More</t>
   </si>
   <si>
-    <t>Helard</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r280392328-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -1843,9 +1985,6 @@
     <t>As other reviewers have pointed out, this is a brand new hotel. We had a great time here, nice pool, nice rooms and good free breakfast. It's close to some restaurants that although a bit on the mid-range class, had pretty good food.More</t>
   </si>
   <si>
-    <t>NWaggoner</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r265282110-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -1873,9 +2012,6 @@
     <t>My husband and I chose this hotel for its proximity to an event venue. We have never been more pleased by a hotel in this price point. It is a brand new addition to the Lake Hubbard restaurant and retail development (anchored by Bass Pro, The Flying Saucer Drought Emporium, and Primo's Tex-Mex). The art-deco decor and chic modern furniture are reminiscent of hotels on the Vegas strip. Our room, a suite, was well appointed and absolutely spotless. It would function perfectly for extended business travel given the wrap around chaise sofa in the living area and ample desk/computer space. We visit this area several times per year and will definitely be patronizing this hotel whenever possible.More</t>
   </si>
   <si>
-    <t>Hywaa1</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r263566098-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -1897,7 +2033,97 @@
     <t>My wife and I stayed the night and was highly impressed with the service and facility. I would certainly stay again if in the area. Excellent location, pricing and modern accommodation, this is what all hotels should be like.More</t>
   </si>
   <si>
-    <t>STrapaniJonesia</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r262128536-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>262128536</t>
+  </si>
+  <si>
+    <t>03/27/2015</t>
+  </si>
+  <si>
+    <t>brand new</t>
+  </si>
+  <si>
+    <t>Brand new trendy hotel so everything was super clean. Sits right off the turnpike which was a plus traveling. It was within walking distance to several restaurants and each place had an outside patio overlooking the lake. Didn't eat the breakfast but they had the basics, eggs, bagel, cereal ect... The room also had a mini fridge, microwave, coffee pot, and hair dryer. Everything was perfect being the hotel is only three months old. HOWEVER, the reason for four stars is because of no hot water. You couldn't take a shower during prime time or you would have luke warm water. Would stay again but don't think I will be returning to that area in the near future.MoreShow less</t>
+  </si>
+  <si>
+    <t>Brand new trendy hotel so everything was super clean. Sits right off the turnpike which was a plus traveling. It was within walking distance to several restaurants and each place had an outside patio overlooking the lake. Didn't eat the breakfast but they had the basics, eggs, bagel, cereal ect... The room also had a mini fridge, microwave, coffee pot, and hair dryer. Everything was perfect being the hotel is only three months old. HOWEVER, the reason for four stars is because of no hot water. You couldn't take a shower during prime time or you would have luke warm water. Would stay again but don't think I will be returning to that area in the near future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r261690624-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>261690624</t>
+  </si>
+  <si>
+    <t>03/25/2015</t>
+  </si>
+  <si>
+    <t>Pretty new hotel right on Lake Hubbard</t>
+  </si>
+  <si>
+    <t>We went to Dallas for spring break and didn't want to stay downtown. So we decided to go to the suburbs where we could get a place that we could park our own car and escape the hustle of the city.This hotel is decorated in modern motif with funky colors, modern furniture and nice lights.Our room had a blue light under the bathroom vanity that gave off a cool blue hue at night so you could find your way in there without having to turn on the overhead lights and wake your spouse.The front desk folks were very friendly and courteous.There is a free breakfast every morning and it was pretty decent when we were there. Eggs,sausage,biscuits &amp; gravy,toast,pancakes,fruit,yogurt,cereals,juice and cinnamon rolls. The hotel is located about 200 yds from a huge Bass Pro shop which was pretty neat. There were 3 nice restaurants right by the Bass Pro (Steak place, Mexican place &amp; a bar &amp; grill). Plus there's a Whataburger joint right across the street.We enjoyed our 4 days there and got a decent price for the roomMoreShow less</t>
+  </si>
+  <si>
+    <t>We went to Dallas for spring break and didn't want to stay downtown. So we decided to go to the suburbs where we could get a place that we could park our own car and escape the hustle of the city.This hotel is decorated in modern motif with funky colors, modern furniture and nice lights.Our room had a blue light under the bathroom vanity that gave off a cool blue hue at night so you could find your way in there without having to turn on the overhead lights and wake your spouse.The front desk folks were very friendly and courteous.There is a free breakfast every morning and it was pretty decent when we were there. Eggs,sausage,biscuits &amp; gravy,toast,pancakes,fruit,yogurt,cereals,juice and cinnamon rolls. The hotel is located about 200 yds from a huge Bass Pro shop which was pretty neat. There were 3 nice restaurants right by the Bass Pro (Steak place, Mexican place &amp; a bar &amp; grill). Plus there's a Whataburger joint right across the street.We enjoyed our 4 days there and got a decent price for the roomMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r258252665-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>258252665</t>
+  </si>
+  <si>
+    <t>03/07/2015</t>
+  </si>
+  <si>
+    <t>No hot water period!!</t>
+  </si>
+  <si>
+    <t>I travel a lot and this is the first time I have encountered absolutely no hot water the entire time I was there. Be prepared to take freezing cold showers no matter what time a day you take a bath. The hotel is gorgeous, but I was not pleased with my stay and probably will not return. MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express &amp; Suites Garland E - Lake Hubbard I30, responded to this reviewResponded March 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 23, 2015</t>
+  </si>
+  <si>
+    <t>I travel a lot and this is the first time I have encountered absolutely no hot water the entire time I was there. Be prepared to take freezing cold showers no matter what time a day you take a bath. The hotel is gorgeous, but I was not pleased with my stay and probably will not return. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r258152335-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>258152335</t>
+  </si>
+  <si>
+    <t>03/06/2015</t>
+  </si>
+  <si>
+    <t>Brand new very fun and chic hotel.  Felt like I was staying in a luxury hotel the decor is so fun and modern.</t>
+  </si>
+  <si>
+    <t>Great staff. This hotel is brand new and beautiful!  Modern trendy décor very artsy.  I don't even care for the modern style but it was fun stay ing here.  Free breakfast as usual at all Holiday Inn Express.  Coffee all day. Easy access to interstate and great dining choices nearby.  Would stay again in a heartbeat.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r256010062-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>256010062</t>
+  </si>
+  <si>
+    <t>02/23/2015</t>
+  </si>
+  <si>
+    <t>New Hotel...very nice with a European feel</t>
+  </si>
+  <si>
+    <t>This is a very new hotel right off I-30.  Ultra modern with a European feel.  Staff was very nice and helpful.  The room, although not large, was very comfortable with two queen beds.  The breakfast buffet was very good.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r255417491-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
@@ -1927,9 +2153,6 @@
     <t>We arrived at this hotel on a Thursday and it was beautiful. It is a new hotel that opened in November 2014. The decor is very modern with a gorgeous purple chandelier by the elevators. The lobby is open and spacious. We stayed at this hotel for a school function and had approximately 17 rooms booked. When it came time to take showers that evening, there was no hot water. Not even warm water in some of the rooms.  I called the front desk and Cynthia offered to move us but the room she wanted to move us to did not have 2 beds with a sleeper sofa. We were told to stay in the room we were in and just take showers in the other room which was down the hall. The second room only had marginal semi warm water. At breakfast the next morning, 97% of our group also said they did not have warm/hot water. I went to the front desk the next morning to complain. I was told that the hotel had been experiencing problems with the water situation so they knew about it. I asked about the "Make it right guarantee" and was told by Shannon, "Well, we don't usually do that, but I will pass your complaint on to the General Manager".  I thought what good is a guarantee if you are not going to honor it? I called the main IHG reservation number...We arrived at this hotel on a Thursday and it was beautiful. It is a new hotel that opened in November 2014. The decor is very modern with a gorgeous purple chandelier by the elevators. The lobby is open and spacious. We stayed at this hotel for a school function and had approximately 17 rooms booked. When it came time to take showers that evening, there was no hot water. Not even warm water in some of the rooms.  I called the front desk and Cynthia offered to move us but the room she wanted to move us to did not have 2 beds with a sleeper sofa. We were told to stay in the room we were in and just take showers in the other room which was down the hall. The second room only had marginal semi warm water. At breakfast the next morning, 97% of our group also said they did not have warm/hot water. I went to the front desk the next morning to complain. I was told that the hotel had been experiencing problems with the water situation so they knew about it. I asked about the "Make it right guarantee" and was told by Shannon, "Well, we don't usually do that, but I will pass your complaint on to the General Manager".  I thought what good is a guarantee if you are not going to honor it? I called the main IHG reservation number and asked for a supervisor and lodged a complaint. I was told someone would get back with me in 48 hours. I will update this post when/if I receive a reply back from corporate.More</t>
   </si>
   <si>
-    <t>csbernard</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r250577083-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -1945,12 +2168,6 @@
     <t>This hotel was a real surprise! In the middle of Garland, Texas right next to the Bass Pro Shop is a brand new Holiday Inn. The main colors for the foyer and open area is purple, lemon yellow and gray. In the hall at the elevators is a purple glass blown globed chandelier. Very striking. The room was modern and very comfortable. All the amenities that you expect were there. Fridge, Micro, coffee pot. Great spot. Continental breakfast included.</t>
   </si>
   <si>
-    <t>January 2015</t>
-  </si>
-  <si>
-    <t>Thomas O</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r243890679-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
   </si>
   <si>
@@ -1976,114 +2193,6 @@
   </si>
   <si>
     <t>Stayed here on business recently. New hotel with a lot of decor. The plumbing in my room did not work. No Water!! My travel companion had the same issues. He moved to another room with no cold water. Not sure I want to risk staying again and not having any running water. Breakfast was ok. Photos on website are not of this property.More</t>
-  </si>
-  <si>
-    <t>virgbrown</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r581261102-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
-  </si>
-  <si>
-    <t>581261102</t>
-  </si>
-  <si>
-    <t>05/19/2018</t>
-  </si>
-  <si>
-    <t>Just Out of Dallas</t>
-  </si>
-  <si>
-    <t>After having to fight with the parking system at Galeria Dallas ( we were not the only ones listening for their car alarms), we decided to get out of Dallas before we stopped for the night. The best thing about this Holiday Inn is that it is just a couple of hundred yards from a Bass Pro shop. 'Nuf said.</t>
-  </si>
-  <si>
-    <t>dougstaysalot420</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r536983146-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
-  </si>
-  <si>
-    <t>536983146</t>
-  </si>
-  <si>
-    <t>10/29/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thanks for being better than the other hotels in the area in which I have stayed  in almost all! </t>
-  </si>
-  <si>
-    <t xml:space="preserve">I am a returning customer and always found the staff to be way better than average, especially in today’s so called customer service. I have always had great service with all the staff including housekeeping, but when I deal with one of the few That has checked me Steven always never disappoints, delivering more than exceptional service? He  always goes above and beyond throughout my stays and always more than meets my expectations making sure that my stay is as pleasant as it could possibly be!Thanks soooo much!! Doug G. </t>
-  </si>
-  <si>
-    <t>October 2017</t>
-  </si>
-  <si>
-    <t>Spectrafire E</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r580884053-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
-  </si>
-  <si>
-    <t>580884053</t>
-  </si>
-  <si>
-    <t>05/17/2018</t>
-  </si>
-  <si>
-    <t>Poorly remodel rooms not clean</t>
-  </si>
-  <si>
-    <t>The hotel looks clean and nice until you look close and there is dirt ,dust ,and hair ,paint blistering off the ceiling.My room was ok the beds were nice but was half off the base of the bed and would not move. The bathroom was dirty hair on the floor and pubic hair on the sink and in the sopaholeder. Paint blistering off the bathroom ceiling,the plastic was coming off the tub.The carpet was dirty I don't think and one had cleaned in that room when I asked about getting clean sheets and towels all I got was rude attitude.They changed the bedding and towels. The next day we went down and had breakfast it was fine except the milk they had it had a strange chemical taste and it burned my roof of my mouth and made my child sick.When I brought it to attention of the desk lady her response was no one else complained about it.She said I could file a incident report if i wanted to so I filled it out.She told the manager but they did not want to speak to me about it.I did report it to the FDA because I figured they would not do anything about it.MoreShow less</t>
-  </si>
-  <si>
-    <t>May 2018</t>
-  </si>
-  <si>
-    <t>The hotel looks clean and nice until you look close and there is dirt ,dust ,and hair ,paint blistering off the ceiling.My room was ok the beds were nice but was half off the base of the bed and would not move. The bathroom was dirty hair on the floor and pubic hair on the sink and in the sopaholeder. Paint blistering off the bathroom ceiling,the plastic was coming off the tub.The carpet was dirty I don't think and one had cleaned in that room when I asked about getting clean sheets and towels all I got was rude attitude.They changed the bedding and towels. The next day we went down and had breakfast it was fine except the milk they had it had a strange chemical taste and it burned my roof of my mouth and made my child sick.When I brought it to attention of the desk lady her response was no one else complained about it.She said I could file a incident report if i wanted to so I filled it out.She told the manager but they did not want to speak to me about it.I did report it to the FDA because I figured they would not do anything about it.More</t>
-  </si>
-  <si>
-    <t>I9150XCthomaso</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r533097143-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
-  </si>
-  <si>
-    <t>533097143</t>
-  </si>
-  <si>
-    <t>10/15/2017</t>
-  </si>
-  <si>
-    <t>Saved Our Trip</t>
-  </si>
-  <si>
-    <t>We were at another hotel nearby that was not acceptable. Holiday Inn was fully booked but notified me of an opening. We checked in short notice and got a wonderful room. This hotel is new, comfortable and the service is top notch. They even have a quiet time agreement all guest have to sign!!!  Loved it!  This is my new hotel of choice when visiting the Dallas Rockwall and Mesquite area. I travel almost weekly and I know a great place to stay.</t>
-  </si>
-  <si>
-    <t>Kelly M</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d7176068-r528774336-Holiday_Inn_Express_Suites_Garland_E_Lake_Hubbard_I30-Garland_Texas.html</t>
-  </si>
-  <si>
-    <t>528774336</t>
-  </si>
-  <si>
-    <t>10/01/2017</t>
-  </si>
-  <si>
-    <t>New and Clean</t>
-  </si>
-  <si>
-    <t>For any of you that have read my reviews in the past you know I try to get the details. This review is no exception.
-This was a last minute getaway and I was pleasantly surprised. Let me start with the helpful staff. Everyone was so friendly. There was always someone available to answer questions and help out in any way possible. They are very kind and pleasant. 
-Now onto the room. It was updated, modern, and clean. There was a ton of lighting which I love but rarely see. There's even a light in the middle of  the ceiling and also a soft blue light that comes on under the bathroom counter when the lights go out. It's especially nice for those that have to leave a bathroom light on because they are in an unfamiliar place or have children that need it. There are numerous plugs for everything. There are outlets and USB charging ports. These are on both sides of the bed. Also nightstands are located on both sides. My family uses lots of plugs for charging and there were more than enough. There were even more on the desk area. The air conditioning was nice and cold and you could control it yourself. It was nice and quiet at night but the walls are very thin and you can hear everything in the hallway and most everything in the connecting rooms. For example, muffled voices.
-The...For any of you that have read my reviews in the past you know I try to get the details. This review is no exception.This was a last minute getaway and I was pleasantly surprised. Let me start with the helpful staff. Everyone was so friendly. There was always someone available to answer questions and help out in any way possible. They are very kind and pleasant. Now onto the room. It was updated, modern, and clean. There was a ton of lighting which I love but rarely see. There's even a light in the middle of  the ceiling and also a soft blue light that comes on under the bathroom counter when the lights go out. It's especially nice for those that have to leave a bathroom light on because they are in an unfamiliar place or have children that need it. There are numerous plugs for everything. There are outlets and USB charging ports. These are on both sides of the bed. Also nightstands are located on both sides. My family uses lots of plugs for charging and there were more than enough. There were even more on the desk area. The air conditioning was nice and cold and you could control it yourself. It was nice and quiet at night but the walls are very thin and you can hear everything in the hallway and most everything in the connecting rooms. For example, muffled voices.The bathroom has a large shower with a tall enough shower head to comfortably accommodate a 6 foot man. Probably not someone who was 6'4" . There is no bench seating in the shower. There are more than enough towels and the hotel will give you what you need if you forgot something. For ex, a toothbrush. They include your basic soap, shampoo, conditioner, and lotion. They also included a makeup remover cloth which I appreciated very much. Also a brand I like. LA Fresh. There is also a quiet flushing toilet. Seems like tmi but I know there are those of you that may like that. I had a niece that was afraid of the really loud toilets because they hurt her ears. Enough about that.There's a refrigerator, microwave, and safe along with a coffee maker, iron, hair dryer and the basics. Everything is super modern and has a luxe feel to it. There are some rooms that overlook the lake if you care about that. I don't. There is a really nice pool which I wished I had used but didn't pack a swimsuit. Maybe next time. There will definitely be a next time. Our room (203) overlooked the pool.There is a buffet breakfast included with your stay which I usually eat but did not at this time. I've had them before at other locations and they were fine. There is not a bar at this location but there are places to get any kind of drink you want within walking distance if you do drink. It's a nice area. The Flying saucer has everything you could want from what I've heard ( I'm not a drinker). Also, Primos is the one place I would eat in that area. They have a bar as well.There are plenty of movie theaters in that area no matter which direction you go. There is always something to do.MoreShow less</t>
-  </si>
-  <si>
-    <t>For any of you that have read my reviews in the past you know I try to get the details. This review is no exception.
-This was a last minute getaway and I was pleasantly surprised. Let me start with the helpful staff. Everyone was so friendly. There was always someone available to answer questions and help out in any way possible. They are very kind and pleasant. 
-Now onto the room. It was updated, modern, and clean. There was a ton of lighting which I love but rarely see. There's even a light in the middle of  the ceiling and also a soft blue light that comes on under the bathroom counter when the lights go out. It's especially nice for those that have to leave a bathroom light on because they are in an unfamiliar place or have children that need it. There are numerous plugs for everything. There are outlets and USB charging ports. These are on both sides of the bed. Also nightstands are located on both sides. My family uses lots of plugs for charging and there were more than enough. There were even more on the desk area. The air conditioning was nice and cold and you could control it yourself. It was nice and quiet at night but the walls are very thin and you can hear everything in the hallway and most everything in the connecting rooms. For example, muffled voices.
-The...For any of you that have read my reviews in the past you know I try to get the details. This review is no exception.This was a last minute getaway and I was pleasantly surprised. Let me start with the helpful staff. Everyone was so friendly. There was always someone available to answer questions and help out in any way possible. They are very kind and pleasant. Now onto the room. It was updated, modern, and clean. There was a ton of lighting which I love but rarely see. There's even a light in the middle of  the ceiling and also a soft blue light that comes on under the bathroom counter when the lights go out. It's especially nice for those that have to leave a bathroom light on because they are in an unfamiliar place or have children that need it. There are numerous plugs for everything. There are outlets and USB charging ports. These are on both sides of the bed. Also nightstands are located on both sides. My family uses lots of plugs for charging and there were more than enough. There were even more on the desk area. The air conditioning was nice and cold and you could control it yourself. It was nice and quiet at night but the walls are very thin and you can hear everything in the hallway and most everything in the connecting rooms. For example, muffled voices.The bathroom has a large shower with a tall enough shower head to comfortably accommodate a 6 foot man. Probably not someone who was 6'4" . There is no bench seating in the shower. There are more than enough towels and the hotel will give you what you need if you forgot something. For ex, a toothbrush. They include your basic soap, shampoo, conditioner, and lotion. They also included a makeup remover cloth which I appreciated very much. Also a brand I like. LA Fresh. There is also a quiet flushing toilet. Seems like tmi but I know there are those of you that may like that. I had a niece that was afraid of the really loud toilets because they hurt her ears. Enough about that.There's a refrigerator, microwave, and safe along with a coffee maker, iron, hair dryer and the basics. Everything is super modern and has a luxe feel to it. There are some rooms that overlook the lake if you care about that. I don't. There is a really nice pool which I wished I had used but didn't pack a swimsuit. Maybe next time. There will definitely be a next time. Our room (203) overlooked the pool.There is a buffet breakfast included with your stay which I usually eat but did not at this time. I've had them before at other locations and they were fine. There is not a bar at this location but there are places to get any kind of drink you want within walking distance if you do drink. It's a nice area. The Flying saucer has everything you could want from what I've heard ( I'm not a drinker). Also, Primos is the one place I would eat in that area. They have a bar as well.There are plenty of movie theaters in that area no matter which direction you go. There is always something to do.More</t>
   </si>
 </sst>
 </file>
@@ -2588,47 +2697,43 @@
       <c r="A2" t="n">
         <v>63083</v>
       </c>
-      <c r="B2" t="n">
-        <v>155720</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
-      </c>
-      <c r="L2" t="s">
-        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
         <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2642,111 +2747,113 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>63083</v>
       </c>
-      <c r="B3" t="n">
-        <v>155721</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="J3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L3" t="s">
-        <v>61</v>
-      </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>63083</v>
       </c>
-      <c r="B4" t="n">
-        <v>155722</v>
-      </c>
-      <c r="C4" t="s">
-        <v>62</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
         <v>63</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>64</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
         <v>65</v>
-      </c>
-      <c r="K4" t="s">
-        <v>66</v>
-      </c>
-      <c r="L4" t="s">
-        <v>67</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s">
-        <v>53</v>
-      </c>
-      <c r="O4" t="s">
-        <v>68</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2760,55 +2867,47 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>63083</v>
       </c>
-      <c r="B5" t="n">
-        <v>155723</v>
-      </c>
-      <c r="C5" t="s">
-        <v>69</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
         <v>70</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
-        <v>71</v>
-      </c>
-      <c r="J5" t="s">
-        <v>72</v>
-      </c>
-      <c r="K5" t="s">
-        <v>73</v>
-      </c>
-      <c r="L5" t="s">
-        <v>74</v>
-      </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
-      <c r="N5" t="s">
-        <v>53</v>
-      </c>
-      <c r="O5" t="s">
-        <v>68</v>
-      </c>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
@@ -2821,123 +2920,107 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>63083</v>
       </c>
-      <c r="B6" t="n">
-        <v>155724</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" t="s">
         <v>75</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
-        <v>77</v>
-      </c>
-      <c r="J6" t="s">
-        <v>78</v>
-      </c>
-      <c r="K6" t="s">
-        <v>79</v>
-      </c>
-      <c r="L6" t="s">
-        <v>80</v>
-      </c>
       <c r="M6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" t="s">
         <v>53</v>
       </c>
-      <c r="O6" t="s">
-        <v>68</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2</v>
-      </c>
+      <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>2</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>81</v>
-      </c>
-      <c r="X6" t="s">
-        <v>82</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>63083</v>
       </c>
-      <c r="B7" t="n">
-        <v>155725</v>
-      </c>
-      <c r="C7" t="s">
-        <v>84</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J7" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="K7" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="L7" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O7" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2951,371 +3034,347 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>63083</v>
       </c>
-      <c r="B8" t="n">
-        <v>155726</v>
-      </c>
-      <c r="C8" t="s">
-        <v>90</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="J8" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="K8" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="L8" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
-      </c>
-      <c r="N8" t="s">
-        <v>53</v>
-      </c>
-      <c r="O8" t="s">
-        <v>68</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
-      <c r="R8" t="n">
-        <v>4</v>
-      </c>
+      <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>4</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>63083</v>
       </c>
-      <c r="B9" t="n">
-        <v>155727</v>
-      </c>
-      <c r="C9" t="s">
-        <v>97</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="K9" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="L9" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N9" t="s">
+        <v>92</v>
+      </c>
+      <c r="O9" t="s">
         <v>53</v>
       </c>
-      <c r="O9" t="s">
-        <v>68</v>
-      </c>
-      <c r="P9" t="s"/>
+      <c r="P9" t="n">
+        <v>2</v>
+      </c>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>63083</v>
       </c>
-      <c r="B10" t="n">
-        <v>20954</v>
-      </c>
-      <c r="C10" t="s">
-        <v>103</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="J10" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="K10" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="L10" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="O10" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
-      <c r="R10" t="n">
-        <v>3</v>
-      </c>
+      <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>4</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>63083</v>
       </c>
-      <c r="B11" t="n">
-        <v>155728</v>
-      </c>
-      <c r="C11" t="s">
-        <v>110</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="J11" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="K11" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="L11" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="O11" t="s">
-        <v>117</v>
+        <v>53</v>
       </c>
       <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s">
-        <v>118</v>
-      </c>
-      <c r="X11" t="s">
-        <v>119</v>
-      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>63083</v>
       </c>
-      <c r="B12" t="n">
-        <v>155729</v>
-      </c>
-      <c r="C12" t="s">
-        <v>121</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="J12" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="K12" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="L12" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="O12" t="s">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>63083</v>
       </c>
-      <c r="B13" t="n">
-        <v>155730</v>
-      </c>
-      <c r="C13" t="s">
-        <v>127</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="J13" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="K13" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="L13" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
         <v>116</v>
       </c>
       <c r="O13" t="s">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3329,55 +3388,47 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>63083</v>
       </c>
-      <c r="B14" t="n">
-        <v>43679</v>
-      </c>
-      <c r="C14" t="s">
-        <v>133</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="J14" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="K14" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="L14" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
-      <c r="N14" t="s">
-        <v>109</v>
-      </c>
-      <c r="O14" t="s">
-        <v>68</v>
-      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
@@ -3390,121 +3441,107 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>63083</v>
       </c>
-      <c r="B15" t="n">
-        <v>8291</v>
-      </c>
-      <c r="C15" t="s">
-        <v>140</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="J15" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="K15" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="L15" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="O15" t="s">
-        <v>117</v>
-      </c>
-      <c r="P15" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
-      <c r="S15" t="n">
-        <v>3</v>
-      </c>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>5</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>63083</v>
       </c>
-      <c r="B16" t="n">
-        <v>155731</v>
-      </c>
-      <c r="C16" t="s">
-        <v>147</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="J16" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="K16" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="L16" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="O16" t="s">
-        <v>117</v>
+        <v>53</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3518,316 +3555,300 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>63083</v>
       </c>
-      <c r="B17" t="n">
-        <v>7095</v>
-      </c>
-      <c r="C17" t="s">
-        <v>153</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="J17" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="K17" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="L17" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
-      </c>
-      <c r="N17" t="s"/>
-      <c r="O17" t="s"/>
-      <c r="P17" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>116</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
       <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>2</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="W17" t="s">
+        <v>138</v>
+      </c>
+      <c r="X17" t="s">
+        <v>139</v>
+      </c>
       <c r="Y17" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>63083</v>
       </c>
-      <c r="B18" t="n">
-        <v>303</v>
-      </c>
-      <c r="C18" t="s">
-        <v>159</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="J18" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="K18" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="L18" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="O18" t="s">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
-      <c r="R18" t="n">
-        <v>5</v>
-      </c>
+      <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>5</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>63083</v>
       </c>
-      <c r="B19" t="n">
-        <v>71476</v>
-      </c>
-      <c r="C19" t="s">
-        <v>164</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="J19" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="K19" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="L19" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="O19" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
-      <c r="R19" t="s"/>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>63083</v>
       </c>
-      <c r="B20" t="n">
-        <v>10441</v>
-      </c>
-      <c r="C20" t="s">
-        <v>171</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="J20" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="K20" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="L20" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>177</v>
+        <v>116</v>
       </c>
       <c r="O20" t="s">
-        <v>117</v>
+        <v>53</v>
       </c>
       <c r="P20" t="s"/>
-      <c r="Q20" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>63083</v>
       </c>
-      <c r="B21" t="n">
-        <v>155732</v>
-      </c>
-      <c r="C21" t="s">
-        <v>178</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="J21" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="K21" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="L21" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="O21" t="s">
-        <v>117</v>
+        <v>53</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
       <c r="R21" t="n">
-        <v>5</v>
-      </c>
-      <c r="S21" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -3835,54 +3856,50 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>63083</v>
       </c>
-      <c r="B22" t="n">
-        <v>155733</v>
-      </c>
-      <c r="C22" t="s">
-        <v>184</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="J22" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="K22" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="L22" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="O22" t="s">
-        <v>68</v>
+        <v>169</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3893,128 +3910,114 @@
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
+      <c r="W22" t="s">
+        <v>170</v>
+      </c>
+      <c r="X22" t="s">
+        <v>171</v>
+      </c>
       <c r="Y22" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>63083</v>
       </c>
-      <c r="B23" t="n">
-        <v>35575</v>
-      </c>
-      <c r="C23" t="s">
-        <v>190</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="J23" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="K23" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="L23" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="O23" t="s">
-        <v>68</v>
+        <v>169</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
-      <c r="R23" t="n">
-        <v>5</v>
-      </c>
-      <c r="S23" t="n">
-        <v>5</v>
-      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>5</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s">
-        <v>197</v>
-      </c>
-      <c r="X23" t="s">
-        <v>198</v>
-      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>63083</v>
       </c>
-      <c r="B24" t="n">
-        <v>155734</v>
-      </c>
-      <c r="C24" t="s">
-        <v>200</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="J24" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="K24" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="L24" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="O24" t="s">
-        <v>68</v>
+        <v>169</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -4028,43 +4031,51 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>63083</v>
       </c>
-      <c r="B25" t="n">
-        <v>155735</v>
-      </c>
-      <c r="C25" t="s">
-        <v>206</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>208</v>
-      </c>
-      <c r="J25" t="s"/>
-      <c r="K25" t="s"/>
-      <c r="L25" t="s"/>
-      <c r="M25" t="s"/>
-      <c r="N25" t="s"/>
-      <c r="O25" t="s"/>
+        <v>184</v>
+      </c>
+      <c r="J25" t="s">
+        <v>185</v>
+      </c>
+      <c r="K25" t="s">
+        <v>186</v>
+      </c>
+      <c r="L25" t="s">
+        <v>187</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>162</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
       <c r="R25" t="s"/>
@@ -4074,515 +4085,470 @@
       <c r="V25" t="n">
         <v>0</v>
       </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>63083</v>
       </c>
-      <c r="B26" t="n">
-        <v>155736</v>
-      </c>
-      <c r="C26" t="s">
-        <v>209</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="J26" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="K26" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="L26" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
-      <c r="N26" t="s"/>
-      <c r="O26" t="s"/>
-      <c r="P26" t="s"/>
+      <c r="N26" t="s">
+        <v>162</v>
+      </c>
+      <c r="O26" t="s">
+        <v>169</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
       <c r="Q26" t="s"/>
       <c r="R26" t="s"/>
-      <c r="S26" t="s"/>
+      <c r="S26" t="n">
+        <v>3</v>
+      </c>
       <c r="T26" t="s"/>
-      <c r="U26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s">
-        <v>215</v>
-      </c>
-      <c r="X26" t="s">
-        <v>216</v>
-      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>63083</v>
       </c>
-      <c r="B27" t="n">
-        <v>155737</v>
-      </c>
-      <c r="C27" t="s">
-        <v>218</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="J27" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="K27" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="L27" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="M27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="O27" t="s">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="P27" t="s"/>
-      <c r="Q27" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q27" t="s"/>
       <c r="R27" t="s"/>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>5</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s">
-        <v>225</v>
-      </c>
-      <c r="X27" t="s">
-        <v>226</v>
-      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>63083</v>
       </c>
-      <c r="B28" t="n">
-        <v>34970</v>
-      </c>
-      <c r="C28" t="s">
-        <v>228</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="J28" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="K28" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="L28" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
-      </c>
-      <c r="N28" t="s">
-        <v>234</v>
-      </c>
-      <c r="O28" t="s">
-        <v>54</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
-      <c r="R28" t="n">
-        <v>5</v>
-      </c>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>5</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s">
-        <v>235</v>
-      </c>
-      <c r="X28" t="s">
-        <v>236</v>
-      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>237</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>63083</v>
       </c>
-      <c r="B29" t="n">
-        <v>155738</v>
-      </c>
-      <c r="C29" t="s">
-        <v>238</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="J29" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="K29" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="L29" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
-      <c r="N29" t="s"/>
-      <c r="O29" t="s"/>
+      <c r="N29" t="s">
+        <v>162</v>
+      </c>
+      <c r="O29" t="s">
+        <v>169</v>
+      </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
-      <c r="R29" t="s"/>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s">
-        <v>244</v>
-      </c>
-      <c r="X29" t="s">
-        <v>245</v>
-      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>63083</v>
       </c>
-      <c r="B30" t="n">
-        <v>155739</v>
-      </c>
-      <c r="C30" t="s">
-        <v>247</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
       <c r="J30" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="K30" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="L30" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
       <c r="O30" t="s">
-        <v>68</v>
-      </c>
-      <c r="P30" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
       <c r="R30" t="s"/>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>5</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s">
-        <v>254</v>
-      </c>
-      <c r="X30" t="s">
-        <v>255</v>
-      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>256</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>63083</v>
       </c>
-      <c r="B31" t="n">
-        <v>155740</v>
-      </c>
-      <c r="C31" t="s">
-        <v>257</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>258</v>
+        <v>215</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>259</v>
+        <v>216</v>
       </c>
       <c r="J31" t="s">
-        <v>260</v>
+        <v>217</v>
       </c>
       <c r="K31" t="s">
-        <v>261</v>
+        <v>218</v>
       </c>
       <c r="L31" t="s">
-        <v>262</v>
+        <v>219</v>
       </c>
       <c r="M31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="O31" t="s">
-        <v>54</v>
+        <v>169</v>
       </c>
       <c r="P31" t="s"/>
-      <c r="Q31" t="s"/>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
       <c r="R31" t="s"/>
-      <c r="S31" t="s"/>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
       <c r="T31" t="s"/>
-      <c r="U31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s">
-        <v>263</v>
-      </c>
-      <c r="X31" t="s">
-        <v>264</v>
-      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>265</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>63083</v>
       </c>
-      <c r="B32" t="n">
-        <v>155741</v>
-      </c>
-      <c r="C32" t="s">
-        <v>266</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="J32" t="s">
-        <v>269</v>
+        <v>223</v>
       </c>
       <c r="K32" t="s">
-        <v>270</v>
+        <v>224</v>
       </c>
       <c r="L32" t="s">
-        <v>271</v>
+        <v>225</v>
       </c>
       <c r="M32" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="O32" t="s">
-        <v>54</v>
+        <v>169</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
-      <c r="R32" t="s"/>
-      <c r="S32" t="s"/>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
       <c r="T32" t="s"/>
-      <c r="U32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s">
-        <v>254</v>
-      </c>
-      <c r="X32" t="s">
-        <v>255</v>
-      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>272</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>63083</v>
       </c>
-      <c r="B33" t="n">
-        <v>155742</v>
-      </c>
-      <c r="C33" t="s">
-        <v>273</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>274</v>
+        <v>226</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>275</v>
+        <v>227</v>
       </c>
       <c r="J33" t="s">
-        <v>276</v>
+        <v>228</v>
       </c>
       <c r="K33" t="s">
-        <v>277</v>
+        <v>229</v>
       </c>
       <c r="L33" t="s">
-        <v>278</v>
+        <v>230</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>279</v>
+        <v>220</v>
       </c>
       <c r="O33" t="s">
-        <v>280</v>
+        <v>53</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4593,667 +4559,621 @@
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s">
-        <v>281</v>
-      </c>
-      <c r="X33" t="s">
-        <v>282</v>
-      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>283</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>63083</v>
       </c>
-      <c r="B34" t="n">
-        <v>155743</v>
-      </c>
-      <c r="C34" t="s">
-        <v>284</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>285</v>
+        <v>231</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>286</v>
+        <v>232</v>
       </c>
       <c r="J34" t="s">
-        <v>287</v>
+        <v>233</v>
       </c>
       <c r="K34" t="s">
-        <v>288</v>
+        <v>234</v>
       </c>
       <c r="L34" t="s">
-        <v>289</v>
+        <v>235</v>
       </c>
       <c r="M34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>279</v>
+        <v>236</v>
       </c>
       <c r="O34" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
-      <c r="R34" t="s"/>
-      <c r="S34" t="s"/>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
       <c r="T34" t="s"/>
-      <c r="U34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>290</v>
+        <v>237</v>
       </c>
       <c r="X34" t="s">
-        <v>291</v>
+        <v>238</v>
       </c>
       <c r="Y34" t="s">
-        <v>292</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>63083</v>
       </c>
-      <c r="B35" t="n">
-        <v>16846</v>
-      </c>
-      <c r="C35" t="s">
-        <v>293</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>295</v>
+        <v>241</v>
       </c>
       <c r="J35" t="s">
-        <v>296</v>
+        <v>242</v>
       </c>
       <c r="K35" t="s">
-        <v>297</v>
+        <v>243</v>
       </c>
       <c r="L35" t="s">
-        <v>298</v>
+        <v>244</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>299</v>
+        <v>236</v>
       </c>
       <c r="O35" t="s">
-        <v>117</v>
+        <v>53</v>
       </c>
       <c r="P35" t="s"/>
-      <c r="Q35" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q35" t="s"/>
       <c r="R35" t="s"/>
       <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>3</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>300</v>
+        <v>244</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>63083</v>
       </c>
-      <c r="B36" t="n">
-        <v>21874</v>
-      </c>
-      <c r="C36" t="s">
-        <v>301</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>302</v>
+        <v>245</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>303</v>
+        <v>246</v>
       </c>
       <c r="J36" t="s">
-        <v>304</v>
+        <v>247</v>
       </c>
       <c r="K36" t="s">
-        <v>305</v>
+        <v>248</v>
       </c>
       <c r="L36" t="s">
-        <v>306</v>
+        <v>249</v>
       </c>
       <c r="M36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>279</v>
+        <v>236</v>
       </c>
       <c r="O36" t="s">
-        <v>307</v>
+        <v>169</v>
       </c>
       <c r="P36" t="s"/>
-      <c r="Q36" t="n">
-        <v>4</v>
-      </c>
-      <c r="R36" t="s"/>
-      <c r="S36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>308</v>
+        <v>250</v>
       </c>
       <c r="X36" t="s">
-        <v>309</v>
+        <v>251</v>
       </c>
       <c r="Y36" t="s">
-        <v>310</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>63083</v>
       </c>
-      <c r="B37" t="n">
-        <v>155744</v>
-      </c>
-      <c r="C37" t="s">
-        <v>311</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>312</v>
+        <v>253</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>313</v>
+        <v>254</v>
       </c>
       <c r="J37" t="s">
-        <v>314</v>
+        <v>255</v>
       </c>
       <c r="K37" t="s">
-        <v>315</v>
+        <v>256</v>
       </c>
       <c r="L37" t="s">
-        <v>316</v>
+        <v>257</v>
       </c>
       <c r="M37" t="n">
-        <v>2</v>
-      </c>
-      <c r="N37" t="s">
-        <v>279</v>
-      </c>
-      <c r="O37" t="s">
-        <v>68</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
-      <c r="R37" t="n">
-        <v>3</v>
-      </c>
-      <c r="S37" t="n">
-        <v>3</v>
-      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>2</v>
-      </c>
+      <c r="U37" t="s"/>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>317</v>
+        <v>258</v>
       </c>
       <c r="X37" t="s">
-        <v>318</v>
+        <v>259</v>
       </c>
       <c r="Y37" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>63083</v>
       </c>
-      <c r="B38" t="n">
-        <v>155745</v>
-      </c>
-      <c r="C38" t="s">
-        <v>320</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>321</v>
+        <v>261</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>322</v>
+        <v>262</v>
       </c>
       <c r="J38" t="s">
-        <v>323</v>
+        <v>263</v>
       </c>
       <c r="K38" t="s">
-        <v>324</v>
+        <v>264</v>
       </c>
       <c r="L38" t="s">
-        <v>325</v>
+        <v>265</v>
       </c>
       <c r="M38" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="O38" t="s">
-        <v>68</v>
+        <v>169</v>
       </c>
       <c r="P38" t="s"/>
-      <c r="Q38" t="s"/>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
       <c r="R38" t="s"/>
       <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>326</v>
+        <v>267</v>
       </c>
       <c r="X38" t="s">
-        <v>327</v>
+        <v>268</v>
       </c>
       <c r="Y38" t="s">
-        <v>328</v>
+        <v>269</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>63083</v>
       </c>
-      <c r="B39" t="n">
-        <v>824</v>
-      </c>
-      <c r="C39" t="s">
-        <v>329</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>330</v>
+        <v>270</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>331</v>
+        <v>271</v>
       </c>
       <c r="J39" t="s">
-        <v>332</v>
+        <v>272</v>
       </c>
       <c r="K39" t="s">
-        <v>333</v>
+        <v>273</v>
       </c>
       <c r="L39" t="s">
-        <v>334</v>
+        <v>274</v>
       </c>
       <c r="M39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="O39" t="s">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
-      <c r="R39" t="s"/>
-      <c r="S39" t="s"/>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
       <c r="T39" t="s"/>
-      <c r="U39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>335</v>
+        <v>276</v>
       </c>
       <c r="X39" t="s">
-        <v>336</v>
+        <v>277</v>
       </c>
       <c r="Y39" t="s">
-        <v>337</v>
+        <v>278</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>63083</v>
       </c>
-      <c r="B40" t="n">
-        <v>155746</v>
-      </c>
-      <c r="C40" t="s">
-        <v>338</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>339</v>
+        <v>279</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>340</v>
+        <v>280</v>
       </c>
       <c r="J40" t="s">
-        <v>341</v>
+        <v>281</v>
       </c>
       <c r="K40" t="s">
-        <v>342</v>
+        <v>282</v>
       </c>
       <c r="L40" t="s">
-        <v>343</v>
+        <v>283</v>
       </c>
       <c r="M40" t="n">
-        <v>4</v>
-      </c>
-      <c r="N40" t="s">
-        <v>344</v>
-      </c>
-      <c r="O40" t="s">
-        <v>68</v>
-      </c>
-      <c r="P40" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
-      <c r="R40" t="n">
-        <v>4</v>
-      </c>
+      <c r="R40" t="s"/>
       <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>4</v>
-      </c>
+      <c r="U40" t="s"/>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>345</v>
+        <v>284</v>
       </c>
       <c r="X40" t="s">
-        <v>346</v>
+        <v>285</v>
       </c>
       <c r="Y40" t="s">
-        <v>347</v>
+        <v>286</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>63083</v>
       </c>
-      <c r="B41" t="n">
-        <v>155747</v>
-      </c>
-      <c r="C41" t="s">
-        <v>348</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>349</v>
+        <v>287</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>350</v>
+        <v>288</v>
       </c>
       <c r="J41" t="s">
-        <v>351</v>
+        <v>289</v>
       </c>
       <c r="K41" t="s">
-        <v>352</v>
+        <v>290</v>
       </c>
       <c r="L41" t="s">
-        <v>353</v>
+        <v>291</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
-      <c r="N41" t="s"/>
-      <c r="O41" t="s"/>
-      <c r="P41" t="s"/>
-      <c r="Q41" t="s"/>
+      <c r="N41" t="s">
+        <v>292</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
       <c r="R41" t="s"/>
       <c r="S41" t="s"/>
       <c r="T41" t="s"/>
-      <c r="U41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>354</v>
+        <v>293</v>
       </c>
       <c r="X41" t="s">
-        <v>355</v>
+        <v>294</v>
       </c>
       <c r="Y41" t="s">
-        <v>356</v>
+        <v>295</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>63083</v>
       </c>
-      <c r="B42" t="n">
-        <v>39943</v>
-      </c>
-      <c r="C42" t="s">
-        <v>357</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>358</v>
+        <v>296</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>359</v>
+        <v>297</v>
       </c>
       <c r="J42" t="s">
-        <v>360</v>
+        <v>298</v>
       </c>
       <c r="K42" t="s">
-        <v>361</v>
+        <v>299</v>
       </c>
       <c r="L42" t="s">
-        <v>362</v>
+        <v>300</v>
       </c>
       <c r="M42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>363</v>
+        <v>292</v>
       </c>
       <c r="O42" t="s">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
       <c r="R42" t="s"/>
-      <c r="S42" t="n">
-        <v>5</v>
-      </c>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="n">
-        <v>5</v>
-      </c>
+      <c r="U42" t="s"/>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>364</v>
+        <v>301</v>
       </c>
       <c r="X42" t="s">
-        <v>365</v>
+        <v>302</v>
       </c>
       <c r="Y42" t="s">
-        <v>366</v>
+        <v>303</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>63083</v>
       </c>
-      <c r="B43" t="n">
-        <v>155748</v>
-      </c>
-      <c r="C43" t="s">
-        <v>367</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>368</v>
+        <v>304</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>369</v>
+        <v>305</v>
       </c>
       <c r="J43" t="s">
-        <v>370</v>
+        <v>306</v>
       </c>
       <c r="K43" t="s">
-        <v>371</v>
+        <v>307</v>
       </c>
       <c r="L43" t="s">
-        <v>372</v>
+        <v>308</v>
       </c>
       <c r="M43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>373</v>
+        <v>292</v>
       </c>
       <c r="O43" t="s">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="P43" t="s"/>
-      <c r="Q43" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q43" t="s"/>
       <c r="R43" t="s"/>
       <c r="S43" t="s"/>
       <c r="T43" t="s"/>
@@ -5262,60 +5182,56 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>374</v>
+        <v>293</v>
       </c>
       <c r="X43" t="s">
-        <v>375</v>
+        <v>294</v>
       </c>
       <c r="Y43" t="s">
-        <v>376</v>
+        <v>309</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>63083</v>
       </c>
-      <c r="B44" t="n">
-        <v>155749</v>
-      </c>
-      <c r="C44" t="s">
-        <v>377</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>378</v>
+        <v>310</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>379</v>
+        <v>311</v>
       </c>
       <c r="J44" t="s">
-        <v>370</v>
+        <v>312</v>
       </c>
       <c r="K44" t="s">
-        <v>380</v>
+        <v>313</v>
       </c>
       <c r="L44" t="s">
-        <v>381</v>
+        <v>314</v>
       </c>
       <c r="M44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>373</v>
+        <v>315</v>
       </c>
       <c r="O44" t="s">
-        <v>117</v>
+        <v>316</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -5327,403 +5243,371 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>374</v>
+        <v>317</v>
       </c>
       <c r="X44" t="s">
-        <v>375</v>
+        <v>318</v>
       </c>
       <c r="Y44" t="s">
-        <v>382</v>
+        <v>319</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>63083</v>
       </c>
-      <c r="B45" t="n">
-        <v>155750</v>
-      </c>
-      <c r="C45" t="s">
-        <v>383</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>384</v>
+        <v>320</v>
       </c>
       <c r="G45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>385</v>
+        <v>321</v>
       </c>
       <c r="J45" t="s">
-        <v>386</v>
+        <v>322</v>
       </c>
       <c r="K45" t="s">
-        <v>387</v>
+        <v>323</v>
       </c>
       <c r="L45" t="s">
-        <v>388</v>
+        <v>324</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>389</v>
+        <v>315</v>
       </c>
       <c r="O45" t="s">
-        <v>117</v>
+        <v>53</v>
       </c>
       <c r="P45" t="s"/>
-      <c r="Q45" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q45" t="s"/>
       <c r="R45" t="s"/>
-      <c r="S45" t="n">
-        <v>5</v>
-      </c>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
-      <c r="U45" t="n">
-        <v>5</v>
-      </c>
+      <c r="U45" t="s"/>
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
+      <c r="W45" t="s">
+        <v>325</v>
+      </c>
+      <c r="X45" t="s">
+        <v>326</v>
+      </c>
       <c r="Y45" t="s">
-        <v>390</v>
+        <v>327</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>63083</v>
       </c>
-      <c r="B46" t="n">
-        <v>155751</v>
-      </c>
-      <c r="C46" t="s">
-        <v>391</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>392</v>
+        <v>328</v>
       </c>
       <c r="G46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>393</v>
+        <v>329</v>
       </c>
       <c r="J46" t="s">
-        <v>394</v>
+        <v>330</v>
       </c>
       <c r="K46" t="s">
-        <v>395</v>
+        <v>331</v>
       </c>
       <c r="L46" t="s">
-        <v>396</v>
+        <v>332</v>
       </c>
       <c r="M46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>389</v>
+        <v>333</v>
       </c>
       <c r="O46" t="s">
-        <v>68</v>
+        <v>169</v>
       </c>
       <c r="P46" t="s"/>
-      <c r="Q46" t="s"/>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
       <c r="R46" t="s"/>
       <c r="S46" t="s"/>
       <c r="T46" t="s"/>
-      <c r="U46" t="s"/>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s">
-        <v>397</v>
-      </c>
-      <c r="X46" t="s">
-        <v>398</v>
-      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>399</v>
+        <v>334</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>63083</v>
       </c>
-      <c r="B47" t="n">
-        <v>2553</v>
-      </c>
-      <c r="C47" t="s">
-        <v>400</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>401</v>
+        <v>335</v>
       </c>
       <c r="G47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>402</v>
+        <v>336</v>
       </c>
       <c r="J47" t="s">
-        <v>403</v>
+        <v>337</v>
       </c>
       <c r="K47" t="s">
-        <v>404</v>
+        <v>338</v>
       </c>
       <c r="L47" t="s">
-        <v>405</v>
+        <v>339</v>
       </c>
       <c r="M47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>406</v>
+        <v>315</v>
       </c>
       <c r="O47" t="s">
-        <v>307</v>
-      </c>
-      <c r="P47" t="n">
+        <v>340</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="n">
         <v>4</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>5</v>
       </c>
       <c r="R47" t="s"/>
       <c r="S47" t="s"/>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>407</v>
+        <v>341</v>
       </c>
       <c r="X47" t="s">
-        <v>408</v>
+        <v>342</v>
       </c>
       <c r="Y47" t="s">
-        <v>409</v>
+        <v>343</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>63083</v>
       </c>
-      <c r="B48" t="n">
-        <v>155752</v>
-      </c>
-      <c r="C48" t="s">
-        <v>410</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>411</v>
+        <v>344</v>
       </c>
       <c r="G48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>412</v>
+        <v>345</v>
       </c>
       <c r="J48" t="s">
-        <v>413</v>
+        <v>346</v>
       </c>
       <c r="K48" t="s">
-        <v>414</v>
+        <v>347</v>
       </c>
       <c r="L48" t="s">
-        <v>415</v>
+        <v>348</v>
       </c>
       <c r="M48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N48" t="s">
-        <v>416</v>
+        <v>315</v>
       </c>
       <c r="O48" t="s">
-        <v>117</v>
-      </c>
-      <c r="P48" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
-      <c r="R48" t="s"/>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
       <c r="S48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>407</v>
+        <v>349</v>
       </c>
       <c r="X48" t="s">
-        <v>408</v>
+        <v>350</v>
       </c>
       <c r="Y48" t="s">
-        <v>417</v>
+        <v>351</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>63083</v>
       </c>
-      <c r="B49" t="n">
-        <v>155753</v>
-      </c>
-      <c r="C49" t="s">
-        <v>418</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>419</v>
+        <v>352</v>
       </c>
       <c r="G49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>420</v>
+        <v>353</v>
       </c>
       <c r="J49" t="s">
-        <v>421</v>
+        <v>354</v>
       </c>
       <c r="K49" t="s">
-        <v>422</v>
+        <v>355</v>
       </c>
       <c r="L49" t="s">
-        <v>423</v>
+        <v>356</v>
       </c>
       <c r="M49" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N49" t="s">
-        <v>406</v>
+        <v>333</v>
       </c>
       <c r="O49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
-      <c r="R49" t="n">
-        <v>5</v>
-      </c>
-      <c r="S49" t="n">
-        <v>5</v>
-      </c>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
       <c r="T49" t="s"/>
       <c r="U49" t="s"/>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>424</v>
+        <v>357</v>
       </c>
       <c r="X49" t="s">
-        <v>408</v>
+        <v>358</v>
       </c>
       <c r="Y49" t="s">
-        <v>425</v>
+        <v>359</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>63083</v>
       </c>
-      <c r="B50" t="n">
-        <v>155754</v>
-      </c>
-      <c r="C50" t="s">
-        <v>426</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>427</v>
+        <v>360</v>
       </c>
       <c r="G50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>428</v>
+        <v>361</v>
       </c>
       <c r="J50" t="s">
-        <v>421</v>
+        <v>362</v>
       </c>
       <c r="K50" t="s">
-        <v>429</v>
+        <v>363</v>
       </c>
       <c r="L50" t="s">
-        <v>430</v>
+        <v>364</v>
       </c>
       <c r="M50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>406</v>
+        <v>333</v>
       </c>
       <c r="O50" t="s">
-        <v>54</v>
+        <v>169</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -5735,69 +5619,65 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>431</v>
+        <v>365</v>
       </c>
       <c r="X50" t="s">
-        <v>432</v>
+        <v>366</v>
       </c>
       <c r="Y50" t="s">
-        <v>433</v>
+        <v>367</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>63083</v>
       </c>
-      <c r="B51" t="n">
-        <v>155755</v>
-      </c>
-      <c r="C51" t="s">
-        <v>434</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>435</v>
+        <v>368</v>
       </c>
       <c r="G51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>436</v>
+        <v>369</v>
       </c>
       <c r="J51" t="s">
-        <v>437</v>
+        <v>370</v>
       </c>
       <c r="K51" t="s">
-        <v>438</v>
+        <v>371</v>
       </c>
       <c r="L51" t="s">
-        <v>439</v>
+        <v>372</v>
       </c>
       <c r="M51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>416</v>
+        <v>373</v>
       </c>
       <c r="O51" t="s">
-        <v>280</v>
-      </c>
-      <c r="P51" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
       <c r="Q51" t="s"/>
       <c r="R51" t="n">
-        <v>5</v>
-      </c>
-      <c r="S51" t="n">
         <v>4</v>
       </c>
+      <c r="S51" t="s"/>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
         <v>4</v>
@@ -5806,61 +5686,53 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>440</v>
+        <v>374</v>
       </c>
       <c r="X51" t="s">
-        <v>441</v>
+        <v>375</v>
       </c>
       <c r="Y51" t="s">
-        <v>442</v>
+        <v>376</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>63083</v>
       </c>
-      <c r="B52" t="n">
-        <v>155756</v>
-      </c>
-      <c r="C52" t="s">
-        <v>443</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>444</v>
+        <v>377</v>
       </c>
       <c r="G52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>445</v>
+        <v>378</v>
       </c>
       <c r="J52" t="s">
-        <v>446</v>
+        <v>379</v>
       </c>
       <c r="K52" t="s">
-        <v>447</v>
+        <v>380</v>
       </c>
       <c r="L52" t="s">
-        <v>448</v>
+        <v>381</v>
       </c>
       <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="s">
-        <v>416</v>
-      </c>
-      <c r="O52" t="s">
-        <v>54</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
       <c r="R52" t="s"/>
@@ -5871,526 +5743,494 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>449</v>
+        <v>382</v>
       </c>
       <c r="X52" t="s">
-        <v>450</v>
+        <v>383</v>
       </c>
       <c r="Y52" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>63083</v>
       </c>
-      <c r="B53" t="n">
-        <v>155757</v>
-      </c>
-      <c r="C53" t="s">
-        <v>452</v>
-      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>453</v>
+        <v>385</v>
       </c>
       <c r="G53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>454</v>
+        <v>386</v>
       </c>
       <c r="J53" t="s">
-        <v>455</v>
+        <v>387</v>
       </c>
       <c r="K53" t="s">
-        <v>456</v>
+        <v>388</v>
       </c>
       <c r="L53" t="s">
-        <v>457</v>
+        <v>389</v>
       </c>
       <c r="M53" t="n">
-        <v>4</v>
-      </c>
-      <c r="N53" t="s">
-        <v>458</v>
-      </c>
-      <c r="O53" t="s">
-        <v>54</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
       <c r="P53" t="s"/>
-      <c r="Q53" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q53" t="s"/>
       <c r="R53" t="s"/>
       <c r="S53" t="s"/>
       <c r="T53" t="s"/>
-      <c r="U53" t="n">
-        <v>4</v>
-      </c>
+      <c r="U53" t="s"/>
       <c r="V53" t="n">
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>459</v>
+        <v>390</v>
       </c>
       <c r="X53" t="s">
-        <v>460</v>
+        <v>391</v>
       </c>
       <c r="Y53" t="s">
-        <v>461</v>
+        <v>392</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>63083</v>
       </c>
-      <c r="B54" t="n">
-        <v>155758</v>
-      </c>
-      <c r="C54" t="s">
-        <v>462</v>
-      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>463</v>
+        <v>393</v>
       </c>
       <c r="G54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>464</v>
+        <v>394</v>
       </c>
       <c r="J54" t="s">
-        <v>465</v>
+        <v>395</v>
       </c>
       <c r="K54" t="s">
-        <v>466</v>
+        <v>396</v>
       </c>
       <c r="L54" t="s">
-        <v>467</v>
+        <v>397</v>
       </c>
       <c r="M54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>458</v>
+        <v>398</v>
       </c>
       <c r="O54" t="s">
-        <v>54</v>
+        <v>316</v>
       </c>
       <c r="P54" t="s"/>
-      <c r="Q54" t="s"/>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
       <c r="R54" t="s"/>
       <c r="S54" t="s"/>
       <c r="T54" t="s"/>
-      <c r="U54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>468</v>
+        <v>399</v>
       </c>
       <c r="X54" t="s">
-        <v>469</v>
+        <v>400</v>
       </c>
       <c r="Y54" t="s">
-        <v>470</v>
+        <v>401</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>63083</v>
       </c>
-      <c r="B55" t="n">
-        <v>108740</v>
-      </c>
-      <c r="C55" t="s">
-        <v>471</v>
-      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>472</v>
+        <v>402</v>
       </c>
       <c r="G55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>473</v>
+        <v>403</v>
       </c>
       <c r="J55" t="s">
-        <v>474</v>
+        <v>404</v>
       </c>
       <c r="K55" t="s">
-        <v>475</v>
+        <v>405</v>
       </c>
       <c r="L55" t="s">
-        <v>476</v>
+        <v>406</v>
       </c>
       <c r="M55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>458</v>
+        <v>398</v>
       </c>
       <c r="O55" t="s">
-        <v>280</v>
-      </c>
-      <c r="P55" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
       <c r="R55" t="s"/>
       <c r="S55" t="s"/>
       <c r="T55" t="s"/>
-      <c r="U55" t="n">
-        <v>5</v>
-      </c>
+      <c r="U55" t="s"/>
       <c r="V55" t="n">
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>477</v>
+        <v>407</v>
       </c>
       <c r="X55" t="s">
-        <v>478</v>
+        <v>408</v>
       </c>
       <c r="Y55" t="s">
-        <v>479</v>
+        <v>409</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>63083</v>
       </c>
-      <c r="B56" t="n">
-        <v>90319</v>
-      </c>
-      <c r="C56" t="s">
-        <v>480</v>
-      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>481</v>
+        <v>410</v>
       </c>
       <c r="G56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>482</v>
+        <v>411</v>
       </c>
       <c r="J56" t="s">
-        <v>483</v>
+        <v>412</v>
       </c>
       <c r="K56" t="s">
-        <v>484</v>
+        <v>413</v>
       </c>
       <c r="L56" t="s">
-        <v>485</v>
+        <v>414</v>
       </c>
       <c r="M56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>486</v>
+        <v>415</v>
       </c>
       <c r="O56" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
-      <c r="R56" t="s"/>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
       <c r="S56" t="s"/>
       <c r="T56" t="s"/>
-      <c r="U56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
       <c r="V56" t="n">
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>487</v>
+        <v>416</v>
       </c>
       <c r="X56" t="s">
-        <v>488</v>
+        <v>417</v>
       </c>
       <c r="Y56" t="s">
-        <v>489</v>
+        <v>418</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>63083</v>
       </c>
-      <c r="B57" t="n">
-        <v>155759</v>
-      </c>
-      <c r="C57" t="s">
-        <v>490</v>
-      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>491</v>
+        <v>419</v>
       </c>
       <c r="G57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>492</v>
+        <v>420</v>
       </c>
       <c r="J57" t="s">
-        <v>493</v>
+        <v>421</v>
       </c>
       <c r="K57" t="s">
-        <v>494</v>
+        <v>422</v>
       </c>
       <c r="L57" t="s">
-        <v>495</v>
+        <v>423</v>
       </c>
       <c r="M57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>486</v>
+        <v>424</v>
       </c>
       <c r="O57" t="s">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="s"/>
-      <c r="R57" t="s"/>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
       <c r="S57" t="s"/>
       <c r="T57" t="s"/>
-      <c r="U57" t="s"/>
+      <c r="U57" t="n">
+        <v>3</v>
+      </c>
       <c r="V57" t="n">
         <v>0</v>
       </c>
-      <c r="W57" t="s">
-        <v>487</v>
-      </c>
-      <c r="X57" t="s">
-        <v>488</v>
-      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>496</v>
+        <v>425</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>63083</v>
       </c>
-      <c r="B58" t="n">
-        <v>155760</v>
-      </c>
-      <c r="C58" t="s">
-        <v>497</v>
-      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>498</v>
+        <v>426</v>
       </c>
       <c r="G58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>499</v>
+        <v>427</v>
       </c>
       <c r="J58" t="s">
-        <v>500</v>
+        <v>428</v>
       </c>
       <c r="K58" t="s">
-        <v>501</v>
+        <v>429</v>
       </c>
       <c r="L58" t="s">
-        <v>502</v>
+        <v>430</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>503</v>
+        <v>424</v>
       </c>
       <c r="O58" t="s">
-        <v>68</v>
+        <v>169</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
       <c r="R58" t="s"/>
-      <c r="S58" t="s"/>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
       <c r="T58" t="s"/>
-      <c r="U58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
       <c r="V58" t="n">
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>504</v>
+        <v>431</v>
       </c>
       <c r="X58" t="s">
-        <v>505</v>
+        <v>432</v>
       </c>
       <c r="Y58" t="s">
-        <v>506</v>
+        <v>433</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>63083</v>
       </c>
-      <c r="B59" t="n">
-        <v>155730</v>
-      </c>
-      <c r="C59" t="s">
-        <v>147</v>
-      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>507</v>
+        <v>434</v>
       </c>
       <c r="G59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>508</v>
+        <v>435</v>
       </c>
       <c r="J59" t="s">
-        <v>509</v>
+        <v>436</v>
       </c>
       <c r="K59" t="s">
-        <v>510</v>
+        <v>437</v>
       </c>
       <c r="L59" t="s">
-        <v>511</v>
+        <v>438</v>
       </c>
       <c r="M59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N59" t="s">
-        <v>486</v>
+        <v>439</v>
       </c>
       <c r="O59" t="s">
-        <v>68</v>
+        <v>169</v>
       </c>
       <c r="P59" t="s"/>
-      <c r="Q59" t="s"/>
-      <c r="R59" t="n">
-        <v>5</v>
-      </c>
-      <c r="S59" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q59" t="n">
+        <v>2</v>
+      </c>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
       <c r="T59" t="s"/>
-      <c r="U59" t="n">
-        <v>5</v>
-      </c>
+      <c r="U59" t="s"/>
       <c r="V59" t="n">
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>504</v>
+        <v>440</v>
       </c>
       <c r="X59" t="s">
-        <v>505</v>
+        <v>441</v>
       </c>
       <c r="Y59" t="s">
-        <v>512</v>
+        <v>442</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>63083</v>
       </c>
-      <c r="B60" t="n">
-        <v>48443</v>
-      </c>
-      <c r="C60" t="s">
-        <v>513</v>
-      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>514</v>
+        <v>443</v>
       </c>
       <c r="G60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>515</v>
+        <v>444</v>
       </c>
       <c r="J60" t="s">
-        <v>516</v>
+        <v>436</v>
       </c>
       <c r="K60" t="s">
-        <v>517</v>
+        <v>445</v>
       </c>
       <c r="L60" t="s">
-        <v>518</v>
+        <v>446</v>
       </c>
       <c r="M60" t="n">
-        <v>5</v>
-      </c>
-      <c r="N60" t="s"/>
-      <c r="O60" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>439</v>
+      </c>
+      <c r="O60" t="s">
+        <v>169</v>
+      </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="s"/>
       <c r="R60" t="s"/>
@@ -6401,121 +6241,119 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>504</v>
+        <v>440</v>
       </c>
       <c r="X60" t="s">
-        <v>505</v>
+        <v>441</v>
       </c>
       <c r="Y60" t="s">
-        <v>519</v>
+        <v>447</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>63083</v>
       </c>
-      <c r="B61" t="n">
-        <v>155761</v>
-      </c>
-      <c r="C61" t="s">
-        <v>520</v>
-      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>521</v>
+        <v>448</v>
       </c>
       <c r="G61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>522</v>
+        <v>449</v>
       </c>
       <c r="J61" t="s">
-        <v>523</v>
+        <v>450</v>
       </c>
       <c r="K61" t="s">
-        <v>524</v>
+        <v>451</v>
       </c>
       <c r="L61" t="s">
-        <v>525</v>
+        <v>452</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
-      <c r="N61" t="s"/>
-      <c r="O61" t="s"/>
+      <c r="N61" t="s">
+        <v>453</v>
+      </c>
+      <c r="O61" t="s">
+        <v>169</v>
+      </c>
       <c r="P61" t="s"/>
-      <c r="Q61" t="s"/>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
       <c r="R61" t="s"/>
-      <c r="S61" t="s"/>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
       <c r="T61" t="s"/>
-      <c r="U61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
       <c r="V61" t="n">
         <v>0</v>
       </c>
-      <c r="W61" t="s">
-        <v>504</v>
-      </c>
-      <c r="X61" t="s">
-        <v>505</v>
-      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>526</v>
+        <v>454</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>63083</v>
       </c>
-      <c r="B62" t="n">
-        <v>155762</v>
-      </c>
-      <c r="C62" t="s">
-        <v>527</v>
-      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>528</v>
+        <v>455</v>
       </c>
       <c r="G62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>529</v>
+        <v>456</v>
       </c>
       <c r="J62" t="s">
-        <v>530</v>
+        <v>457</v>
       </c>
       <c r="K62" t="s">
-        <v>531</v>
+        <v>458</v>
       </c>
       <c r="L62" t="s">
-        <v>532</v>
+        <v>459</v>
       </c>
       <c r="M62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>503</v>
+        <v>453</v>
       </c>
       <c r="O62" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="P62" t="s"/>
       <c r="Q62" t="s"/>
@@ -6527,404 +6365,384 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>533</v>
+        <v>460</v>
       </c>
       <c r="X62" t="s">
-        <v>534</v>
+        <v>461</v>
       </c>
       <c r="Y62" t="s">
-        <v>535</v>
+        <v>462</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>63083</v>
       </c>
-      <c r="B63" t="n">
-        <v>155763</v>
-      </c>
-      <c r="C63" t="s">
-        <v>536</v>
-      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>537</v>
+        <v>463</v>
       </c>
       <c r="G63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>538</v>
+        <v>464</v>
       </c>
       <c r="J63" t="s">
-        <v>539</v>
+        <v>465</v>
       </c>
       <c r="K63" t="s">
-        <v>540</v>
+        <v>466</v>
       </c>
       <c r="L63" t="s">
-        <v>541</v>
+        <v>467</v>
       </c>
       <c r="M63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>503</v>
+        <v>468</v>
       </c>
       <c r="O63" t="s">
-        <v>68</v>
-      </c>
-      <c r="P63" t="s"/>
-      <c r="Q63" t="s"/>
-      <c r="R63" t="n">
-        <v>5</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="s"/>
       <c r="S63" t="s"/>
       <c r="T63" t="s"/>
       <c r="U63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V63" t="n">
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>542</v>
+        <v>469</v>
       </c>
       <c r="X63" t="s">
-        <v>543</v>
+        <v>470</v>
       </c>
       <c r="Y63" t="s">
-        <v>544</v>
+        <v>471</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>63083</v>
       </c>
-      <c r="B64" t="n">
-        <v>155755</v>
-      </c>
-      <c r="C64" t="s">
-        <v>443</v>
-      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>545</v>
+        <v>472</v>
       </c>
       <c r="G64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>546</v>
+        <v>473</v>
       </c>
       <c r="J64" t="s">
-        <v>547</v>
+        <v>474</v>
       </c>
       <c r="K64" t="s">
-        <v>548</v>
+        <v>475</v>
       </c>
       <c r="L64" t="s">
-        <v>549</v>
+        <v>476</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>550</v>
+        <v>477</v>
       </c>
       <c r="O64" t="s">
-        <v>117</v>
-      </c>
-      <c r="P64" t="s"/>
-      <c r="Q64" t="n">
+        <v>169</v>
+      </c>
+      <c r="P64" t="n">
         <v>4</v>
       </c>
+      <c r="Q64" t="s"/>
       <c r="R64" t="s"/>
       <c r="S64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T64" t="s"/>
       <c r="U64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V64" t="n">
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>551</v>
+        <v>469</v>
       </c>
       <c r="X64" t="s">
-        <v>552</v>
+        <v>470</v>
       </c>
       <c r="Y64" t="s">
-        <v>553</v>
+        <v>478</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>63083</v>
       </c>
-      <c r="B65" t="n">
-        <v>35960</v>
-      </c>
-      <c r="C65" t="s">
-        <v>554</v>
-      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>555</v>
+        <v>479</v>
       </c>
       <c r="G65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>556</v>
+        <v>480</v>
       </c>
       <c r="J65" t="s">
-        <v>557</v>
+        <v>481</v>
       </c>
       <c r="K65" t="s">
-        <v>558</v>
+        <v>482</v>
       </c>
       <c r="L65" t="s">
-        <v>559</v>
+        <v>483</v>
       </c>
       <c r="M65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>560</v>
+        <v>468</v>
       </c>
       <c r="O65" t="s">
-        <v>68</v>
-      </c>
-      <c r="P65" t="n">
-        <v>5</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P65" t="s"/>
       <c r="Q65" t="s"/>
-      <c r="R65" t="s"/>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
       <c r="S65" t="n">
         <v>5</v>
       </c>
       <c r="T65" t="s"/>
-      <c r="U65" t="n">
-        <v>5</v>
-      </c>
+      <c r="U65" t="s"/>
       <c r="V65" t="n">
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>561</v>
+        <v>484</v>
       </c>
       <c r="X65" t="s">
-        <v>552</v>
+        <v>470</v>
       </c>
       <c r="Y65" t="s">
-        <v>562</v>
+        <v>485</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>63083</v>
       </c>
-      <c r="B66" t="n">
-        <v>155764</v>
-      </c>
-      <c r="C66" t="s">
-        <v>563</v>
-      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>564</v>
+        <v>486</v>
       </c>
       <c r="G66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>565</v>
+        <v>487</v>
       </c>
       <c r="J66" t="s">
-        <v>566</v>
+        <v>481</v>
       </c>
       <c r="K66" t="s">
-        <v>567</v>
+        <v>488</v>
       </c>
       <c r="L66" t="s">
-        <v>568</v>
+        <v>489</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>560</v>
+        <v>468</v>
       </c>
       <c r="O66" t="s">
-        <v>68</v>
-      </c>
-      <c r="P66" t="n">
-        <v>5</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P66" t="s"/>
       <c r="Q66" t="s"/>
       <c r="R66" t="s"/>
-      <c r="S66" t="n">
-        <v>5</v>
-      </c>
+      <c r="S66" t="s"/>
       <c r="T66" t="s"/>
-      <c r="U66" t="n">
-        <v>5</v>
-      </c>
+      <c r="U66" t="s"/>
       <c r="V66" t="n">
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>569</v>
+        <v>490</v>
       </c>
       <c r="X66" t="s">
-        <v>570</v>
+        <v>491</v>
       </c>
       <c r="Y66" t="s">
-        <v>571</v>
+        <v>492</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>63083</v>
       </c>
-      <c r="B67" t="n">
-        <v>155765</v>
-      </c>
-      <c r="C67" t="s">
-        <v>572</v>
-      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="G67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>574</v>
+        <v>494</v>
       </c>
       <c r="J67" t="s">
-        <v>575</v>
+        <v>495</v>
       </c>
       <c r="K67" t="s">
-        <v>576</v>
+        <v>496</v>
       </c>
       <c r="L67" t="s">
-        <v>577</v>
+        <v>497</v>
       </c>
       <c r="M67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>550</v>
+        <v>477</v>
       </c>
       <c r="O67" t="s">
-        <v>68</v>
+        <v>316</v>
       </c>
       <c r="P67" t="s"/>
       <c r="Q67" t="s"/>
-      <c r="R67" t="s"/>
-      <c r="S67" t="s"/>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
       <c r="T67" t="s"/>
-      <c r="U67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
       <c r="V67" t="n">
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>578</v>
+        <v>498</v>
       </c>
       <c r="X67" t="s">
-        <v>579</v>
+        <v>499</v>
       </c>
       <c r="Y67" t="s">
-        <v>580</v>
+        <v>500</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>63083</v>
       </c>
-      <c r="B68" t="n">
-        <v>155766</v>
-      </c>
-      <c r="C68" t="s">
-        <v>581</v>
-      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>582</v>
+        <v>501</v>
       </c>
       <c r="G68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H68" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>583</v>
+        <v>502</v>
       </c>
       <c r="J68" t="s">
-        <v>584</v>
+        <v>503</v>
       </c>
       <c r="K68" t="s">
-        <v>585</v>
+        <v>504</v>
       </c>
       <c r="L68" t="s">
-        <v>586</v>
+        <v>505</v>
       </c>
       <c r="M68" t="n">
-        <v>5</v>
-      </c>
-      <c r="N68" t="s"/>
-      <c r="O68" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N68" t="s">
+        <v>477</v>
+      </c>
+      <c r="O68" t="s">
+        <v>65</v>
+      </c>
       <c r="P68" t="s"/>
       <c r="Q68" t="s"/>
       <c r="R68" t="s"/>
@@ -6935,205 +6753,187 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>578</v>
+        <v>506</v>
       </c>
       <c r="X68" t="s">
-        <v>579</v>
+        <v>507</v>
       </c>
       <c r="Y68" t="s">
-        <v>587</v>
+        <v>508</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>63083</v>
       </c>
-      <c r="B69" t="n">
-        <v>155767</v>
-      </c>
-      <c r="C69" t="s">
-        <v>588</v>
-      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>589</v>
+        <v>509</v>
       </c>
       <c r="G69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H69" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>590</v>
+        <v>510</v>
       </c>
       <c r="J69" t="s">
-        <v>591</v>
+        <v>511</v>
       </c>
       <c r="K69" t="s">
-        <v>592</v>
+        <v>512</v>
       </c>
       <c r="L69" t="s">
-        <v>593</v>
+        <v>513</v>
       </c>
       <c r="M69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>550</v>
+        <v>514</v>
       </c>
       <c r="O69" t="s">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="P69" t="s"/>
-      <c r="Q69" t="s"/>
-      <c r="R69" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="s"/>
       <c r="S69" t="s"/>
       <c r="T69" t="s"/>
       <c r="U69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V69" t="n">
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>569</v>
+        <v>515</v>
       </c>
       <c r="X69" t="s">
-        <v>570</v>
+        <v>516</v>
       </c>
       <c r="Y69" t="s">
-        <v>594</v>
+        <v>517</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>63083</v>
       </c>
-      <c r="B70" t="n">
-        <v>155768</v>
-      </c>
-      <c r="C70" t="s">
-        <v>595</v>
-      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>596</v>
+        <v>518</v>
       </c>
       <c r="G70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H70" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>597</v>
+        <v>519</v>
       </c>
       <c r="J70" t="s">
-        <v>598</v>
+        <v>520</v>
       </c>
       <c r="K70" t="s">
-        <v>599</v>
+        <v>521</v>
       </c>
       <c r="L70" t="s">
-        <v>600</v>
+        <v>522</v>
       </c>
       <c r="M70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>601</v>
+        <v>514</v>
       </c>
       <c r="O70" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="P70" t="s"/>
       <c r="Q70" t="s"/>
       <c r="R70" t="s"/>
-      <c r="S70" t="n">
-        <v>5</v>
-      </c>
+      <c r="S70" t="s"/>
       <c r="T70" t="s"/>
-      <c r="U70" t="n">
-        <v>5</v>
-      </c>
+      <c r="U70" t="s"/>
       <c r="V70" t="n">
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>602</v>
+        <v>523</v>
       </c>
       <c r="X70" t="s">
-        <v>603</v>
+        <v>524</v>
       </c>
       <c r="Y70" t="s">
-        <v>604</v>
+        <v>525</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>63083</v>
       </c>
-      <c r="B71" t="n">
-        <v>155769</v>
-      </c>
-      <c r="C71" t="s">
-        <v>605</v>
-      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>606</v>
+        <v>526</v>
       </c>
       <c r="G71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I71" t="s">
-        <v>607</v>
+        <v>527</v>
       </c>
       <c r="J71" t="s">
-        <v>608</v>
+        <v>528</v>
       </c>
       <c r="K71" t="s">
-        <v>609</v>
+        <v>529</v>
       </c>
       <c r="L71" t="s">
-        <v>610</v>
+        <v>530</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>611</v>
+        <v>514</v>
       </c>
       <c r="O71" t="s">
-        <v>54</v>
+        <v>316</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
       </c>
-      <c r="Q71" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q71" t="s"/>
       <c r="R71" t="s"/>
       <c r="S71" t="s"/>
       <c r="T71" t="s"/>
@@ -7144,60 +6944,56 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>578</v>
+        <v>531</v>
       </c>
       <c r="X71" t="s">
-        <v>579</v>
+        <v>532</v>
       </c>
       <c r="Y71" t="s">
-        <v>612</v>
+        <v>533</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>63083</v>
       </c>
-      <c r="B72" t="n">
-        <v>155770</v>
-      </c>
-      <c r="C72" t="s">
-        <v>613</v>
-      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>614</v>
+        <v>534</v>
       </c>
       <c r="G72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H72" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I72" t="s">
-        <v>615</v>
+        <v>535</v>
       </c>
       <c r="J72" t="s">
-        <v>616</v>
+        <v>536</v>
       </c>
       <c r="K72" t="s">
-        <v>617</v>
+        <v>537</v>
       </c>
       <c r="L72" t="s">
-        <v>618</v>
+        <v>538</v>
       </c>
       <c r="M72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N72" t="s">
-        <v>619</v>
+        <v>539</v>
       </c>
       <c r="O72" t="s">
-        <v>117</v>
+        <v>53</v>
       </c>
       <c r="P72" t="s"/>
       <c r="Q72" t="s"/>
@@ -7209,256 +7005,242 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>620</v>
+        <v>540</v>
       </c>
       <c r="X72" t="s">
-        <v>621</v>
+        <v>541</v>
       </c>
       <c r="Y72" t="s">
-        <v>622</v>
+        <v>542</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>63083</v>
       </c>
-      <c r="B73" t="n">
-        <v>155771</v>
-      </c>
-      <c r="C73" t="s">
-        <v>623</v>
-      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>624</v>
+        <v>543</v>
       </c>
       <c r="G73" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H73" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I73" t="s">
-        <v>625</v>
+        <v>544</v>
       </c>
       <c r="J73" t="s">
-        <v>626</v>
+        <v>545</v>
       </c>
       <c r="K73" t="s">
-        <v>627</v>
+        <v>546</v>
       </c>
       <c r="L73" t="s">
-        <v>628</v>
+        <v>547</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>629</v>
+        <v>539</v>
       </c>
       <c r="O73" t="s">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="P73" t="s"/>
-      <c r="Q73" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q73" t="s"/>
       <c r="R73" t="s"/>
-      <c r="S73" t="n">
-        <v>5</v>
-      </c>
+      <c r="S73" t="s"/>
       <c r="T73" t="s"/>
-      <c r="U73" t="n">
-        <v>5</v>
-      </c>
+      <c r="U73" t="s"/>
       <c r="V73" t="n">
         <v>0</v>
       </c>
-      <c r="W73" t="s"/>
-      <c r="X73" t="s"/>
+      <c r="W73" t="s">
+        <v>540</v>
+      </c>
+      <c r="X73" t="s">
+        <v>541</v>
+      </c>
       <c r="Y73" t="s">
-        <v>628</v>
+        <v>548</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>63083</v>
       </c>
-      <c r="B74" t="n">
-        <v>11559</v>
-      </c>
-      <c r="C74" t="s">
-        <v>630</v>
-      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>631</v>
+        <v>549</v>
       </c>
       <c r="G74" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H74" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I74" t="s">
-        <v>632</v>
+        <v>550</v>
       </c>
       <c r="J74" t="s">
-        <v>633</v>
+        <v>551</v>
       </c>
       <c r="K74" t="s">
-        <v>634</v>
+        <v>552</v>
       </c>
       <c r="L74" t="s">
-        <v>635</v>
+        <v>553</v>
       </c>
       <c r="M74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>636</v>
+        <v>554</v>
       </c>
       <c r="O74" t="s">
-        <v>117</v>
-      </c>
-      <c r="P74" t="n">
-        <v>2</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P74" t="s"/>
       <c r="Q74" t="s"/>
-      <c r="R74" t="n">
-        <v>2</v>
-      </c>
+      <c r="R74" t="s"/>
       <c r="S74" t="s"/>
       <c r="T74" t="s"/>
-      <c r="U74" t="n">
-        <v>3</v>
-      </c>
+      <c r="U74" t="s"/>
       <c r="V74" t="n">
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>637</v>
+        <v>555</v>
       </c>
       <c r="X74" t="s">
-        <v>638</v>
+        <v>556</v>
       </c>
       <c r="Y74" t="s">
-        <v>639</v>
+        <v>557</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>63083</v>
       </c>
-      <c r="B75" t="n">
-        <v>155772</v>
-      </c>
-      <c r="C75" t="s">
-        <v>640</v>
-      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F75" t="s">
-        <v>641</v>
+        <v>558</v>
       </c>
       <c r="G75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H75" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I75" t="s">
-        <v>642</v>
+        <v>559</v>
       </c>
       <c r="J75" t="s">
-        <v>643</v>
+        <v>560</v>
       </c>
       <c r="K75" t="s">
-        <v>644</v>
+        <v>561</v>
       </c>
       <c r="L75" t="s">
-        <v>645</v>
+        <v>562</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
-      <c r="N75" t="s"/>
-      <c r="O75" t="s"/>
+      <c r="N75" t="s">
+        <v>539</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
       <c r="P75" t="s"/>
       <c r="Q75" t="s"/>
-      <c r="R75" t="s"/>
-      <c r="S75" t="s"/>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
       <c r="T75" t="s"/>
-      <c r="U75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
       <c r="V75" t="n">
         <v>0</v>
       </c>
-      <c r="W75" t="s"/>
-      <c r="X75" t="s"/>
+      <c r="W75" t="s">
+        <v>555</v>
+      </c>
+      <c r="X75" t="s">
+        <v>556</v>
+      </c>
       <c r="Y75" t="s">
-        <v>645</v>
+        <v>563</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>63083</v>
       </c>
-      <c r="B76" t="n">
-        <v>155773</v>
-      </c>
-      <c r="C76" t="s">
-        <v>646</v>
-      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F76" t="s">
-        <v>647</v>
+        <v>564</v>
       </c>
       <c r="G76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H76" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I76" t="s">
-        <v>648</v>
+        <v>565</v>
       </c>
       <c r="J76" t="s">
-        <v>649</v>
+        <v>566</v>
       </c>
       <c r="K76" t="s">
-        <v>650</v>
+        <v>567</v>
       </c>
       <c r="L76" t="s">
-        <v>651</v>
+        <v>568</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
-      <c r="N76" t="s">
-        <v>652</v>
-      </c>
-      <c r="O76" t="s">
-        <v>68</v>
-      </c>
+      <c r="N76" t="s"/>
+      <c r="O76" t="s"/>
       <c r="P76" t="s"/>
       <c r="Q76" t="s"/>
       <c r="R76" t="s"/>
@@ -7468,209 +7250,1219 @@
       <c r="V76" t="n">
         <v>0</v>
       </c>
-      <c r="W76" t="s"/>
-      <c r="X76" t="s"/>
+      <c r="W76" t="s">
+        <v>555</v>
+      </c>
+      <c r="X76" t="s">
+        <v>556</v>
+      </c>
       <c r="Y76" t="s">
-        <v>651</v>
+        <v>569</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>63083</v>
       </c>
-      <c r="B77" t="n">
-        <v>155774</v>
-      </c>
-      <c r="C77" t="s">
-        <v>653</v>
-      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F77" t="s">
-        <v>654</v>
+        <v>570</v>
       </c>
       <c r="G77" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H77" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I77" t="s">
-        <v>655</v>
+        <v>571</v>
       </c>
       <c r="J77" t="s">
-        <v>656</v>
+        <v>572</v>
       </c>
       <c r="K77" t="s">
-        <v>657</v>
+        <v>573</v>
       </c>
       <c r="L77" t="s">
-        <v>658</v>
+        <v>574</v>
       </c>
       <c r="M77" t="n">
-        <v>2</v>
-      </c>
-      <c r="N77" t="s">
-        <v>659</v>
-      </c>
-      <c r="O77" t="s">
-        <v>68</v>
-      </c>
-      <c r="P77" t="n">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N77" t="s"/>
+      <c r="O77" t="s"/>
+      <c r="P77" t="s"/>
       <c r="Q77" t="s"/>
       <c r="R77" t="s"/>
-      <c r="S77" t="n">
-        <v>1</v>
-      </c>
+      <c r="S77" t="s"/>
       <c r="T77" t="s"/>
-      <c r="U77" t="n">
-        <v>3</v>
-      </c>
+      <c r="U77" t="s"/>
       <c r="V77" t="n">
         <v>0</v>
       </c>
-      <c r="W77" t="s"/>
-      <c r="X77" t="s"/>
+      <c r="W77" t="s">
+        <v>555</v>
+      </c>
+      <c r="X77" t="s">
+        <v>556</v>
+      </c>
       <c r="Y77" t="s">
-        <v>660</v>
+        <v>575</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>63083</v>
       </c>
-      <c r="B78" t="n">
-        <v>155775</v>
-      </c>
-      <c r="C78" t="s">
-        <v>661</v>
-      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F78" t="s">
-        <v>662</v>
+        <v>576</v>
       </c>
       <c r="G78" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H78" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I78" t="s">
-        <v>663</v>
+        <v>577</v>
       </c>
       <c r="J78" t="s">
-        <v>664</v>
+        <v>578</v>
       </c>
       <c r="K78" t="s">
-        <v>665</v>
+        <v>579</v>
       </c>
       <c r="L78" t="s">
-        <v>666</v>
+        <v>580</v>
       </c>
       <c r="M78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N78" t="s">
-        <v>652</v>
+        <v>554</v>
       </c>
       <c r="O78" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="P78" t="s"/>
-      <c r="Q78" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q78" t="s"/>
       <c r="R78" t="s"/>
       <c r="S78" t="s"/>
       <c r="T78" t="s"/>
-      <c r="U78" t="n">
-        <v>5</v>
-      </c>
+      <c r="U78" t="s"/>
       <c r="V78" t="n">
         <v>0</v>
       </c>
-      <c r="W78" t="s"/>
-      <c r="X78" t="s"/>
+      <c r="W78" t="s">
+        <v>581</v>
+      </c>
+      <c r="X78" t="s">
+        <v>582</v>
+      </c>
       <c r="Y78" t="s">
-        <v>666</v>
+        <v>583</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>63083</v>
       </c>
-      <c r="B79" t="n">
-        <v>8503</v>
-      </c>
-      <c r="C79" t="s">
-        <v>667</v>
-      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F79" t="s">
-        <v>668</v>
+        <v>584</v>
       </c>
       <c r="G79" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H79" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I79" t="s">
-        <v>669</v>
+        <v>585</v>
       </c>
       <c r="J79" t="s">
-        <v>670</v>
+        <v>586</v>
       </c>
       <c r="K79" t="s">
-        <v>671</v>
+        <v>587</v>
       </c>
       <c r="L79" t="s">
-        <v>672</v>
+        <v>588</v>
       </c>
       <c r="M79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N79" t="s">
-        <v>652</v>
+        <v>554</v>
       </c>
       <c r="O79" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P79" t="s"/>
       <c r="Q79" t="s"/>
       <c r="R79" t="n">
         <v>5</v>
       </c>
-      <c r="S79" t="n">
-        <v>5</v>
-      </c>
+      <c r="S79" t="s"/>
       <c r="T79" t="s"/>
       <c r="U79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V79" t="n">
         <v>0</v>
       </c>
-      <c r="W79" t="s"/>
-      <c r="X79" t="s"/>
+      <c r="W79" t="s">
+        <v>589</v>
+      </c>
+      <c r="X79" t="s">
+        <v>590</v>
+      </c>
       <c r="Y79" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>63083</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>592</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>593</v>
+      </c>
+      <c r="J80" t="s">
+        <v>594</v>
+      </c>
+      <c r="K80" t="s">
+        <v>595</v>
+      </c>
+      <c r="L80" t="s">
+        <v>596</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>597</v>
+      </c>
+      <c r="O80" t="s">
+        <v>169</v>
+      </c>
+      <c r="P80" t="s"/>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="s"/>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>3</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>598</v>
+      </c>
+      <c r="X80" t="s">
+        <v>599</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>63083</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>601</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>602</v>
+      </c>
+      <c r="J81" t="s">
+        <v>603</v>
+      </c>
+      <c r="K81" t="s">
+        <v>604</v>
+      </c>
+      <c r="L81" t="s">
+        <v>605</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>606</v>
+      </c>
+      <c r="O81" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="s"/>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>607</v>
+      </c>
+      <c r="X81" t="s">
+        <v>599</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>63083</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>609</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>610</v>
+      </c>
+      <c r="J82" t="s">
+        <v>611</v>
+      </c>
+      <c r="K82" t="s">
+        <v>612</v>
+      </c>
+      <c r="L82" t="s">
+        <v>613</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>606</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="s"/>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>614</v>
+      </c>
+      <c r="X82" t="s">
+        <v>615</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>63083</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>617</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>618</v>
+      </c>
+      <c r="J83" t="s">
+        <v>619</v>
+      </c>
+      <c r="K83" t="s">
+        <v>620</v>
+      </c>
+      <c r="L83" t="s">
+        <v>621</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>597</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="s"/>
+      <c r="T83" t="s"/>
+      <c r="U83" t="s"/>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>622</v>
+      </c>
+      <c r="X83" t="s">
+        <v>623</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>63083</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>625</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>626</v>
+      </c>
+      <c r="J84" t="s">
+        <v>627</v>
+      </c>
+      <c r="K84" t="s">
+        <v>628</v>
+      </c>
+      <c r="L84" t="s">
+        <v>629</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s"/>
+      <c r="O84" t="s"/>
+      <c r="P84" t="s"/>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="s"/>
+      <c r="S84" t="s"/>
+      <c r="T84" t="s"/>
+      <c r="U84" t="s"/>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>622</v>
+      </c>
+      <c r="X84" t="s">
+        <v>623</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>63083</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>631</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>632</v>
+      </c>
+      <c r="J85" t="s">
+        <v>633</v>
+      </c>
+      <c r="K85" t="s">
+        <v>634</v>
+      </c>
+      <c r="L85" t="s">
+        <v>635</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>597</v>
+      </c>
+      <c r="O85" t="s">
+        <v>169</v>
+      </c>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>614</v>
+      </c>
+      <c r="X85" t="s">
+        <v>615</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>63083</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>637</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>638</v>
+      </c>
+      <c r="J86" t="s">
+        <v>639</v>
+      </c>
+      <c r="K86" t="s">
+        <v>640</v>
+      </c>
+      <c r="L86" t="s">
+        <v>641</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>642</v>
+      </c>
+      <c r="O86" t="s">
+        <v>65</v>
+      </c>
+      <c r="P86" t="s"/>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="s"/>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>643</v>
+      </c>
+      <c r="X86" t="s">
+        <v>644</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>63083</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>646</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>647</v>
+      </c>
+      <c r="J87" t="s">
+        <v>648</v>
+      </c>
+      <c r="K87" t="s">
+        <v>649</v>
+      </c>
+      <c r="L87" t="s">
+        <v>650</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>651</v>
+      </c>
+      <c r="O87" t="s">
+        <v>65</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="s"/>
+      <c r="S87" t="s"/>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>622</v>
+      </c>
+      <c r="X87" t="s">
+        <v>623</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>63083</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>653</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>654</v>
+      </c>
+      <c r="J88" t="s">
+        <v>655</v>
+      </c>
+      <c r="K88" t="s">
+        <v>656</v>
+      </c>
+      <c r="L88" t="s">
+        <v>657</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>642</v>
+      </c>
+      <c r="O88" t="s">
+        <v>65</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="n">
+        <v>3</v>
+      </c>
+      <c r="S88" t="s"/>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>63083</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>659</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>660</v>
+      </c>
+      <c r="J89" t="s">
+        <v>661</v>
+      </c>
+      <c r="K89" t="s">
+        <v>662</v>
+      </c>
+      <c r="L89" t="s">
+        <v>663</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>642</v>
+      </c>
+      <c r="O89" t="s">
+        <v>53</v>
+      </c>
+      <c r="P89" t="s"/>
+      <c r="Q89" t="s"/>
+      <c r="R89" t="s"/>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>63083</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>665</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>666</v>
+      </c>
+      <c r="J90" t="s">
+        <v>667</v>
+      </c>
+      <c r="K90" t="s">
+        <v>668</v>
+      </c>
+      <c r="L90" t="s">
+        <v>669</v>
+      </c>
+      <c r="M90" t="n">
+        <v>3</v>
+      </c>
+      <c r="N90" t="s"/>
+      <c r="O90" t="s"/>
+      <c r="P90" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>4</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>3</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>670</v>
+      </c>
+      <c r="X90" t="s">
+        <v>671</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>63083</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
         <v>673</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>674</v>
+      </c>
+      <c r="J91" t="s">
+        <v>675</v>
+      </c>
+      <c r="K91" t="s">
+        <v>676</v>
+      </c>
+      <c r="L91" t="s">
+        <v>677</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>642</v>
+      </c>
+      <c r="O91" t="s">
+        <v>65</v>
+      </c>
+      <c r="P91" t="s"/>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="s"/>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>63083</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>678</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>679</v>
+      </c>
+      <c r="J92" t="s">
+        <v>680</v>
+      </c>
+      <c r="K92" t="s">
+        <v>681</v>
+      </c>
+      <c r="L92" t="s">
+        <v>682</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>683</v>
+      </c>
+      <c r="O92" t="s">
+        <v>169</v>
+      </c>
+      <c r="P92" t="s"/>
+      <c r="Q92" t="s"/>
+      <c r="R92" t="s"/>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>63083</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>684</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>685</v>
+      </c>
+      <c r="J93" t="s">
+        <v>686</v>
+      </c>
+      <c r="K93" t="s">
+        <v>687</v>
+      </c>
+      <c r="L93" t="s">
+        <v>688</v>
+      </c>
+      <c r="M93" t="n">
+        <v>2</v>
+      </c>
+      <c r="N93" t="s">
+        <v>689</v>
+      </c>
+      <c r="O93" t="s">
+        <v>169</v>
+      </c>
+      <c r="P93" t="s"/>
+      <c r="Q93" t="s"/>
+      <c r="R93" t="s"/>
+      <c r="S93" t="s"/>
+      <c r="T93" t="s"/>
+      <c r="U93" t="s"/>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>690</v>
+      </c>
+      <c r="X93" t="s">
+        <v>691</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>63083</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>693</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>694</v>
+      </c>
+      <c r="J94" t="s">
+        <v>695</v>
+      </c>
+      <c r="K94" t="s">
+        <v>696</v>
+      </c>
+      <c r="L94" t="s">
+        <v>697</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>683</v>
+      </c>
+      <c r="O94" t="s">
+        <v>169</v>
+      </c>
+      <c r="P94" t="s"/>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="s"/>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>63083</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>698</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>699</v>
+      </c>
+      <c r="J95" t="s">
+        <v>700</v>
+      </c>
+      <c r="K95" t="s">
+        <v>701</v>
+      </c>
+      <c r="L95" t="s">
+        <v>702</v>
+      </c>
+      <c r="M95" t="n">
+        <v>2</v>
+      </c>
+      <c r="N95" t="s">
+        <v>703</v>
+      </c>
+      <c r="O95" t="s">
+        <v>169</v>
+      </c>
+      <c r="P95" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q95" t="s"/>
+      <c r="R95" t="n">
+        <v>2</v>
+      </c>
+      <c r="S95" t="s"/>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>3</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>704</v>
+      </c>
+      <c r="X95" t="s">
+        <v>705</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>706</v>
       </c>
     </row>
   </sheetData>
